--- a/INTLINE/data/134/DEUSTATIS/Turnover in retail trade - 2004.xlsx
+++ b/INTLINE/data/134/DEUSTATIS/Turnover in retail trade - 2004.xlsx
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="59">
   <si>
-    <t>Turnover in retail trade (real/nominal): Germany, months,
+    <t>Turnover in retail trade: Germany, months, price types, 
 original and adjusted data, economic activities</t>
   </si>
   <si>
@@ -190,7 +190,7 @@
     <t>a break in the time series.</t>
   </si>
   <si>
-    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-04-01 / 03:41:29</t>
+    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-06-17 / 09:19:50</t>
   </si>
 </sst>
 </file>
@@ -5719,7 +5719,7 @@
         <v>95.3</v>
       </c>
       <c r="CD11" t="n" s="10">
-        <v>92.2</v>
+        <v>92.1</v>
       </c>
       <c r="CE11" t="n" s="10">
         <v>92.3</v>
@@ -5731,7 +5731,7 @@
         <v>97.5</v>
       </c>
       <c r="CH11" t="n" s="10">
-        <v>110.9</v>
+        <v>111.0</v>
       </c>
       <c r="CI11" t="n" s="10">
         <v>87.3</v>
@@ -5749,7 +5749,7 @@
         <v>92.4</v>
       </c>
       <c r="CN11" t="n" s="10">
-        <v>92.7</v>
+        <v>92.6</v>
       </c>
       <c r="CO11" t="n" s="10">
         <v>95.8</v>
@@ -5767,13 +5767,13 @@
         <v>98.3</v>
       </c>
       <c r="CT11" t="n" s="10">
-        <v>111.9</v>
+        <v>112.0</v>
       </c>
       <c r="CU11" t="n" s="10">
         <v>86.7</v>
       </c>
       <c r="CV11" t="n" s="10">
-        <v>83.3</v>
+        <v>83.4</v>
       </c>
       <c r="CW11" t="n" s="10">
         <v>96.7</v>
@@ -5803,7 +5803,7 @@
         <v>98.1</v>
       </c>
       <c r="DF11" t="n" s="10">
-        <v>111.3</v>
+        <v>111.1</v>
       </c>
       <c r="DG11" t="n" s="10">
         <v>88.3</v>
@@ -5839,7 +5839,7 @@
         <v>100.0</v>
       </c>
       <c r="DR11" t="n" s="10">
-        <v>111.5</v>
+        <v>111.4</v>
       </c>
       <c r="DS11" t="n" s="10">
         <v>88.9</v>
@@ -5860,7 +5860,7 @@
         <v>95.1</v>
       </c>
       <c r="DY11" t="n" s="10">
-        <v>96.1</v>
+        <v>96.0</v>
       </c>
       <c r="DZ11" t="n" s="10">
         <v>94.1</v>
@@ -5875,7 +5875,7 @@
         <v>100.8</v>
       </c>
       <c r="ED11" t="n" s="10">
-        <v>113.1</v>
+        <v>113.2</v>
       </c>
     </row>
     <row r="12">
@@ -6099,10 +6099,10 @@
         <v>93.9</v>
       </c>
       <c r="BW12" t="n" s="10">
-        <v>91.2</v>
+        <v>91.0</v>
       </c>
       <c r="BX12" t="n" s="10">
-        <v>93.4</v>
+        <v>93.5</v>
       </c>
       <c r="BY12" t="n" s="10">
         <v>94.0</v>
@@ -6114,7 +6114,7 @@
         <v>94.1</v>
       </c>
       <c r="CB12" t="n" s="10">
-        <v>94.6</v>
+        <v>94.4</v>
       </c>
       <c r="CC12" t="n" s="10">
         <v>95.3</v>
@@ -6132,16 +6132,16 @@
         <v>94.1</v>
       </c>
       <c r="CH12" t="n" s="10">
-        <v>93.7</v>
+        <v>93.9</v>
       </c>
       <c r="CI12" t="n" s="10">
-        <v>94.3</v>
+        <v>94.0</v>
       </c>
       <c r="CJ12" t="n" s="10">
         <v>96.2</v>
       </c>
       <c r="CK12" t="n" s="10">
-        <v>93.7</v>
+        <v>93.8</v>
       </c>
       <c r="CL12" t="n" s="10">
         <v>95.2</v>
@@ -6150,10 +6150,10 @@
         <v>92.6</v>
       </c>
       <c r="CN12" t="n" s="10">
-        <v>95.1</v>
+        <v>95.0</v>
       </c>
       <c r="CO12" t="n" s="10">
-        <v>95.5</v>
+        <v>95.6</v>
       </c>
       <c r="CP12" t="n" s="10">
         <v>95.5</v>
@@ -6162,28 +6162,28 @@
         <v>95.1</v>
       </c>
       <c r="CR12" t="n" s="10">
-        <v>95.6</v>
+        <v>95.7</v>
       </c>
       <c r="CS12" t="n" s="10">
         <v>94.9</v>
       </c>
       <c r="CT12" t="n" s="10">
-        <v>95.0</v>
+        <v>95.1</v>
       </c>
       <c r="CU12" t="n" s="10">
-        <v>93.8</v>
+        <v>93.4</v>
       </c>
       <c r="CV12" t="n" s="10">
-        <v>94.4</v>
+        <v>94.5</v>
       </c>
       <c r="CW12" t="n" s="10">
-        <v>95.1</v>
+        <v>95.2</v>
       </c>
       <c r="CX12" t="n" s="10">
         <v>95.2</v>
       </c>
       <c r="CY12" t="n" s="10">
-        <v>94.9</v>
+        <v>95.0</v>
       </c>
       <c r="CZ12" t="n" s="10">
         <v>95.7</v>
@@ -6192,10 +6192,10 @@
         <v>94.8</v>
       </c>
       <c r="DB12" t="n" s="10">
-        <v>94.8</v>
+        <v>94.9</v>
       </c>
       <c r="DC12" t="n" s="10">
-        <v>95.3</v>
+        <v>95.4</v>
       </c>
       <c r="DD12" t="n" s="10">
         <v>95.0</v>
@@ -6207,7 +6207,7 @@
         <v>94.9</v>
       </c>
       <c r="DG12" t="n" s="10">
-        <v>95.4</v>
+        <v>95.1</v>
       </c>
       <c r="DH12" t="n" s="10">
         <v>94.8</v>
@@ -6231,7 +6231,7 @@
         <v>95.3</v>
       </c>
       <c r="DO12" t="n" s="10">
-        <v>95.7</v>
+        <v>95.8</v>
       </c>
       <c r="DP12" t="n" s="10">
         <v>95.2</v>
@@ -6240,10 +6240,10 @@
         <v>96.3</v>
       </c>
       <c r="DR12" t="n" s="10">
-        <v>95.4</v>
+        <v>95.3</v>
       </c>
       <c r="DS12" t="n" s="10">
-        <v>95.8</v>
+        <v>95.7</v>
       </c>
       <c r="DT12" t="n" s="10">
         <v>96.3</v>
@@ -6276,7 +6276,7 @@
         <v>96.7</v>
       </c>
       <c r="ED12" t="n" s="10">
-        <v>96.7</v>
+        <v>96.9</v>
       </c>
     </row>
     <row r="13">
@@ -6446,7 +6446,7 @@
         <v>94.2</v>
       </c>
       <c r="BE13" t="n" s="10">
-        <v>95.3</v>
+        <v>95.2</v>
       </c>
       <c r="BF13" t="n" s="10">
         <v>95.4</v>
@@ -6461,7 +6461,7 @@
         <v>95.5</v>
       </c>
       <c r="BJ13" t="n" s="10">
-        <v>95.6</v>
+        <v>95.5</v>
       </c>
       <c r="BK13" t="n" s="10">
         <v>94.6</v>
@@ -6527,7 +6527,7 @@
         <v>94.1</v>
       </c>
       <c r="CF13" t="n" s="10">
-        <v>94.0</v>
+        <v>93.9</v>
       </c>
       <c r="CG13" t="n" s="10">
         <v>94.3</v>
@@ -6581,7 +6581,7 @@
         <v>96.5</v>
       </c>
       <c r="CX13" t="n" s="10">
-        <v>93.8</v>
+        <v>93.9</v>
       </c>
       <c r="CY13" t="n" s="10">
         <v>95.1</v>
@@ -6614,7 +6614,7 @@
         <v>94.5</v>
       </c>
       <c r="DI13" t="n" s="10">
-        <v>95.6</v>
+        <v>95.7</v>
       </c>
       <c r="DJ13" t="n" s="10">
         <v>94.3</v>
@@ -6949,7 +6949,7 @@
         <v>94.6</v>
       </c>
       <c r="CM14" t="n" s="10">
-        <v>94.7</v>
+        <v>94.6</v>
       </c>
       <c r="CN14" t="n" s="10">
         <v>94.7</v>
@@ -6979,7 +6979,7 @@
         <v>95.3</v>
       </c>
       <c r="CW14" t="n" s="10">
-        <v>95.3</v>
+        <v>95.2</v>
       </c>
       <c r="CX14" t="n" s="10">
         <v>95.2</v>
@@ -7727,7 +7727,7 @@
         <v>90.1</v>
       </c>
       <c r="CD16" t="n" s="10">
-        <v>87.2</v>
+        <v>87.1</v>
       </c>
       <c r="CE16" t="n" s="10">
         <v>87.8</v>
@@ -7739,7 +7739,7 @@
         <v>93.1</v>
       </c>
       <c r="CH16" t="n" s="10">
-        <v>106.1</v>
+        <v>106.2</v>
       </c>
       <c r="CI16" t="n" s="10">
         <v>83.1</v>
@@ -7757,7 +7757,7 @@
         <v>89.5</v>
       </c>
       <c r="CN16" t="n" s="10">
-        <v>89.4</v>
+        <v>89.3</v>
       </c>
       <c r="CO16" t="n" s="10">
         <v>92.0</v>
@@ -7775,13 +7775,13 @@
         <v>95.6</v>
       </c>
       <c r="CT16" t="n" s="10">
-        <v>108.2</v>
+        <v>108.3</v>
       </c>
       <c r="CU16" t="n" s="10">
         <v>84.0</v>
       </c>
       <c r="CV16" t="n" s="10">
-        <v>81.6</v>
+        <v>81.7</v>
       </c>
       <c r="CW16" t="n" s="10">
         <v>95.3</v>
@@ -7811,7 +7811,7 @@
         <v>97.2</v>
       </c>
       <c r="DF16" t="n" s="10">
-        <v>109.9</v>
+        <v>109.7</v>
       </c>
       <c r="DG16" t="n" s="10">
         <v>86.8</v>
@@ -7847,7 +7847,7 @@
         <v>99.9</v>
       </c>
       <c r="DR16" t="n" s="10">
-        <v>111.0</v>
+        <v>110.9</v>
       </c>
       <c r="DS16" t="n" s="10">
         <v>88.4</v>
@@ -7868,7 +7868,7 @@
         <v>95.3</v>
       </c>
       <c r="DY16" t="n" s="10">
-        <v>96.1</v>
+        <v>96.0</v>
       </c>
       <c r="DZ16" t="n" s="10">
         <v>94.0</v>
@@ -7883,7 +7883,7 @@
         <v>100.6</v>
       </c>
       <c r="ED16" t="n" s="10">
-        <v>112.2</v>
+        <v>112.3</v>
       </c>
     </row>
     <row r="17">
@@ -8107,10 +8107,10 @@
         <v>88.4</v>
       </c>
       <c r="BW17" t="n" s="10">
-        <v>86.5</v>
+        <v>86.3</v>
       </c>
       <c r="BX17" t="n" s="10">
-        <v>88.2</v>
+        <v>88.3</v>
       </c>
       <c r="BY17" t="n" s="10">
         <v>89.0</v>
@@ -8122,7 +8122,7 @@
         <v>89.2</v>
       </c>
       <c r="CB17" t="n" s="10">
-        <v>89.7</v>
+        <v>89.6</v>
       </c>
       <c r="CC17" t="n" s="10">
         <v>90.4</v>
@@ -8140,16 +8140,16 @@
         <v>89.9</v>
       </c>
       <c r="CH17" t="n" s="10">
-        <v>90.2</v>
+        <v>90.4</v>
       </c>
       <c r="CI17" t="n" s="10">
-        <v>90.4</v>
+        <v>90.1</v>
       </c>
       <c r="CJ17" t="n" s="10">
         <v>92.3</v>
       </c>
       <c r="CK17" t="n" s="10">
-        <v>90.1</v>
+        <v>90.2</v>
       </c>
       <c r="CL17" t="n" s="10">
         <v>91.5</v>
@@ -8158,10 +8158,10 @@
         <v>89.1</v>
       </c>
       <c r="CN17" t="n" s="10">
-        <v>91.6</v>
+        <v>91.5</v>
       </c>
       <c r="CO17" t="n" s="10">
-        <v>92.1</v>
+        <v>92.2</v>
       </c>
       <c r="CP17" t="n" s="10">
         <v>92.3</v>
@@ -8170,28 +8170,28 @@
         <v>92.2</v>
       </c>
       <c r="CR17" t="n" s="10">
-        <v>92.9</v>
+        <v>93.0</v>
       </c>
       <c r="CS17" t="n" s="10">
         <v>92.3</v>
       </c>
       <c r="CT17" t="n" s="10">
-        <v>92.4</v>
+        <v>92.5</v>
       </c>
       <c r="CU17" t="n" s="10">
-        <v>91.5</v>
+        <v>91.2</v>
       </c>
       <c r="CV17" t="n" s="10">
-        <v>92.5</v>
+        <v>92.6</v>
       </c>
       <c r="CW17" t="n" s="10">
-        <v>93.3</v>
+        <v>93.4</v>
       </c>
       <c r="CX17" t="n" s="10">
         <v>93.4</v>
       </c>
       <c r="CY17" t="n" s="10">
-        <v>93.2</v>
+        <v>93.3</v>
       </c>
       <c r="CZ17" t="n" s="10">
         <v>94.0</v>
@@ -8200,10 +8200,10 @@
         <v>93.0</v>
       </c>
       <c r="DB17" t="n" s="10">
-        <v>93.5</v>
+        <v>93.6</v>
       </c>
       <c r="DC17" t="n" s="10">
-        <v>94.3</v>
+        <v>94.4</v>
       </c>
       <c r="DD17" t="n" s="10">
         <v>94.1</v>
@@ -8215,7 +8215,7 @@
         <v>94.2</v>
       </c>
       <c r="DG17" t="n" s="10">
-        <v>94.5</v>
+        <v>94.2</v>
       </c>
       <c r="DH17" t="n" s="10">
         <v>94.1</v>
@@ -8239,7 +8239,7 @@
         <v>95.2</v>
       </c>
       <c r="DO17" t="n" s="10">
-        <v>95.5</v>
+        <v>95.6</v>
       </c>
       <c r="DP17" t="n" s="10">
         <v>95.0</v>
@@ -8248,10 +8248,10 @@
         <v>96.2</v>
       </c>
       <c r="DR17" t="n" s="10">
-        <v>95.4</v>
+        <v>95.3</v>
       </c>
       <c r="DS17" t="n" s="10">
-        <v>96.0</v>
+        <v>95.9</v>
       </c>
       <c r="DT17" t="n" s="10">
         <v>96.5</v>
@@ -8284,7 +8284,7 @@
         <v>96.5</v>
       </c>
       <c r="ED17" t="n" s="10">
-        <v>96.3</v>
+        <v>96.5</v>
       </c>
     </row>
     <row r="18">
@@ -8301,7 +8301,7 @@
         <v>86.8</v>
       </c>
       <c r="F18" t="n" s="10">
-        <v>87.5</v>
+        <v>87.6</v>
       </c>
       <c r="G18" t="n" s="10">
         <v>85.5</v>
@@ -8445,7 +8445,7 @@
         <v>90.3</v>
       </c>
       <c r="BB18" t="n" s="10">
-        <v>88.9</v>
+        <v>88.8</v>
       </c>
       <c r="BC18" t="n" s="10">
         <v>91.8</v>
@@ -10311,16 +10311,16 @@
         <v>104.4</v>
       </c>
       <c r="E24" t="n" s="10">
-        <v>104.5</v>
+        <v>104.6</v>
       </c>
       <c r="F24" t="n" s="10">
         <v>106.3</v>
       </c>
       <c r="G24" t="n" s="10">
-        <v>102.5</v>
+        <v>102.4</v>
       </c>
       <c r="H24" t="n" s="10">
-        <v>104.8</v>
+        <v>104.9</v>
       </c>
       <c r="I24" t="n" s="10">
         <v>106.7</v>
@@ -10335,40 +10335,40 @@
         <v>105.6</v>
       </c>
       <c r="M24" t="n" s="10">
-        <v>106.6</v>
+        <v>106.7</v>
       </c>
       <c r="N24" t="n" s="10">
+        <v>106.1</v>
+      </c>
+      <c r="O24" t="n" s="10">
+        <v>105.6</v>
+      </c>
+      <c r="P24" t="n" s="10">
+        <v>107.0</v>
+      </c>
+      <c r="Q24" t="n" s="10">
+        <v>108.7</v>
+      </c>
+      <c r="R24" t="n" s="10">
         <v>106.0</v>
       </c>
-      <c r="O24" t="n" s="10">
-        <v>105.7</v>
-      </c>
-      <c r="P24" t="n" s="10">
-        <v>106.9</v>
-      </c>
-      <c r="Q24" t="n" s="10">
-        <v>108.8</v>
-      </c>
-      <c r="R24" t="n" s="10">
-        <v>105.9</v>
-      </c>
       <c r="S24" t="n" s="10">
+        <v>107.5</v>
+      </c>
+      <c r="T24" t="n" s="10">
         <v>107.6</v>
-      </c>
-      <c r="T24" t="n" s="10">
-        <v>107.5</v>
       </c>
       <c r="U24" t="n" s="10">
         <v>106.0</v>
       </c>
       <c r="V24" t="n" s="10">
-        <v>107.5</v>
+        <v>107.6</v>
       </c>
       <c r="W24" t="n" s="10">
         <v>107.7</v>
       </c>
       <c r="X24" t="n" s="10">
-        <v>107.6</v>
+        <v>107.5</v>
       </c>
       <c r="Y24" t="n" s="10">
         <v>107.4</v>
@@ -10383,16 +10383,16 @@
         <v>106.5</v>
       </c>
       <c r="AC24" t="n" s="10">
-        <v>104.4</v>
+        <v>104.5</v>
       </c>
       <c r="AD24" t="n" s="10">
-        <v>106.7</v>
+        <v>106.6</v>
       </c>
       <c r="AE24" t="n" s="10">
+        <v>106.6</v>
+      </c>
+      <c r="AF24" t="n" s="10">
         <v>106.5</v>
-      </c>
-      <c r="AF24" t="n" s="10">
-        <v>106.6</v>
       </c>
       <c r="AG24" t="n" s="10">
         <v>106.8</v>
@@ -10422,31 +10422,31 @@
         <v>106.0</v>
       </c>
       <c r="AP24" t="n" s="10">
-        <v>103.7</v>
+        <v>103.6</v>
       </c>
       <c r="AQ24" t="n" s="10">
         <v>102.4</v>
       </c>
       <c r="AR24" t="n" s="10">
-        <v>103.8</v>
+        <v>103.7</v>
       </c>
       <c r="AS24" t="n" s="10">
         <v>101.4</v>
       </c>
       <c r="AT24" t="n" s="10">
-        <v>102.9</v>
+        <v>103.0</v>
       </c>
       <c r="AU24" t="n" s="10">
-        <v>100.9</v>
+        <v>100.7</v>
       </c>
       <c r="AV24" t="n" s="10">
-        <v>102.3</v>
+        <v>102.4</v>
       </c>
       <c r="AW24" t="n" s="10">
-        <v>101.9</v>
+        <v>102.0</v>
       </c>
       <c r="AX24" t="n" s="10">
-        <v>98.7</v>
+        <v>98.6</v>
       </c>
       <c r="AY24" t="n" s="10">
         <v>100.3</v>
@@ -10455,10 +10455,10 @@
         <v>102.3</v>
       </c>
       <c r="BA24" t="n" s="10">
-        <v>100.1</v>
+        <v>99.9</v>
       </c>
       <c r="BB24" t="n" s="10">
-        <v>97.9</v>
+        <v>98.1</v>
       </c>
       <c r="BC24" t="n" s="10">
         <v>100.7</v>
@@ -10470,19 +10470,19 @@
         <v>99.0</v>
       </c>
       <c r="BF24" t="n" s="10">
-        <v>98.8</v>
+        <v>98.7</v>
       </c>
       <c r="BG24" t="n" s="10">
-        <v>99.7</v>
+        <v>99.8</v>
       </c>
       <c r="BH24" t="n" s="10">
         <v>98.9</v>
       </c>
       <c r="BI24" t="n" s="10">
-        <v>98.6</v>
+        <v>98.5</v>
       </c>
       <c r="BJ24" t="n" s="10">
-        <v>98.4</v>
+        <v>98.5</v>
       </c>
       <c r="BK24" t="n" s="10">
         <v>98.3</v>
@@ -10491,10 +10491,10 @@
         <v>95.8</v>
       </c>
       <c r="BM24" t="n" s="10">
-        <v>94.3</v>
+        <v>94.4</v>
       </c>
       <c r="BN24" t="n" s="10">
-        <v>99.7</v>
+        <v>99.6</v>
       </c>
       <c r="BO24" t="n" s="10">
         <v>97.1</v>
@@ -10503,7 +10503,7 @@
         <v>96.1</v>
       </c>
       <c r="BQ24" t="n" s="10">
-        <v>96.1</v>
+        <v>96.2</v>
       </c>
       <c r="BR24" t="n" s="10">
         <v>97.1</v>
@@ -10521,22 +10521,22 @@
         <v>97.0</v>
       </c>
       <c r="BW24" t="n" s="10">
-        <v>96.3</v>
+        <v>96.2</v>
       </c>
       <c r="BX24" t="n" s="10">
         <v>96.4</v>
       </c>
       <c r="BY24" t="n" s="10">
-        <v>99.1</v>
+        <v>99.2</v>
       </c>
       <c r="BZ24" t="n" s="10">
-        <v>93.4</v>
+        <v>93.5</v>
       </c>
       <c r="CA24" t="n" s="10">
-        <v>95.5</v>
+        <v>95.4</v>
       </c>
       <c r="CB24" t="n" s="10">
-        <v>96.5</v>
+        <v>96.6</v>
       </c>
       <c r="CC24" t="n" s="10">
         <v>98.1</v>
@@ -10548,19 +10548,19 @@
         <v>95.7</v>
       </c>
       <c r="CF24" t="n" s="10">
-        <v>95.9</v>
+        <v>96.0</v>
       </c>
       <c r="CG24" t="n" s="10">
         <v>96.8</v>
       </c>
       <c r="CH24" t="n" s="10">
-        <v>96.3</v>
+        <v>96.4</v>
       </c>
       <c r="CI24" t="n" s="10">
         <v>96.2</v>
       </c>
       <c r="CJ24" t="n" s="10">
-        <v>96.4</v>
+        <v>96.3</v>
       </c>
       <c r="CK24" t="n" s="10">
         <v>94.6</v>
@@ -10569,22 +10569,22 @@
         <v>100.0</v>
       </c>
       <c r="CM24" t="n" s="10">
-        <v>96.2</v>
+        <v>96.4</v>
       </c>
       <c r="CN24" t="n" s="10">
-        <v>96.4</v>
+        <v>96.3</v>
       </c>
       <c r="CO24" t="n" s="10">
         <v>96.3</v>
       </c>
       <c r="CP24" t="n" s="10">
-        <v>96.5</v>
+        <v>96.6</v>
       </c>
       <c r="CQ24" t="n" s="10">
         <v>97.5</v>
       </c>
       <c r="CR24" t="n" s="10">
-        <v>96.1</v>
+        <v>96.0</v>
       </c>
       <c r="CS24" t="n" s="10">
         <v>96.1</v>
@@ -10596,7 +10596,7 @@
         <v>95.8</v>
       </c>
       <c r="CV24" t="n" s="10">
-        <v>97.2</v>
+        <v>97.3</v>
       </c>
       <c r="CW24" t="n" s="10">
         <v>96.8</v>
@@ -10614,19 +10614,19 @@
         <v>94.7</v>
       </c>
       <c r="DB24" t="n" s="10">
-        <v>96.8</v>
+        <v>96.9</v>
       </c>
       <c r="DC24" t="n" s="10">
-        <v>96.6</v>
+        <v>96.5</v>
       </c>
       <c r="DD24" t="n" s="10">
-        <v>96.6</v>
+        <v>96.7</v>
       </c>
       <c r="DE24" t="n" s="10">
         <v>96.5</v>
       </c>
       <c r="DF24" t="n" s="10">
-        <v>96.9</v>
+        <v>96.8</v>
       </c>
       <c r="DG24" t="n" s="10">
         <v>97.3</v>
@@ -10635,13 +10635,13 @@
         <v>96.4</v>
       </c>
       <c r="DI24" t="n" s="10">
-        <v>99.0</v>
+        <v>98.9</v>
       </c>
       <c r="DJ24" t="n" s="10">
-        <v>94.5</v>
+        <v>94.6</v>
       </c>
       <c r="DK24" t="n" s="10">
-        <v>97.3</v>
+        <v>97.2</v>
       </c>
       <c r="DL24" t="n" s="10">
         <v>96.1</v>
@@ -10677,16 +10677,16 @@
         <v>100.4</v>
       </c>
       <c r="DW24" t="n" s="10">
-        <v>98.3</v>
+        <v>98.4</v>
       </c>
       <c r="DX24" t="n" s="10">
-        <v>98.2</v>
+        <v>98.1</v>
       </c>
       <c r="DY24" t="n" s="10">
         <v>97.4</v>
       </c>
       <c r="DZ24" t="n" s="10">
-        <v>97.2</v>
+        <v>97.1</v>
       </c>
       <c r="EA24" t="n" s="10">
         <v>98.7</v>
@@ -10695,10 +10695,10 @@
         <v>98.7</v>
       </c>
       <c r="EC24" t="n" s="10">
-        <v>97.7</v>
+        <v>97.6</v>
       </c>
       <c r="ED24" t="n" s="10">
-        <v>99.2</v>
+        <v>99.1</v>
       </c>
     </row>
     <row r="25">
@@ -10736,22 +10736,22 @@
         <v>105.8</v>
       </c>
       <c r="M25" t="n" s="10">
-        <v>106.0</v>
+        <v>106.1</v>
       </c>
       <c r="N25" t="n" s="10">
         <v>106.3</v>
       </c>
       <c r="O25" t="n" s="10">
-        <v>106.5</v>
+        <v>106.6</v>
       </c>
       <c r="P25" t="n" s="10">
         <v>106.8</v>
       </c>
       <c r="Q25" t="n" s="10">
-        <v>107.0</v>
+        <v>107.1</v>
       </c>
       <c r="R25" t="n" s="10">
-        <v>107.1</v>
+        <v>107.2</v>
       </c>
       <c r="S25" t="n" s="10">
         <v>107.2</v>
@@ -10763,10 +10763,10 @@
         <v>107.2</v>
       </c>
       <c r="V25" t="n" s="10">
-        <v>107.1</v>
+        <v>107.2</v>
       </c>
       <c r="W25" t="n" s="10">
-        <v>107.1</v>
+        <v>107.2</v>
       </c>
       <c r="X25" t="n" s="10">
         <v>107.1</v>
@@ -10778,7 +10778,7 @@
         <v>107.0</v>
       </c>
       <c r="AA25" t="n" s="10">
-        <v>106.8</v>
+        <v>106.9</v>
       </c>
       <c r="AB25" t="n" s="10">
         <v>106.6</v>
@@ -10790,7 +10790,7 @@
         <v>106.2</v>
       </c>
       <c r="AE25" t="n" s="10">
-        <v>106.0</v>
+        <v>106.1</v>
       </c>
       <c r="AF25" t="n" s="10">
         <v>105.9</v>
@@ -10814,13 +10814,13 @@
         <v>104.6</v>
       </c>
       <c r="AM25" t="n" s="10">
-        <v>104.4</v>
+        <v>104.3</v>
       </c>
       <c r="AN25" t="n" s="10">
         <v>104.1</v>
       </c>
       <c r="AO25" t="n" s="10">
-        <v>103.9</v>
+        <v>103.8</v>
       </c>
       <c r="AP25" t="n" s="10">
         <v>103.5</v>
@@ -10829,10 +10829,10 @@
         <v>103.2</v>
       </c>
       <c r="AR25" t="n" s="10">
-        <v>103.0</v>
+        <v>102.9</v>
       </c>
       <c r="AS25" t="n" s="10">
-        <v>102.7</v>
+        <v>102.6</v>
       </c>
       <c r="AT25" t="n" s="10">
         <v>102.3</v>
@@ -10847,7 +10847,7 @@
         <v>101.1</v>
       </c>
       <c r="AX25" t="n" s="10">
-        <v>100.7</v>
+        <v>100.6</v>
       </c>
       <c r="AY25" t="n" s="10">
         <v>100.4</v>
@@ -10889,7 +10889,7 @@
         <v>97.7</v>
       </c>
       <c r="BL25" t="n" s="10">
-        <v>97.4</v>
+        <v>97.3</v>
       </c>
       <c r="BM25" t="n" s="10">
         <v>97.2</v>
@@ -10943,19 +10943,19 @@
         <v>96.1</v>
       </c>
       <c r="CD25" t="n" s="10">
-        <v>96.0</v>
+        <v>96.1</v>
       </c>
       <c r="CE25" t="n" s="10">
         <v>96.1</v>
       </c>
       <c r="CF25" t="n" s="10">
-        <v>96.1</v>
+        <v>96.2</v>
       </c>
       <c r="CG25" t="n" s="10">
-        <v>96.2</v>
+        <v>96.3</v>
       </c>
       <c r="CH25" t="n" s="10">
-        <v>96.3</v>
+        <v>96.4</v>
       </c>
       <c r="CI25" t="n" s="10">
         <v>96.4</v>
@@ -10967,10 +10967,10 @@
         <v>96.6</v>
       </c>
       <c r="CL25" t="n" s="10">
-        <v>96.6</v>
+        <v>96.7</v>
       </c>
       <c r="CM25" t="n" s="10">
-        <v>96.6</v>
+        <v>96.7</v>
       </c>
       <c r="CN25" t="n" s="10">
         <v>96.6</v>
@@ -10991,7 +10991,7 @@
         <v>96.5</v>
       </c>
       <c r="CT25" t="n" s="10">
-        <v>96.4</v>
+        <v>96.5</v>
       </c>
       <c r="CU25" t="n" s="10">
         <v>96.4</v>
@@ -11003,7 +11003,7 @@
         <v>96.4</v>
       </c>
       <c r="CX25" t="n" s="10">
-        <v>96.3</v>
+        <v>96.4</v>
       </c>
       <c r="CY25" t="n" s="10">
         <v>96.4</v>
@@ -11018,13 +11018,13 @@
         <v>96.5</v>
       </c>
       <c r="DC25" t="n" s="10">
-        <v>96.6</v>
+        <v>96.5</v>
       </c>
       <c r="DD25" t="n" s="10">
         <v>96.6</v>
       </c>
       <c r="DE25" t="n" s="10">
-        <v>96.7</v>
+        <v>96.6</v>
       </c>
       <c r="DF25" t="n" s="10">
         <v>96.7</v>
@@ -11039,7 +11039,7 @@
         <v>96.9</v>
       </c>
       <c r="DJ25" t="n" s="10">
-        <v>97.0</v>
+        <v>96.9</v>
       </c>
       <c r="DK25" t="n" s="10">
         <v>97.0</v>
@@ -11066,10 +11066,10 @@
         <v>97.4</v>
       </c>
       <c r="DS25" t="n" s="10">
+        <v>97.4</v>
+      </c>
+      <c r="DT25" t="n" s="10">
         <v>97.5</v>
-      </c>
-      <c r="DT25" t="n" s="10">
-        <v>97.6</v>
       </c>
       <c r="DU25" t="n" s="10">
         <v>97.7</v>
@@ -11078,7 +11078,7 @@
         <v>97.8</v>
       </c>
       <c r="DW25" t="n" s="10">
-        <v>98.0</v>
+        <v>97.9</v>
       </c>
       <c r="DX25" t="n" s="10">
         <v>98.0</v>
@@ -12328,7 +12328,7 @@
         <v>86.0</v>
       </c>
       <c r="H29" t="n" s="10">
-        <v>88.0</v>
+        <v>88.1</v>
       </c>
       <c r="I29" t="n" s="10">
         <v>89.8</v>
@@ -12346,7 +12346,7 @@
         <v>89.5</v>
       </c>
       <c r="N29" t="n" s="10">
-        <v>89.4</v>
+        <v>89.5</v>
       </c>
       <c r="O29" t="n" s="10">
         <v>88.9</v>
@@ -12355,7 +12355,7 @@
         <v>90.2</v>
       </c>
       <c r="Q29" t="n" s="10">
-        <v>92.0</v>
+        <v>91.9</v>
       </c>
       <c r="R29" t="n" s="10">
         <v>89.4</v>
@@ -12370,7 +12370,7 @@
         <v>89.2</v>
       </c>
       <c r="V29" t="n" s="10">
-        <v>90.4</v>
+        <v>90.5</v>
       </c>
       <c r="W29" t="n" s="10">
         <v>90.6</v>
@@ -12391,13 +12391,13 @@
         <v>90.4</v>
       </c>
       <c r="AC29" t="n" s="10">
-        <v>88.5</v>
+        <v>88.6</v>
       </c>
       <c r="AD29" t="n" s="10">
         <v>90.7</v>
       </c>
       <c r="AE29" t="n" s="10">
-        <v>90.8</v>
+        <v>90.9</v>
       </c>
       <c r="AF29" t="n" s="10">
         <v>91.2</v>
@@ -12427,7 +12427,7 @@
         <v>89.3</v>
       </c>
       <c r="AO29" t="n" s="10">
-        <v>91.5</v>
+        <v>91.6</v>
       </c>
       <c r="AP29" t="n" s="10">
         <v>90.0</v>
@@ -12463,10 +12463,10 @@
         <v>92.1</v>
       </c>
       <c r="BA29" t="n" s="10">
-        <v>90.6</v>
+        <v>90.5</v>
       </c>
       <c r="BB29" t="n" s="10">
-        <v>88.7</v>
+        <v>88.8</v>
       </c>
       <c r="BC29" t="n" s="10">
         <v>91.6</v>
@@ -12475,10 +12475,10 @@
         <v>89.1</v>
       </c>
       <c r="BE29" t="n" s="10">
-        <v>90.2</v>
+        <v>90.3</v>
       </c>
       <c r="BF29" t="n" s="10">
-        <v>90.2</v>
+        <v>90.1</v>
       </c>
       <c r="BG29" t="n" s="10">
         <v>91.1</v>
@@ -12487,7 +12487,7 @@
         <v>90.3</v>
       </c>
       <c r="BI29" t="n" s="10">
-        <v>89.8</v>
+        <v>89.7</v>
       </c>
       <c r="BJ29" t="n" s="10">
         <v>89.7</v>
@@ -12502,13 +12502,13 @@
         <v>85.7</v>
       </c>
       <c r="BN29" t="n" s="10">
-        <v>90.5</v>
+        <v>90.4</v>
       </c>
       <c r="BO29" t="n" s="10">
         <v>88.0</v>
       </c>
       <c r="BP29" t="n" s="10">
-        <v>87.5</v>
+        <v>87.4</v>
       </c>
       <c r="BQ29" t="n" s="10">
         <v>87.2</v>
@@ -12529,7 +12529,7 @@
         <v>87.9</v>
       </c>
       <c r="BW29" t="n" s="10">
-        <v>87.9</v>
+        <v>87.8</v>
       </c>
       <c r="BX29" t="n" s="10">
         <v>88.0</v>
@@ -12544,7 +12544,7 @@
         <v>87.4</v>
       </c>
       <c r="CB29" t="n" s="10">
-        <v>88.4</v>
+        <v>88.5</v>
       </c>
       <c r="CC29" t="n" s="10">
         <v>90.1</v>
@@ -12556,7 +12556,7 @@
         <v>88.2</v>
       </c>
       <c r="CF29" t="n" s="10">
-        <v>88.5</v>
+        <v>88.6</v>
       </c>
       <c r="CG29" t="n" s="10">
         <v>89.6</v>
@@ -12583,7 +12583,7 @@
         <v>90.0</v>
       </c>
       <c r="CO29" t="n" s="10">
-        <v>90.4</v>
+        <v>90.3</v>
       </c>
       <c r="CP29" t="n" s="10">
         <v>90.7</v>
@@ -12595,10 +12595,10 @@
         <v>90.8</v>
       </c>
       <c r="CS29" t="n" s="10">
-        <v>90.8</v>
+        <v>90.9</v>
       </c>
       <c r="CT29" t="n" s="10">
-        <v>91.3</v>
+        <v>91.4</v>
       </c>
       <c r="CU29" t="n" s="10">
         <v>91.1</v>
@@ -12616,7 +12616,7 @@
         <v>92.5</v>
       </c>
       <c r="CZ29" t="n" s="10">
-        <v>93.7</v>
+        <v>93.8</v>
       </c>
       <c r="DA29" t="n" s="10">
         <v>90.8</v>
@@ -12646,7 +12646,7 @@
         <v>96.7</v>
       </c>
       <c r="DJ29" t="n" s="10">
-        <v>92.6</v>
+        <v>92.7</v>
       </c>
       <c r="DK29" t="n" s="10">
         <v>95.7</v>
@@ -12661,7 +12661,7 @@
         <v>97.1</v>
       </c>
       <c r="DO29" t="n" s="10">
-        <v>95.1</v>
+        <v>95.0</v>
       </c>
       <c r="DP29" t="n" s="10">
         <v>96.2</v>
@@ -12688,7 +12688,7 @@
         <v>97.7</v>
       </c>
       <c r="DX29" t="n" s="10">
-        <v>97.6</v>
+        <v>97.5</v>
       </c>
       <c r="DY29" t="n" s="10">
         <v>97.0</v>
@@ -12703,7 +12703,7 @@
         <v>98.3</v>
       </c>
       <c r="EC29" t="n" s="10">
-        <v>97.1</v>
+        <v>97.0</v>
       </c>
       <c r="ED29" t="n" s="10">
         <v>98.5</v>
@@ -12738,13 +12738,13 @@
         <v>88.5</v>
       </c>
       <c r="K30" t="n" s="10">
-        <v>88.7</v>
+        <v>88.8</v>
       </c>
       <c r="L30" t="n" s="10">
         <v>89.0</v>
       </c>
       <c r="M30" t="n" s="10">
-        <v>89.2</v>
+        <v>89.3</v>
       </c>
       <c r="N30" t="n" s="10">
         <v>89.5</v>
@@ -12789,7 +12789,7 @@
         <v>90.4</v>
       </c>
       <c r="AB30" t="n" s="10">
-        <v>90.3</v>
+        <v>90.4</v>
       </c>
       <c r="AC30" t="n" s="10">
         <v>90.4</v>
@@ -12861,7 +12861,7 @@
         <v>90.0</v>
       </c>
       <c r="AZ30" t="n" s="10">
-        <v>90.3</v>
+        <v>90.2</v>
       </c>
       <c r="BA30" t="n" s="10">
         <v>90.3</v>
@@ -12933,7 +12933,7 @@
         <v>87.7</v>
       </c>
       <c r="BX30" t="n" s="10">
-        <v>87.8</v>
+        <v>87.9</v>
       </c>
       <c r="BY30" t="n" s="10">
         <v>87.9</v>
@@ -12963,7 +12963,7 @@
         <v>88.9</v>
       </c>
       <c r="CH30" t="n" s="10">
-        <v>89.1</v>
+        <v>89.2</v>
       </c>
       <c r="CI30" t="n" s="10">
         <v>89.3</v>
@@ -13080,13 +13080,13 @@
         <v>97.0</v>
       </c>
       <c r="DU30" t="n" s="10">
-        <v>97.2</v>
+        <v>97.1</v>
       </c>
       <c r="DV30" t="n" s="10">
         <v>97.3</v>
       </c>
       <c r="DW30" t="n" s="10">
-        <v>97.5</v>
+        <v>97.4</v>
       </c>
       <c r="DX30" t="n" s="10">
         <v>97.5</v>
@@ -14368,7 +14368,7 @@
         <v>125.6</v>
       </c>
       <c r="Q35" t="n" s="10">
-        <v>128.4</v>
+        <v>128.3</v>
       </c>
       <c r="R35" t="n" s="10">
         <v>125.9</v>
@@ -14389,7 +14389,7 @@
         <v>125.5</v>
       </c>
       <c r="X35" t="n" s="10">
-        <v>124.7</v>
+        <v>124.6</v>
       </c>
       <c r="Y35" t="n" s="10">
         <v>124.2</v>
@@ -14440,7 +14440,7 @@
         <v>119.3</v>
       </c>
       <c r="AO35" t="n" s="10">
-        <v>122.1</v>
+        <v>122.2</v>
       </c>
       <c r="AP35" t="n" s="10">
         <v>119.8</v>
@@ -14461,7 +14461,7 @@
         <v>115.3</v>
       </c>
       <c r="AV35" t="n" s="10">
-        <v>116.7</v>
+        <v>116.8</v>
       </c>
       <c r="AW35" t="n" s="10">
         <v>115.9</v>
@@ -14500,7 +14500,7 @@
         <v>110.0</v>
       </c>
       <c r="BI35" t="n" s="10">
-        <v>109.4</v>
+        <v>109.3</v>
       </c>
       <c r="BJ35" t="n" s="10">
         <v>109.7</v>
@@ -14584,13 +14584,13 @@
         <v>105.5</v>
       </c>
       <c r="CK35" t="n" s="10">
-        <v>104.2</v>
+        <v>104.3</v>
       </c>
       <c r="CL35" t="n" s="10">
         <v>108.5</v>
       </c>
       <c r="CM35" t="n" s="10">
-        <v>105.8</v>
+        <v>105.9</v>
       </c>
       <c r="CN35" t="n" s="10">
         <v>104.3</v>
@@ -14611,7 +14611,7 @@
         <v>104.7</v>
       </c>
       <c r="CT35" t="n" s="10">
-        <v>106.3</v>
+        <v>106.4</v>
       </c>
       <c r="CU35" t="n" s="10">
         <v>103.8</v>
@@ -14958,7 +14958,7 @@
         <v>105.0</v>
       </c>
       <c r="CB36" t="n" s="10">
-        <v>105.1</v>
+        <v>105.2</v>
       </c>
       <c r="CC36" t="n" s="10">
         <v>105.2</v>
@@ -16358,7 +16358,7 @@
         <v>102.4</v>
       </c>
       <c r="K40" t="n" s="10">
-        <v>102.7</v>
+        <v>102.8</v>
       </c>
       <c r="L40" t="n" s="10">
         <v>102.8</v>
@@ -16376,7 +16376,7 @@
         <v>101.6</v>
       </c>
       <c r="Q40" t="n" s="10">
-        <v>103.8</v>
+        <v>103.7</v>
       </c>
       <c r="R40" t="n" s="10">
         <v>101.9</v>
@@ -16466,7 +16466,7 @@
         <v>100.3</v>
       </c>
       <c r="AU40" t="n" s="10">
-        <v>98.0</v>
+        <v>97.9</v>
       </c>
       <c r="AV40" t="n" s="10">
         <v>99.6</v>
@@ -16502,7 +16502,7 @@
         <v>98.2</v>
       </c>
       <c r="BG40" t="n" s="10">
-        <v>97.9</v>
+        <v>98.0</v>
       </c>
       <c r="BH40" t="n" s="10">
         <v>97.5</v>
@@ -16511,16 +16511,16 @@
         <v>96.7</v>
       </c>
       <c r="BJ40" t="n" s="10">
-        <v>97.2</v>
+        <v>97.3</v>
       </c>
       <c r="BK40" t="n" s="10">
         <v>96.5</v>
       </c>
       <c r="BL40" t="n" s="10">
-        <v>94.9</v>
+        <v>94.8</v>
       </c>
       <c r="BM40" t="n" s="10">
-        <v>93.5</v>
+        <v>93.6</v>
       </c>
       <c r="BN40" t="n" s="10">
         <v>96.3</v>
@@ -16583,7 +16583,7 @@
         <v>94.5</v>
       </c>
       <c r="CH40" t="n" s="10">
-        <v>93.0</v>
+        <v>93.1</v>
       </c>
       <c r="CI40" t="n" s="10">
         <v>95.7</v>
@@ -16598,7 +16598,7 @@
         <v>98.8</v>
       </c>
       <c r="CM40" t="n" s="10">
-        <v>96.8</v>
+        <v>96.9</v>
       </c>
       <c r="CN40" t="n" s="10">
         <v>95.5</v>
@@ -16649,7 +16649,7 @@
         <v>98.0</v>
       </c>
       <c r="DD40" t="n" s="10">
-        <v>98.5</v>
+        <v>98.6</v>
       </c>
       <c r="DE40" t="n" s="10">
         <v>98.6</v>
@@ -16753,10 +16753,10 @@
         <v>103.2</v>
       </c>
       <c r="I41" t="n" s="10">
-        <v>103.0</v>
+        <v>103.1</v>
       </c>
       <c r="J41" t="n" s="10">
-        <v>102.8</v>
+        <v>102.9</v>
       </c>
       <c r="K41" t="n" s="10">
         <v>102.7</v>
@@ -16768,7 +16768,7 @@
         <v>102.6</v>
       </c>
       <c r="N41" t="n" s="10">
-        <v>102.5</v>
+        <v>102.6</v>
       </c>
       <c r="O41" t="n" s="10">
         <v>102.5</v>
@@ -16915,10 +16915,10 @@
         <v>96.4</v>
       </c>
       <c r="BK41" t="n" s="10">
-        <v>96.0</v>
+        <v>95.9</v>
       </c>
       <c r="BL41" t="n" s="10">
-        <v>95.5</v>
+        <v>95.4</v>
       </c>
       <c r="BM41" t="n" s="10">
         <v>95.0</v>
@@ -17035,7 +17035,7 @@
         <v>97.8</v>
       </c>
       <c r="CY41" t="n" s="10">
-        <v>97.9</v>
+        <v>98.0</v>
       </c>
       <c r="CZ41" t="n" s="10">
         <v>98.0</v>
@@ -17047,7 +17047,7 @@
         <v>98.0</v>
       </c>
       <c r="DC41" t="n" s="10">
-        <v>98.1</v>
+        <v>98.0</v>
       </c>
       <c r="DD41" t="n" s="10">
         <v>98.0</v>
@@ -20355,7 +20355,7 @@
         <v>35</v>
       </c>
       <c r="C51" t="n" s="10">
-        <v>98.2</v>
+        <v>98.1</v>
       </c>
       <c r="D51" t="n" s="10">
         <v>100.2</v>
@@ -20373,7 +20373,7 @@
         <v>99.6</v>
       </c>
       <c r="I51" t="n" s="10">
-        <v>100.5</v>
+        <v>100.6</v>
       </c>
       <c r="J51" t="n" s="10">
         <v>100.8</v>
@@ -20385,10 +20385,10 @@
         <v>101.2</v>
       </c>
       <c r="M51" t="n" s="10">
-        <v>102.0</v>
+        <v>102.1</v>
       </c>
       <c r="N51" t="n" s="10">
-        <v>101.4</v>
+        <v>101.5</v>
       </c>
       <c r="O51" t="n" s="10">
         <v>98.6</v>
@@ -20397,25 +20397,25 @@
         <v>96.7</v>
       </c>
       <c r="Q51" t="n" s="10">
-        <v>99.8</v>
+        <v>99.7</v>
       </c>
       <c r="R51" t="n" s="10">
-        <v>98.4</v>
+        <v>98.5</v>
       </c>
       <c r="S51" t="n" s="10">
         <v>98.3</v>
       </c>
       <c r="T51" t="n" s="10">
-        <v>98.6</v>
+        <v>98.7</v>
       </c>
       <c r="U51" t="n" s="10">
-        <v>98.9</v>
+        <v>98.8</v>
       </c>
       <c r="V51" t="n" s="10">
         <v>99.8</v>
       </c>
       <c r="W51" t="n" s="10">
-        <v>102.3</v>
+        <v>102.4</v>
       </c>
       <c r="X51" t="n" s="10">
         <v>102.5</v>
@@ -20436,7 +20436,7 @@
         <v>101.5</v>
       </c>
       <c r="AD51" t="n" s="10">
-        <v>103.6</v>
+        <v>103.5</v>
       </c>
       <c r="AE51" t="n" s="10">
         <v>104.5</v>
@@ -20478,13 +20478,13 @@
         <v>101.2</v>
       </c>
       <c r="AR51" t="n" s="10">
-        <v>100.2</v>
+        <v>100.1</v>
       </c>
       <c r="AS51" t="n" s="10">
         <v>100.6</v>
       </c>
       <c r="AT51" t="n" s="10">
-        <v>102.7</v>
+        <v>102.8</v>
       </c>
       <c r="AU51" t="n" s="10">
         <v>102.8</v>
@@ -20493,10 +20493,10 @@
         <v>104.6</v>
       </c>
       <c r="AW51" t="n" s="10">
-        <v>107.4</v>
+        <v>107.5</v>
       </c>
       <c r="AX51" t="n" s="10">
-        <v>107.6</v>
+        <v>107.5</v>
       </c>
       <c r="AY51" t="n" s="10">
         <v>108.7</v>
@@ -20505,7 +20505,7 @@
         <v>109.6</v>
       </c>
       <c r="BA51" t="n" s="10">
-        <v>109.3</v>
+        <v>109.2</v>
       </c>
       <c r="BB51" t="n" s="10">
         <v>105.7</v>
@@ -20529,7 +20529,7 @@
         <v>103.2</v>
       </c>
       <c r="BI51" t="n" s="10">
-        <v>98.7</v>
+        <v>98.6</v>
       </c>
       <c r="BJ51" t="n" s="10">
         <v>96.1</v>
@@ -20544,7 +20544,7 @@
         <v>89.0</v>
       </c>
       <c r="BN51" t="n" s="10">
-        <v>91.1</v>
+        <v>91.0</v>
       </c>
       <c r="BO51" t="n" s="10">
         <v>88.4</v>
@@ -20562,7 +20562,7 @@
         <v>89.8</v>
       </c>
       <c r="BT51" t="n" s="10">
-        <v>89.1</v>
+        <v>89.2</v>
       </c>
       <c r="BU51" t="n" s="10">
         <v>91.8</v>
@@ -20583,10 +20583,10 @@
         <v>95.4</v>
       </c>
       <c r="CA51" t="n" s="10">
-        <v>96.6</v>
+        <v>96.5</v>
       </c>
       <c r="CB51" t="n" s="10">
-        <v>96.6</v>
+        <v>96.7</v>
       </c>
       <c r="CC51" t="n" s="10">
         <v>98.6</v>
@@ -20601,7 +20601,7 @@
         <v>98.0</v>
       </c>
       <c r="CG51" t="n" s="10">
-        <v>98.3</v>
+        <v>98.4</v>
       </c>
       <c r="CH51" t="n" s="10">
         <v>99.2</v>
@@ -20619,16 +20619,16 @@
         <v>103.6</v>
       </c>
       <c r="CM51" t="n" s="10">
-        <v>103.7</v>
+        <v>103.8</v>
       </c>
       <c r="CN51" t="n" s="10">
-        <v>104.5</v>
+        <v>104.4</v>
       </c>
       <c r="CO51" t="n" s="10">
         <v>104.6</v>
       </c>
       <c r="CP51" t="n" s="10">
-        <v>105.4</v>
+        <v>105.5</v>
       </c>
       <c r="CQ51" t="n" s="10">
         <v>105.7</v>
@@ -20640,7 +20640,7 @@
         <v>108.0</v>
       </c>
       <c r="CT51" t="n" s="10">
-        <v>106.6</v>
+        <v>106.7</v>
       </c>
       <c r="CU51" t="n" s="10">
         <v>107.1</v>
@@ -20649,7 +20649,7 @@
         <v>108.8</v>
       </c>
       <c r="CW51" t="n" s="10">
-        <v>110.3</v>
+        <v>110.4</v>
       </c>
       <c r="CX51" t="n" s="10">
         <v>108.4</v>
@@ -20664,10 +20664,10 @@
         <v>108.0</v>
       </c>
       <c r="DB51" t="n" s="10">
-        <v>109.5</v>
+        <v>109.6</v>
       </c>
       <c r="DC51" t="n" s="10">
-        <v>110.2</v>
+        <v>110.1</v>
       </c>
       <c r="DD51" t="n" s="10">
         <v>109.6</v>
@@ -20676,7 +20676,7 @@
         <v>108.8</v>
       </c>
       <c r="DF51" t="n" s="10">
-        <v>109.6</v>
+        <v>109.5</v>
       </c>
       <c r="DG51" t="n" s="10">
         <v>109.7</v>
@@ -20688,7 +20688,7 @@
         <v>108.6</v>
       </c>
       <c r="DJ51" t="n" s="10">
-        <v>111.1</v>
+        <v>111.2</v>
       </c>
       <c r="DK51" t="n" s="10">
         <v>110.6</v>
@@ -20727,7 +20727,7 @@
         <v>107.0</v>
       </c>
       <c r="DW51" t="n" s="10">
-        <v>106.3</v>
+        <v>106.4</v>
       </c>
       <c r="DX51" t="n" s="10">
         <v>107.2</v>
@@ -20739,7 +20739,7 @@
         <v>105.4</v>
       </c>
       <c r="EA51" t="n" s="10">
-        <v>106.1</v>
+        <v>106.2</v>
       </c>
       <c r="EB51" t="n" s="10">
         <v>107.3</v>
@@ -20768,7 +20768,7 @@
         <v>99.5</v>
       </c>
       <c r="G52" t="n" s="10">
-        <v>99.9</v>
+        <v>100.0</v>
       </c>
       <c r="H52" t="n" s="10">
         <v>100.3</v>
@@ -20777,13 +20777,13 @@
         <v>100.4</v>
       </c>
       <c r="J52" t="n" s="10">
-        <v>100.4</v>
+        <v>100.5</v>
       </c>
       <c r="K52" t="n" s="10">
         <v>100.3</v>
       </c>
       <c r="L52" t="n" s="10">
-        <v>100.1</v>
+        <v>100.2</v>
       </c>
       <c r="M52" t="n" s="10">
         <v>100.0</v>
@@ -20807,10 +20807,10 @@
         <v>99.4</v>
       </c>
       <c r="T52" t="n" s="10">
-        <v>99.4</v>
+        <v>99.5</v>
       </c>
       <c r="U52" t="n" s="10">
-        <v>99.6</v>
+        <v>99.7</v>
       </c>
       <c r="V52" t="n" s="10">
         <v>100.0</v>
@@ -20837,7 +20837,7 @@
         <v>103.5</v>
       </c>
       <c r="AD52" t="n" s="10">
-        <v>103.6</v>
+        <v>103.7</v>
       </c>
       <c r="AE52" t="n" s="10">
         <v>103.8</v>
@@ -20993,13 +20993,13 @@
         <v>97.0</v>
       </c>
       <c r="CD52" t="n" s="10">
-        <v>97.5</v>
+        <v>97.6</v>
       </c>
       <c r="CE52" t="n" s="10">
         <v>98.1</v>
       </c>
       <c r="CF52" t="n" s="10">
-        <v>98.7</v>
+        <v>98.8</v>
       </c>
       <c r="CG52" t="n" s="10">
         <v>99.4</v>
@@ -21107,7 +21107,7 @@
         <v>110.3</v>
       </c>
       <c r="DP52" t="n" s="10">
-        <v>110.1</v>
+        <v>110.0</v>
       </c>
       <c r="DQ52" t="n" s="10">
         <v>109.8</v>
@@ -21119,7 +21119,7 @@
         <v>109.2</v>
       </c>
       <c r="DT52" t="n" s="10">
-        <v>108.9</v>
+        <v>108.8</v>
       </c>
       <c r="DU52" t="n" s="10">
         <v>108.5</v>
@@ -21785,7 +21785,7 @@
         <v>78.2</v>
       </c>
       <c r="BX55" t="n" s="10">
-        <v>69.5</v>
+        <v>69.6</v>
       </c>
       <c r="BY55" t="n" s="10">
         <v>73.4</v>
@@ -21809,7 +21809,7 @@
         <v>74.7</v>
       </c>
       <c r="CF55" t="n" s="10">
-        <v>80.4</v>
+        <v>80.1</v>
       </c>
       <c r="CG55" t="n" s="10">
         <v>87.9</v>
@@ -21818,28 +21818,28 @@
         <v>122.6</v>
       </c>
       <c r="CI55" t="n" s="10">
-        <v>90.5</v>
+        <v>90.6</v>
       </c>
       <c r="CJ55" t="n" s="10">
-        <v>74.0</v>
+        <v>74.1</v>
       </c>
       <c r="CK55" t="n" s="10">
         <v>76.5</v>
       </c>
       <c r="CL55" t="n" s="10">
-        <v>71.1</v>
+        <v>71.0</v>
       </c>
       <c r="CM55" t="n" s="10">
-        <v>73.4</v>
+        <v>73.3</v>
       </c>
       <c r="CN55" t="n" s="10">
         <v>76.8</v>
       </c>
       <c r="CO55" t="n" s="10">
-        <v>82.3</v>
+        <v>82.4</v>
       </c>
       <c r="CP55" t="n" s="10">
-        <v>82.0</v>
+        <v>81.9</v>
       </c>
       <c r="CQ55" t="n" s="10">
         <v>82.8</v>
@@ -21872,7 +21872,7 @@
         <v>86.9</v>
       </c>
       <c r="DA55" t="n" s="10">
-        <v>85.9</v>
+        <v>86.0</v>
       </c>
       <c r="DB55" t="n" s="10">
         <v>83.1</v>
@@ -21908,7 +21908,7 @@
         <v>81.5</v>
       </c>
       <c r="DM55" t="n" s="10">
-        <v>83.2</v>
+        <v>83.1</v>
       </c>
       <c r="DN55" t="n" s="10">
         <v>86.3</v>
@@ -21917,10 +21917,10 @@
         <v>93.0</v>
       </c>
       <c r="DP55" t="n" s="10">
-        <v>95.5</v>
+        <v>95.6</v>
       </c>
       <c r="DQ55" t="n" s="10">
-        <v>104.9</v>
+        <v>104.8</v>
       </c>
       <c r="DR55" t="n" s="10">
         <v>139.4</v>
@@ -21935,7 +21935,7 @@
         <v>85.9</v>
       </c>
       <c r="DV55" t="n" s="10">
-        <v>83.1</v>
+        <v>83.0</v>
       </c>
       <c r="DW55" t="n" s="10">
         <v>85.5</v>
@@ -21953,7 +21953,7 @@
         <v>95.5</v>
       </c>
       <c r="EB55" t="n" s="10">
-        <v>102.3</v>
+        <v>102.4</v>
       </c>
       <c r="EC55" t="n" s="10">
         <v>113.8</v>
@@ -22183,13 +22183,13 @@
         <v>73.9</v>
       </c>
       <c r="BW56" t="n" s="10">
-        <v>74.6</v>
+        <v>74.7</v>
       </c>
       <c r="BX56" t="n" s="10">
         <v>77.4</v>
       </c>
       <c r="BY56" t="n" s="10">
-        <v>76.5</v>
+        <v>76.4</v>
       </c>
       <c r="BZ56" t="n" s="10">
         <v>77.1</v>
@@ -22210,19 +22210,19 @@
         <v>79.1</v>
       </c>
       <c r="CF56" t="n" s="10">
-        <v>78.4</v>
+        <v>78.1</v>
       </c>
       <c r="CG56" t="n" s="10">
-        <v>79.1</v>
+        <v>79.0</v>
       </c>
       <c r="CH56" t="n" s="10">
         <v>79.8</v>
       </c>
       <c r="CI56" t="n" s="10">
-        <v>86.3</v>
+        <v>86.4</v>
       </c>
       <c r="CJ56" t="n" s="10">
-        <v>82.6</v>
+        <v>82.5</v>
       </c>
       <c r="CK56" t="n" s="10">
         <v>80.5</v>
@@ -22231,10 +22231,10 @@
         <v>82.0</v>
       </c>
       <c r="CM56" t="n" s="10">
-        <v>85.8</v>
+        <v>85.7</v>
       </c>
       <c r="CN56" t="n" s="10">
-        <v>85.6</v>
+        <v>85.7</v>
       </c>
       <c r="CO56" t="n" s="10">
         <v>87.7</v>
@@ -22255,19 +22255,19 @@
         <v>90.7</v>
       </c>
       <c r="CU56" t="n" s="10">
-        <v>88.5</v>
+        <v>88.6</v>
       </c>
       <c r="CV56" t="n" s="10">
-        <v>87.8</v>
+        <v>87.7</v>
       </c>
       <c r="CW56" t="n" s="10">
         <v>92.6</v>
       </c>
       <c r="CX56" t="n" s="10">
-        <v>95.3</v>
+        <v>95.4</v>
       </c>
       <c r="CY56" t="n" s="10">
-        <v>91.2</v>
+        <v>91.1</v>
       </c>
       <c r="CZ56" t="n" s="10">
         <v>97.4</v>
@@ -22282,7 +22282,7 @@
         <v>90.3</v>
       </c>
       <c r="DD56" t="n" s="10">
-        <v>90.3</v>
+        <v>90.4</v>
       </c>
       <c r="DE56" t="n" s="10">
         <v>91.6</v>
@@ -22291,7 +22291,7 @@
         <v>91.0</v>
       </c>
       <c r="DG56" t="n" s="10">
-        <v>92.0</v>
+        <v>92.1</v>
       </c>
       <c r="DH56" t="n" s="10">
         <v>91.3</v>
@@ -22300,22 +22300,22 @@
         <v>96.7</v>
       </c>
       <c r="DJ56" t="n" s="10">
+        <v>93.1</v>
+      </c>
+      <c r="DK56" t="n" s="10">
         <v>93.0</v>
-      </c>
-      <c r="DK56" t="n" s="10">
-        <v>93.1</v>
       </c>
       <c r="DL56" t="n" s="10">
         <v>91.8</v>
       </c>
       <c r="DM56" t="n" s="10">
-        <v>88.5</v>
+        <v>88.4</v>
       </c>
       <c r="DN56" t="n" s="10">
         <v>94.1</v>
       </c>
       <c r="DO56" t="n" s="10">
-        <v>96.9</v>
+        <v>97.1</v>
       </c>
       <c r="DP56" t="n" s="10">
         <v>93.2</v>
@@ -22339,7 +22339,7 @@
         <v>95.1</v>
       </c>
       <c r="DW56" t="n" s="10">
-        <v>99.6</v>
+        <v>99.5</v>
       </c>
       <c r="DX56" t="n" s="10">
         <v>94.3</v>
@@ -22351,10 +22351,10 @@
         <v>94.3</v>
       </c>
       <c r="EA56" t="n" s="10">
-        <v>99.2</v>
+        <v>99.4</v>
       </c>
       <c r="EB56" t="n" s="10">
-        <v>99.8</v>
+        <v>99.7</v>
       </c>
       <c r="EC56" t="n" s="10">
         <v>100.2</v>
@@ -22368,22 +22368,22 @@
         <v>35</v>
       </c>
       <c r="C57" t="n" s="10">
-        <v>33.2</v>
+        <v>33.1</v>
       </c>
       <c r="D57" t="n" s="10">
         <v>33.6</v>
       </c>
       <c r="E57" t="n" s="10">
-        <v>33.2</v>
+        <v>33.5</v>
       </c>
       <c r="F57" t="n" s="10">
-        <v>34.2</v>
+        <v>34.1</v>
       </c>
       <c r="G57" t="n" s="10">
         <v>35.2</v>
       </c>
       <c r="H57" t="n" s="10">
-        <v>35.4</v>
+        <v>35.5</v>
       </c>
       <c r="I57" t="n" s="10">
         <v>35.3</v>
@@ -22398,10 +22398,10 @@
         <v>36.8</v>
       </c>
       <c r="M57" t="n" s="10">
-        <v>36.5</v>
+        <v>36.7</v>
       </c>
       <c r="N57" t="n" s="10">
-        <v>36.2</v>
+        <v>36.4</v>
       </c>
       <c r="O57" t="n" s="10">
         <v>37.9</v>
@@ -22410,52 +22410,52 @@
         <v>38.7</v>
       </c>
       <c r="Q57" t="n" s="10">
+        <v>40.0</v>
+      </c>
+      <c r="R57" t="n" s="10">
+        <v>39.9</v>
+      </c>
+      <c r="S57" t="n" s="10">
         <v>40.2</v>
       </c>
-      <c r="R57" t="n" s="10">
-        <v>39.7</v>
-      </c>
-      <c r="S57" t="n" s="10">
-        <v>40.3</v>
-      </c>
       <c r="T57" t="n" s="10">
-        <v>41.3</v>
+        <v>41.5</v>
       </c>
       <c r="U57" t="n" s="10">
         <v>43.4</v>
       </c>
       <c r="V57" t="n" s="10">
-        <v>41.9</v>
+        <v>42.0</v>
       </c>
       <c r="W57" t="n" s="10">
-        <v>43.0</v>
+        <v>43.1</v>
       </c>
       <c r="X57" t="n" s="10">
-        <v>43.6</v>
+        <v>43.5</v>
       </c>
       <c r="Y57" t="n" s="10">
         <v>43.1</v>
       </c>
       <c r="Z57" t="n" s="10">
-        <v>43.7</v>
+        <v>43.8</v>
       </c>
       <c r="AA57" t="n" s="10">
-        <v>44.6</v>
+        <v>44.7</v>
       </c>
       <c r="AB57" t="n" s="10">
         <v>43.5</v>
       </c>
       <c r="AC57" t="n" s="10">
-        <v>43.0</v>
+        <v>43.1</v>
       </c>
       <c r="AD57" t="n" s="10">
-        <v>46.2</v>
+        <v>45.9</v>
       </c>
       <c r="AE57" t="n" s="10">
-        <v>45.8</v>
+        <v>45.9</v>
       </c>
       <c r="AF57" t="n" s="10">
-        <v>45.2</v>
+        <v>45.1</v>
       </c>
       <c r="AG57" t="n" s="10">
         <v>44.7</v>
@@ -22467,25 +22467,25 @@
         <v>49.6</v>
       </c>
       <c r="AJ57" t="n" s="10">
-        <v>50.0</v>
+        <v>49.9</v>
       </c>
       <c r="AK57" t="n" s="10">
         <v>51.4</v>
       </c>
       <c r="AL57" t="n" s="10">
-        <v>52.6</v>
+        <v>52.5</v>
       </c>
       <c r="AM57" t="n" s="10">
         <v>53.0</v>
       </c>
       <c r="AN57" t="n" s="10">
-        <v>55.3</v>
+        <v>55.2</v>
       </c>
       <c r="AO57" t="n" s="10">
-        <v>56.8</v>
+        <v>56.9</v>
       </c>
       <c r="AP57" t="n" s="10">
-        <v>55.6</v>
+        <v>55.5</v>
       </c>
       <c r="AQ57" t="n" s="10">
         <v>57.1</v>
@@ -22497,19 +22497,19 @@
         <v>62.3</v>
       </c>
       <c r="AT57" t="n" s="10">
-        <v>59.9</v>
+        <v>60.0</v>
       </c>
       <c r="AU57" t="n" s="10">
-        <v>62.0</v>
+        <v>61.8</v>
       </c>
       <c r="AV57" t="n" s="10">
-        <v>62.9</v>
+        <v>63.0</v>
       </c>
       <c r="AW57" t="n" s="10">
-        <v>63.2</v>
+        <v>63.3</v>
       </c>
       <c r="AX57" t="n" s="10">
-        <v>65.7</v>
+        <v>65.6</v>
       </c>
       <c r="AY57" t="n" s="10">
         <v>63.5</v>
@@ -22518,34 +22518,34 @@
         <v>64.4</v>
       </c>
       <c r="BA57" t="n" s="10">
-        <v>66.7</v>
+        <v>66.4</v>
       </c>
       <c r="BB57" t="n" s="10">
-        <v>68.2</v>
+        <v>68.5</v>
       </c>
       <c r="BC57" t="n" s="10">
-        <v>68.8</v>
+        <v>68.7</v>
       </c>
       <c r="BD57" t="n" s="10">
-        <v>68.0</v>
+        <v>68.1</v>
       </c>
       <c r="BE57" t="n" s="10">
-        <v>66.9</v>
+        <v>67.0</v>
       </c>
       <c r="BF57" t="n" s="10">
-        <v>69.7</v>
+        <v>69.6</v>
       </c>
       <c r="BG57" t="n" s="10">
-        <v>69.3</v>
+        <v>69.4</v>
       </c>
       <c r="BH57" t="n" s="10">
         <v>70.3</v>
       </c>
       <c r="BI57" t="n" s="10">
+        <v>70.6</v>
+      </c>
+      <c r="BJ57" t="n" s="10">
         <v>70.8</v>
-      </c>
-      <c r="BJ57" t="n" s="10">
-        <v>70.7</v>
       </c>
       <c r="BK57" t="n" s="10">
         <v>72.9</v>
@@ -22554,28 +22554,28 @@
         <v>71.3</v>
       </c>
       <c r="BM57" t="n" s="10">
-        <v>70.6</v>
+        <v>70.7</v>
       </c>
       <c r="BN57" t="n" s="10">
+        <v>70.7</v>
+      </c>
+      <c r="BO57" t="n" s="10">
+        <v>69.7</v>
+      </c>
+      <c r="BP57" t="n" s="10">
         <v>70.8</v>
-      </c>
-      <c r="BO57" t="n" s="10">
-        <v>69.8</v>
-      </c>
-      <c r="BP57" t="n" s="10">
-        <v>70.9</v>
       </c>
       <c r="BQ57" t="n" s="10">
         <v>74.1</v>
       </c>
       <c r="BR57" t="n" s="10">
-        <v>72.7</v>
+        <v>72.6</v>
       </c>
       <c r="BS57" t="n" s="10">
         <v>74.0</v>
       </c>
       <c r="BT57" t="n" s="10">
-        <v>74.0</v>
+        <v>74.1</v>
       </c>
       <c r="BU57" t="n" s="10">
         <v>75.3</v>
@@ -22584,22 +22584,22 @@
         <v>74.3</v>
       </c>
       <c r="BW57" t="n" s="10">
-        <v>73.5</v>
+        <v>73.4</v>
       </c>
       <c r="BX57" t="n" s="10">
         <v>76.8</v>
       </c>
       <c r="BY57" t="n" s="10">
-        <v>77.9</v>
+        <v>78.0</v>
       </c>
       <c r="BZ57" t="n" s="10">
-        <v>77.2</v>
+        <v>77.3</v>
       </c>
       <c r="CA57" t="n" s="10">
-        <v>80.5</v>
+        <v>80.3</v>
       </c>
       <c r="CB57" t="n" s="10">
-        <v>80.9</v>
+        <v>81.1</v>
       </c>
       <c r="CC57" t="n" s="10">
         <v>78.3</v>
@@ -22611,13 +22611,13 @@
         <v>79.7</v>
       </c>
       <c r="CF57" t="n" s="10">
+        <v>80.3</v>
+      </c>
+      <c r="CG57" t="n" s="10">
         <v>80.2</v>
       </c>
-      <c r="CG57" t="n" s="10">
-        <v>80.0</v>
-      </c>
       <c r="CH57" t="n" s="10">
-        <v>79.6</v>
+        <v>79.8</v>
       </c>
       <c r="CI57" t="n" s="10">
         <v>84.4</v>
@@ -22626,49 +22626,49 @@
         <v>82.4</v>
       </c>
       <c r="CK57" t="n" s="10">
-        <v>80.6</v>
+        <v>80.7</v>
       </c>
       <c r="CL57" t="n" s="10">
         <v>83.3</v>
       </c>
       <c r="CM57" t="n" s="10">
-        <v>84.3</v>
+        <v>84.6</v>
       </c>
       <c r="CN57" t="n" s="10">
-        <v>82.7</v>
+        <v>82.6</v>
       </c>
       <c r="CO57" t="n" s="10">
-        <v>87.4</v>
+        <v>87.3</v>
       </c>
       <c r="CP57" t="n" s="10">
-        <v>88.0</v>
+        <v>88.1</v>
       </c>
       <c r="CQ57" t="n" s="10">
-        <v>88.1</v>
+        <v>88.3</v>
       </c>
       <c r="CR57" t="n" s="10">
-        <v>89.0</v>
+        <v>88.9</v>
       </c>
       <c r="CS57" t="n" s="10">
-        <v>88.7</v>
+        <v>88.8</v>
       </c>
       <c r="CT57" t="n" s="10">
+        <v>92.2</v>
+      </c>
+      <c r="CU57" t="n" s="10">
+        <v>88.6</v>
+      </c>
+      <c r="CV57" t="n" s="10">
+        <v>90.2</v>
+      </c>
+      <c r="CW57" t="n" s="10">
+        <v>92.0</v>
+      </c>
+      <c r="CX57" t="n" s="10">
         <v>92.1</v>
       </c>
-      <c r="CU57" t="n" s="10">
-        <v>88.5</v>
-      </c>
-      <c r="CV57" t="n" s="10">
-        <v>90.1</v>
-      </c>
-      <c r="CW57" t="n" s="10">
-        <v>91.9</v>
-      </c>
-      <c r="CX57" t="n" s="10">
-        <v>92.2</v>
-      </c>
       <c r="CY57" t="n" s="10">
-        <v>90.6</v>
+        <v>90.5</v>
       </c>
       <c r="CZ57" t="n" s="10">
         <v>95.0</v>
@@ -22680,31 +22680,31 @@
         <v>90.3</v>
       </c>
       <c r="DC57" t="n" s="10">
-        <v>90.7</v>
+        <v>90.5</v>
       </c>
       <c r="DD57" t="n" s="10">
-        <v>91.3</v>
+        <v>91.4</v>
       </c>
       <c r="DE57" t="n" s="10">
         <v>92.3</v>
       </c>
       <c r="DF57" t="n" s="10">
-        <v>92.5</v>
+        <v>92.3</v>
       </c>
       <c r="DG57" t="n" s="10">
         <v>92.2</v>
       </c>
       <c r="DH57" t="n" s="10">
-        <v>92.6</v>
+        <v>92.5</v>
       </c>
       <c r="DI57" t="n" s="10">
-        <v>94.5</v>
+        <v>94.3</v>
       </c>
       <c r="DJ57" t="n" s="10">
-        <v>91.9</v>
+        <v>92.0</v>
       </c>
       <c r="DK57" t="n" s="10">
-        <v>91.8</v>
+        <v>91.6</v>
       </c>
       <c r="DL57" t="n" s="10">
         <v>91.7</v>
@@ -22722,13 +22722,13 @@
         <v>93.1</v>
       </c>
       <c r="DQ57" t="n" s="10">
-        <v>93.0</v>
+        <v>92.9</v>
       </c>
       <c r="DR57" t="n" s="10">
         <v>91.5</v>
       </c>
       <c r="DS57" t="n" s="10">
-        <v>93.6</v>
+        <v>93.7</v>
       </c>
       <c r="DT57" t="n" s="10">
         <v>92.4</v>
@@ -22737,13 +22737,13 @@
         <v>91.2</v>
       </c>
       <c r="DV57" t="n" s="10">
-        <v>95.8</v>
+        <v>95.7</v>
       </c>
       <c r="DW57" t="n" s="10">
-        <v>98.0</v>
+        <v>98.1</v>
       </c>
       <c r="DX57" t="n" s="10">
-        <v>95.2</v>
+        <v>95.0</v>
       </c>
       <c r="DY57" t="n" s="10">
         <v>97.5</v>
@@ -22752,13 +22752,13 @@
         <v>95.6</v>
       </c>
       <c r="EA57" t="n" s="10">
-        <v>97.3</v>
+        <v>97.4</v>
       </c>
       <c r="EB57" t="n" s="10">
-        <v>99.0</v>
+        <v>98.9</v>
       </c>
       <c r="EC57" t="n" s="10">
-        <v>99.2</v>
+        <v>99.1</v>
       </c>
       <c r="ED57" t="n" s="10">
         <v>99.3</v>
@@ -22784,28 +22784,28 @@
         <v>34.4</v>
       </c>
       <c r="H58" t="n" s="10">
-        <v>34.8</v>
+        <v>34.9</v>
       </c>
       <c r="I58" t="n" s="10">
         <v>35.3</v>
       </c>
       <c r="J58" t="n" s="10">
-        <v>35.7</v>
+        <v>35.8</v>
       </c>
       <c r="K58" t="n" s="10">
         <v>36.2</v>
       </c>
       <c r="L58" t="n" s="10">
-        <v>36.6</v>
+        <v>36.7</v>
       </c>
       <c r="M58" t="n" s="10">
-        <v>37.0</v>
+        <v>37.1</v>
       </c>
       <c r="N58" t="n" s="10">
         <v>37.5</v>
       </c>
       <c r="O58" t="n" s="10">
-        <v>38.0</v>
+        <v>38.1</v>
       </c>
       <c r="P58" t="n" s="10">
         <v>38.6</v>
@@ -22817,34 +22817,34 @@
         <v>39.9</v>
       </c>
       <c r="S58" t="n" s="10">
-        <v>40.5</v>
+        <v>40.6</v>
       </c>
       <c r="T58" t="n" s="10">
-        <v>41.2</v>
+        <v>41.3</v>
       </c>
       <c r="U58" t="n" s="10">
         <v>41.9</v>
       </c>
       <c r="V58" t="n" s="10">
-        <v>42.4</v>
+        <v>42.5</v>
       </c>
       <c r="W58" t="n" s="10">
-        <v>42.8</v>
+        <v>42.9</v>
       </c>
       <c r="X58" t="n" s="10">
         <v>43.2</v>
       </c>
       <c r="Y58" t="n" s="10">
-        <v>43.3</v>
+        <v>43.4</v>
       </c>
       <c r="Z58" t="n" s="10">
-        <v>43.5</v>
+        <v>43.6</v>
       </c>
       <c r="AA58" t="n" s="10">
-        <v>43.7</v>
+        <v>43.8</v>
       </c>
       <c r="AB58" t="n" s="10">
-        <v>43.9</v>
+        <v>44.0</v>
       </c>
       <c r="AC58" t="n" s="10">
         <v>44.4</v>
@@ -22874,10 +22874,10 @@
         <v>51.3</v>
       </c>
       <c r="AL58" t="n" s="10">
-        <v>52.4</v>
+        <v>52.3</v>
       </c>
       <c r="AM58" t="n" s="10">
-        <v>53.5</v>
+        <v>53.4</v>
       </c>
       <c r="AN58" t="n" s="10">
         <v>54.6</v>
@@ -22895,19 +22895,19 @@
         <v>59.2</v>
       </c>
       <c r="AS58" t="n" s="10">
-        <v>60.3</v>
+        <v>60.2</v>
       </c>
       <c r="AT58" t="n" s="10">
         <v>61.2</v>
       </c>
       <c r="AU58" t="n" s="10">
-        <v>62.1</v>
+        <v>62.0</v>
       </c>
       <c r="AV58" t="n" s="10">
         <v>62.9</v>
       </c>
       <c r="AW58" t="n" s="10">
-        <v>63.7</v>
+        <v>63.6</v>
       </c>
       <c r="AX58" t="n" s="10">
         <v>64.3</v>
@@ -22958,10 +22958,10 @@
         <v>71.2</v>
       </c>
       <c r="BN58" t="n" s="10">
-        <v>71.5</v>
+        <v>71.4</v>
       </c>
       <c r="BO58" t="n" s="10">
-        <v>71.8</v>
+        <v>71.7</v>
       </c>
       <c r="BP58" t="n" s="10">
         <v>72.1</v>
@@ -22979,7 +22979,7 @@
         <v>74.0</v>
       </c>
       <c r="BU58" t="n" s="10">
-        <v>74.5</v>
+        <v>74.6</v>
       </c>
       <c r="BV58" t="n" s="10">
         <v>75.1</v>
@@ -23000,31 +23000,31 @@
         <v>78.4</v>
       </c>
       <c r="CB58" t="n" s="10">
-        <v>78.9</v>
+        <v>79.0</v>
       </c>
       <c r="CC58" t="n" s="10">
-        <v>79.3</v>
+        <v>79.4</v>
       </c>
       <c r="CD58" t="n" s="10">
-        <v>79.7</v>
+        <v>79.8</v>
       </c>
       <c r="CE58" t="n" s="10">
-        <v>80.1</v>
+        <v>80.2</v>
       </c>
       <c r="CF58" t="n" s="10">
-        <v>80.5</v>
+        <v>80.6</v>
       </c>
       <c r="CG58" t="n" s="10">
-        <v>80.8</v>
+        <v>80.9</v>
       </c>
       <c r="CH58" t="n" s="10">
-        <v>81.2</v>
+        <v>81.3</v>
       </c>
       <c r="CI58" t="n" s="10">
         <v>81.7</v>
       </c>
       <c r="CJ58" t="n" s="10">
-        <v>82.1</v>
+        <v>82.2</v>
       </c>
       <c r="CK58" t="n" s="10">
         <v>82.7</v>
@@ -23036,10 +23036,10 @@
         <v>84.3</v>
       </c>
       <c r="CN58" t="n" s="10">
-        <v>85.1</v>
+        <v>85.2</v>
       </c>
       <c r="CO58" t="n" s="10">
-        <v>86.1</v>
+        <v>86.2</v>
       </c>
       <c r="CP58" t="n" s="10">
         <v>87.1</v>
@@ -23048,25 +23048,25 @@
         <v>87.9</v>
       </c>
       <c r="CR58" t="n" s="10">
-        <v>88.6</v>
+        <v>88.7</v>
       </c>
       <c r="CS58" t="n" s="10">
         <v>89.3</v>
       </c>
       <c r="CT58" t="n" s="10">
-        <v>89.8</v>
+        <v>89.9</v>
       </c>
       <c r="CU58" t="n" s="10">
         <v>90.3</v>
       </c>
       <c r="CV58" t="n" s="10">
-        <v>90.6</v>
+        <v>90.7</v>
       </c>
       <c r="CW58" t="n" s="10">
-        <v>91.0</v>
+        <v>91.1</v>
       </c>
       <c r="CX58" t="n" s="10">
-        <v>91.3</v>
+        <v>91.4</v>
       </c>
       <c r="CY58" t="n" s="10">
         <v>91.6</v>
@@ -23090,22 +23090,22 @@
         <v>92.1</v>
       </c>
       <c r="DF58" t="n" s="10">
-        <v>92.1</v>
+        <v>92.0</v>
       </c>
       <c r="DG58" t="n" s="10">
         <v>92.1</v>
       </c>
       <c r="DH58" t="n" s="10">
+        <v>92.2</v>
+      </c>
+      <c r="DI58" t="n" s="10">
         <v>92.3</v>
-      </c>
-      <c r="DI58" t="n" s="10">
-        <v>92.4</v>
       </c>
       <c r="DJ58" t="n" s="10">
         <v>92.4</v>
       </c>
       <c r="DK58" t="n" s="10">
-        <v>92.6</v>
+        <v>92.5</v>
       </c>
       <c r="DL58" t="n" s="10">
         <v>92.6</v>
@@ -23114,7 +23114,7 @@
         <v>92.8</v>
       </c>
       <c r="DN58" t="n" s="10">
-        <v>93.0</v>
+        <v>92.9</v>
       </c>
       <c r="DO58" t="n" s="10">
         <v>93.0</v>
@@ -23123,7 +23123,7 @@
         <v>93.0</v>
       </c>
       <c r="DQ58" t="n" s="10">
-        <v>93.0</v>
+        <v>92.9</v>
       </c>
       <c r="DR58" t="n" s="10">
         <v>93.0</v>
@@ -23132,7 +23132,7 @@
         <v>93.2</v>
       </c>
       <c r="DT58" t="n" s="10">
-        <v>93.6</v>
+        <v>93.5</v>
       </c>
       <c r="DU58" t="n" s="10">
         <v>94.0</v>
@@ -23156,7 +23156,7 @@
         <v>97.7</v>
       </c>
       <c r="EB58" t="n" s="10">
-        <v>98.3</v>
+        <v>98.2</v>
       </c>
       <c r="EC58" t="n" s="10">
         <v>98.6</v>
@@ -23793,7 +23793,7 @@
         <v>106.5</v>
       </c>
       <c r="BX60" t="n" s="10">
-        <v>93.7</v>
+        <v>93.8</v>
       </c>
       <c r="BY60" t="n" s="10">
         <v>98.2</v>
@@ -23817,7 +23817,7 @@
         <v>99.6</v>
       </c>
       <c r="CF60" t="n" s="10">
-        <v>106.1</v>
+        <v>105.7</v>
       </c>
       <c r="CG60" t="n" s="10">
         <v>114.9</v>
@@ -23826,28 +23826,28 @@
         <v>158.7</v>
       </c>
       <c r="CI60" t="n" s="10">
-        <v>115.5</v>
+        <v>115.6</v>
       </c>
       <c r="CJ60" t="n" s="10">
-        <v>93.6</v>
+        <v>93.7</v>
       </c>
       <c r="CK60" t="n" s="10">
         <v>95.7</v>
       </c>
       <c r="CL60" t="n" s="10">
-        <v>88.1</v>
+        <v>88.0</v>
       </c>
       <c r="CM60" t="n" s="10">
-        <v>89.7</v>
+        <v>89.6</v>
       </c>
       <c r="CN60" t="n" s="10">
         <v>93.3</v>
       </c>
       <c r="CO60" t="n" s="10">
-        <v>98.3</v>
+        <v>98.4</v>
       </c>
       <c r="CP60" t="n" s="10">
-        <v>97.5</v>
+        <v>97.4</v>
       </c>
       <c r="CQ60" t="n" s="10">
         <v>98.0</v>
@@ -23868,7 +23868,7 @@
         <v>90.8</v>
       </c>
       <c r="CW60" t="n" s="10">
-        <v>100.4</v>
+        <v>100.3</v>
       </c>
       <c r="CX60" t="n" s="10">
         <v>95.0</v>
@@ -23880,7 +23880,7 @@
         <v>99.5</v>
       </c>
       <c r="DA60" t="n" s="10">
-        <v>97.2</v>
+        <v>97.3</v>
       </c>
       <c r="DB60" t="n" s="10">
         <v>94.8</v>
@@ -23889,7 +23889,7 @@
         <v>97.7</v>
       </c>
       <c r="DD60" t="n" s="10">
-        <v>103.5</v>
+        <v>103.6</v>
       </c>
       <c r="DE60" t="n" s="10">
         <v>113.5</v>
@@ -23916,7 +23916,7 @@
         <v>88.3</v>
       </c>
       <c r="DM60" t="n" s="10">
-        <v>89.6</v>
+        <v>89.5</v>
       </c>
       <c r="DN60" t="n" s="10">
         <v>91.7</v>
@@ -23925,10 +23925,10 @@
         <v>98.0</v>
       </c>
       <c r="DP60" t="n" s="10">
-        <v>101.0</v>
+        <v>101.1</v>
       </c>
       <c r="DQ60" t="n" s="10">
-        <v>111.2</v>
+        <v>111.1</v>
       </c>
       <c r="DR60" t="n" s="10">
         <v>147.9</v>
@@ -23943,7 +23943,7 @@
         <v>89.7</v>
       </c>
       <c r="DV60" t="n" s="10">
-        <v>85.9</v>
+        <v>85.8</v>
       </c>
       <c r="DW60" t="n" s="10">
         <v>88.3</v>
@@ -23961,7 +23961,7 @@
         <v>96.1</v>
       </c>
       <c r="EB60" t="n" s="10">
-        <v>103.2</v>
+        <v>103.3</v>
       </c>
       <c r="EC60" t="n" s="10">
         <v>114.6</v>
@@ -24191,16 +24191,16 @@
         <v>102.3</v>
       </c>
       <c r="BW61" t="n" s="10">
-        <v>101.4</v>
+        <v>101.5</v>
       </c>
       <c r="BX61" t="n" s="10">
         <v>104.2</v>
       </c>
       <c r="BY61" t="n" s="10">
-        <v>102.4</v>
+        <v>102.3</v>
       </c>
       <c r="BZ61" t="n" s="10">
-        <v>102.5</v>
+        <v>102.6</v>
       </c>
       <c r="CA61" t="n" s="10">
         <v>112.5</v>
@@ -24218,19 +24218,19 @@
         <v>105.5</v>
       </c>
       <c r="CF61" t="n" s="10">
-        <v>103.7</v>
+        <v>103.4</v>
       </c>
       <c r="CG61" t="n" s="10">
-        <v>103.1</v>
+        <v>103.0</v>
       </c>
       <c r="CH61" t="n" s="10">
         <v>102.9</v>
       </c>
       <c r="CI61" t="n" s="10">
-        <v>110.0</v>
+        <v>110.1</v>
       </c>
       <c r="CJ61" t="n" s="10">
-        <v>104.4</v>
+        <v>104.3</v>
       </c>
       <c r="CK61" t="n" s="10">
         <v>100.7</v>
@@ -24239,10 +24239,10 @@
         <v>101.6</v>
       </c>
       <c r="CM61" t="n" s="10">
-        <v>104.7</v>
+        <v>104.6</v>
       </c>
       <c r="CN61" t="n" s="10">
-        <v>103.8</v>
+        <v>103.9</v>
       </c>
       <c r="CO61" t="n" s="10">
         <v>105.4</v>
@@ -24254,7 +24254,7 @@
         <v>103.4</v>
       </c>
       <c r="CR61" t="n" s="10">
-        <v>102.5</v>
+        <v>102.6</v>
       </c>
       <c r="CS61" t="n" s="10">
         <v>101.4</v>
@@ -24263,19 +24263,19 @@
         <v>105.1</v>
       </c>
       <c r="CU61" t="n" s="10">
-        <v>102.1</v>
+        <v>102.2</v>
       </c>
       <c r="CV61" t="n" s="10">
-        <v>101.5</v>
+        <v>101.4</v>
       </c>
       <c r="CW61" t="n" s="10">
         <v>106.4</v>
       </c>
       <c r="CX61" t="n" s="10">
-        <v>109.3</v>
+        <v>109.4</v>
       </c>
       <c r="CY61" t="n" s="10">
-        <v>105.0</v>
+        <v>104.9</v>
       </c>
       <c r="CZ61" t="n" s="10">
         <v>111.4</v>
@@ -24290,7 +24290,7 @@
         <v>102.6</v>
       </c>
       <c r="DD61" t="n" s="10">
-        <v>101.3</v>
+        <v>101.4</v>
       </c>
       <c r="DE61" t="n" s="10">
         <v>101.1</v>
@@ -24299,7 +24299,7 @@
         <v>100.9</v>
       </c>
       <c r="DG61" t="n" s="10">
-        <v>100.8</v>
+        <v>100.9</v>
       </c>
       <c r="DH61" t="n" s="10">
         <v>100.3</v>
@@ -24308,22 +24308,22 @@
         <v>106.6</v>
       </c>
       <c r="DJ61" t="n" s="10">
-        <v>102.1</v>
+        <v>102.2</v>
       </c>
       <c r="DK61" t="n" s="10">
-        <v>101.2</v>
+        <v>101.1</v>
       </c>
       <c r="DL61" t="n" s="10">
         <v>99.3</v>
       </c>
       <c r="DM61" t="n" s="10">
-        <v>95.6</v>
+        <v>95.5</v>
       </c>
       <c r="DN61" t="n" s="10">
         <v>99.9</v>
       </c>
       <c r="DO61" t="n" s="10">
-        <v>102.5</v>
+        <v>102.7</v>
       </c>
       <c r="DP61" t="n" s="10">
         <v>98.9</v>
@@ -24347,7 +24347,7 @@
         <v>98.3</v>
       </c>
       <c r="DW61" t="n" s="10">
-        <v>102.9</v>
+        <v>102.8</v>
       </c>
       <c r="DX61" t="n" s="10">
         <v>97.4</v>
@@ -24359,10 +24359,10 @@
         <v>96.0</v>
       </c>
       <c r="EA61" t="n" s="10">
-        <v>100.3</v>
+        <v>100.5</v>
       </c>
       <c r="EB61" t="n" s="10">
-        <v>101.0</v>
+        <v>100.9</v>
       </c>
       <c r="EC61" t="n" s="10">
         <v>100.8</v>
@@ -24388,7 +24388,7 @@
         <v>79.4</v>
       </c>
       <c r="G62" t="n" s="10">
-        <v>81.0</v>
+        <v>80.9</v>
       </c>
       <c r="H62" t="n" s="10">
         <v>81.4</v>
@@ -24400,7 +24400,7 @@
         <v>80.7</v>
       </c>
       <c r="K62" t="n" s="10">
-        <v>80.5</v>
+        <v>80.6</v>
       </c>
       <c r="L62" t="n" s="10">
         <v>82.6</v>
@@ -24409,7 +24409,7 @@
         <v>81.8</v>
       </c>
       <c r="N62" t="n" s="10">
-        <v>81.3</v>
+        <v>81.4</v>
       </c>
       <c r="O62" t="n" s="10">
         <v>83.5</v>
@@ -24418,16 +24418,16 @@
         <v>84.3</v>
       </c>
       <c r="Q62" t="n" s="10">
-        <v>86.2</v>
+        <v>86.1</v>
       </c>
       <c r="R62" t="n" s="10">
-        <v>85.3</v>
+        <v>85.4</v>
       </c>
       <c r="S62" t="n" s="10">
         <v>84.9</v>
       </c>
       <c r="T62" t="n" s="10">
-        <v>86.8</v>
+        <v>86.9</v>
       </c>
       <c r="U62" t="n" s="10">
         <v>89.5</v>
@@ -24445,7 +24445,7 @@
         <v>86.5</v>
       </c>
       <c r="Z62" t="n" s="10">
-        <v>87.7</v>
+        <v>87.8</v>
       </c>
       <c r="AA62" t="n" s="10">
         <v>88.8</v>
@@ -24457,10 +24457,10 @@
         <v>84.9</v>
       </c>
       <c r="AD62" t="n" s="10">
-        <v>88.6</v>
+        <v>88.5</v>
       </c>
       <c r="AE62" t="n" s="10">
-        <v>87.9</v>
+        <v>88.0</v>
       </c>
       <c r="AF62" t="n" s="10">
         <v>85.5</v>
@@ -24517,7 +24517,7 @@
         <v>97.4</v>
       </c>
       <c r="AX62" t="n" s="10">
-        <v>99.6</v>
+        <v>99.5</v>
       </c>
       <c r="AY62" t="n" s="10">
         <v>98.5</v>
@@ -24526,10 +24526,10 @@
         <v>98.7</v>
       </c>
       <c r="BA62" t="n" s="10">
-        <v>101.5</v>
+        <v>101.4</v>
       </c>
       <c r="BB62" t="n" s="10">
-        <v>103.3</v>
+        <v>103.4</v>
       </c>
       <c r="BC62" t="n" s="10">
         <v>103.0</v>
@@ -24544,13 +24544,13 @@
         <v>101.9</v>
       </c>
       <c r="BG62" t="n" s="10">
-        <v>101.1</v>
+        <v>101.2</v>
       </c>
       <c r="BH62" t="n" s="10">
         <v>101.2</v>
       </c>
       <c r="BI62" t="n" s="10">
-        <v>101.7</v>
+        <v>101.6</v>
       </c>
       <c r="BJ62" t="n" s="10">
         <v>101.2</v>
@@ -24562,7 +24562,7 @@
         <v>101.3</v>
       </c>
       <c r="BM62" t="n" s="10">
-        <v>99.6</v>
+        <v>99.7</v>
       </c>
       <c r="BN62" t="n" s="10">
         <v>99.6</v>
@@ -24607,7 +24607,7 @@
         <v>107.4</v>
       </c>
       <c r="CB62" t="n" s="10">
-        <v>106.7</v>
+        <v>106.8</v>
       </c>
       <c r="CC62" t="n" s="10">
         <v>104.6</v>
@@ -24628,7 +24628,7 @@
         <v>103.0</v>
       </c>
       <c r="CI62" t="n" s="10">
-        <v>108.0</v>
+        <v>108.1</v>
       </c>
       <c r="CJ62" t="n" s="10">
         <v>104.5</v>
@@ -24640,19 +24640,19 @@
         <v>103.7</v>
       </c>
       <c r="CM62" t="n" s="10">
-        <v>103.2</v>
+        <v>103.3</v>
       </c>
       <c r="CN62" t="n" s="10">
         <v>100.9</v>
       </c>
       <c r="CO62" t="n" s="10">
-        <v>104.7</v>
+        <v>104.6</v>
       </c>
       <c r="CP62" t="n" s="10">
         <v>104.1</v>
       </c>
       <c r="CQ62" t="n" s="10">
-        <v>103.6</v>
+        <v>103.7</v>
       </c>
       <c r="CR62" t="n" s="10">
         <v>103.7</v>
@@ -24670,13 +24670,13 @@
         <v>104.3</v>
       </c>
       <c r="CW62" t="n" s="10">
-        <v>105.7</v>
+        <v>105.8</v>
       </c>
       <c r="CX62" t="n" s="10">
-        <v>105.9</v>
+        <v>105.8</v>
       </c>
       <c r="CY62" t="n" s="10">
-        <v>104.0</v>
+        <v>103.9</v>
       </c>
       <c r="CZ62" t="n" s="10">
         <v>108.4</v>
@@ -24697,7 +24697,7 @@
         <v>102.5</v>
       </c>
       <c r="DF62" t="n" s="10">
-        <v>102.9</v>
+        <v>102.8</v>
       </c>
       <c r="DG62" t="n" s="10">
         <v>101.6</v>
@@ -24706,10 +24706,10 @@
         <v>101.9</v>
       </c>
       <c r="DI62" t="n" s="10">
-        <v>104.1</v>
+        <v>104.0</v>
       </c>
       <c r="DJ62" t="n" s="10">
-        <v>100.5</v>
+        <v>100.6</v>
       </c>
       <c r="DK62" t="n" s="10">
         <v>99.7</v>
@@ -24718,7 +24718,7 @@
         <v>98.8</v>
       </c>
       <c r="DM62" t="n" s="10">
-        <v>97.7</v>
+        <v>97.8</v>
       </c>
       <c r="DN62" t="n" s="10">
         <v>101.3</v>
@@ -24730,7 +24730,7 @@
         <v>99.0</v>
       </c>
       <c r="DQ62" t="n" s="10">
-        <v>99.0</v>
+        <v>98.9</v>
       </c>
       <c r="DR62" t="n" s="10">
         <v>96.5</v>
@@ -24748,7 +24748,7 @@
         <v>99.3</v>
       </c>
       <c r="DW62" t="n" s="10">
-        <v>101.2</v>
+        <v>101.3</v>
       </c>
       <c r="DX62" t="n" s="10">
         <v>98.5</v>
@@ -24757,7 +24757,7 @@
         <v>100.6</v>
       </c>
       <c r="DZ62" t="n" s="10">
-        <v>97.9</v>
+        <v>97.8</v>
       </c>
       <c r="EA62" t="n" s="10">
         <v>98.9</v>
@@ -24766,7 +24766,7 @@
         <v>100.3</v>
       </c>
       <c r="EC62" t="n" s="10">
-        <v>100.2</v>
+        <v>100.1</v>
       </c>
       <c r="ED62" t="n" s="10">
         <v>100.5</v>
@@ -24804,7 +24804,7 @@
         <v>81.6</v>
       </c>
       <c r="L63" t="n" s="10">
-        <v>82.1</v>
+        <v>82.2</v>
       </c>
       <c r="M63" t="n" s="10">
         <v>82.6</v>
@@ -24825,7 +24825,7 @@
         <v>85.3</v>
       </c>
       <c r="S63" t="n" s="10">
-        <v>85.8</v>
+        <v>85.9</v>
       </c>
       <c r="T63" t="n" s="10">
         <v>86.5</v>
@@ -24843,7 +24843,7 @@
         <v>87.5</v>
       </c>
       <c r="Y63" t="n" s="10">
-        <v>87.2</v>
+        <v>87.3</v>
       </c>
       <c r="Z63" t="n" s="10">
         <v>87.1</v>
@@ -24879,10 +24879,10 @@
         <v>90.4</v>
       </c>
       <c r="AK63" t="n" s="10">
-        <v>91.2</v>
+        <v>91.1</v>
       </c>
       <c r="AL63" t="n" s="10">
-        <v>91.9</v>
+        <v>91.8</v>
       </c>
       <c r="AM63" t="n" s="10">
         <v>92.5</v>
@@ -24930,7 +24930,7 @@
         <v>100.5</v>
       </c>
       <c r="BB63" t="n" s="10">
-        <v>101.0</v>
+        <v>100.9</v>
       </c>
       <c r="BC63" t="n" s="10">
         <v>101.3</v>
@@ -24957,7 +24957,7 @@
         <v>101.1</v>
       </c>
       <c r="BK63" t="n" s="10">
-        <v>101.0</v>
+        <v>100.9</v>
       </c>
       <c r="BL63" t="n" s="10">
         <v>100.8</v>
@@ -24987,7 +24987,7 @@
         <v>101.9</v>
       </c>
       <c r="BU63" t="n" s="10">
-        <v>102.3</v>
+        <v>102.4</v>
       </c>
       <c r="BV63" t="n" s="10">
         <v>102.8</v>
@@ -24999,7 +24999,7 @@
         <v>103.9</v>
       </c>
       <c r="BY63" t="n" s="10">
-        <v>104.4</v>
+        <v>104.5</v>
       </c>
       <c r="BZ63" t="n" s="10">
         <v>104.8</v>
@@ -25017,7 +25017,7 @@
         <v>105.3</v>
       </c>
       <c r="CE63" t="n" s="10">
-        <v>105.2</v>
+        <v>105.3</v>
       </c>
       <c r="CF63" t="n" s="10">
         <v>105.1</v>
@@ -25041,16 +25041,16 @@
         <v>103.7</v>
       </c>
       <c r="CM63" t="n" s="10">
+        <v>103.5</v>
+      </c>
+      <c r="CN63" t="n" s="10">
         <v>103.4</v>
-      </c>
-      <c r="CN63" t="n" s="10">
-        <v>103.3</v>
       </c>
       <c r="CO63" t="n" s="10">
         <v>103.4</v>
       </c>
       <c r="CP63" t="n" s="10">
-        <v>103.5</v>
+        <v>103.6</v>
       </c>
       <c r="CQ63" t="n" s="10">
         <v>103.7</v>
@@ -25071,7 +25071,7 @@
         <v>104.7</v>
       </c>
       <c r="CW63" t="n" s="10">
-        <v>104.8</v>
+        <v>104.9</v>
       </c>
       <c r="CX63" t="n" s="10">
         <v>104.8</v>
@@ -25110,7 +25110,7 @@
         <v>101.3</v>
       </c>
       <c r="DJ63" t="n" s="10">
-        <v>100.9</v>
+        <v>100.8</v>
       </c>
       <c r="DK63" t="n" s="10">
         <v>100.5</v>
@@ -25119,7 +25119,7 @@
         <v>100.1</v>
       </c>
       <c r="DM63" t="n" s="10">
-        <v>99.8</v>
+        <v>99.7</v>
       </c>
       <c r="DN63" t="n" s="10">
         <v>99.5</v>
@@ -25140,7 +25140,7 @@
         <v>98.1</v>
       </c>
       <c r="DT63" t="n" s="10">
-        <v>98.1</v>
+        <v>98.0</v>
       </c>
       <c r="DU63" t="n" s="10">
         <v>98.1</v>
@@ -26395,7 +26395,7 @@
         <v>107.3</v>
       </c>
       <c r="E68" t="n" s="10">
-        <v>107.1</v>
+        <v>107.2</v>
       </c>
       <c r="F68" t="n" s="10">
         <v>106.9</v>
@@ -26422,7 +26422,7 @@
         <v>106.3</v>
       </c>
       <c r="N68" t="n" s="10">
-        <v>105.2</v>
+        <v>105.3</v>
       </c>
       <c r="O68" t="n" s="10">
         <v>105.3</v>
@@ -26437,7 +26437,7 @@
         <v>104.6</v>
       </c>
       <c r="S68" t="n" s="10">
-        <v>104.9</v>
+        <v>104.8</v>
       </c>
       <c r="T68" t="n" s="10">
         <v>104.4</v>
@@ -26449,7 +26449,7 @@
         <v>105.3</v>
       </c>
       <c r="W68" t="n" s="10">
-        <v>103.6</v>
+        <v>103.7</v>
       </c>
       <c r="X68" t="n" s="10">
         <v>105.0</v>
@@ -26503,7 +26503,7 @@
         <v>105.5</v>
       </c>
       <c r="AO68" t="n" s="10">
-        <v>108.4</v>
+        <v>108.5</v>
       </c>
       <c r="AP68" t="n" s="10">
         <v>105.3</v>
@@ -26527,7 +26527,7 @@
         <v>103.6</v>
       </c>
       <c r="AW68" t="n" s="10">
-        <v>101.6</v>
+        <v>101.7</v>
       </c>
       <c r="AX68" t="n" s="10">
         <v>104.5</v>
@@ -26578,7 +26578,7 @@
         <v>96.6</v>
       </c>
       <c r="BN68" t="n" s="10">
-        <v>100.3</v>
+        <v>100.2</v>
       </c>
       <c r="BO68" t="n" s="10">
         <v>97.3</v>
@@ -26653,7 +26653,7 @@
         <v>104.5</v>
       </c>
       <c r="CM68" t="n" s="10">
-        <v>101.2</v>
+        <v>101.3</v>
       </c>
       <c r="CN68" t="n" s="10">
         <v>100.8</v>
@@ -26668,7 +26668,7 @@
         <v>102.5</v>
       </c>
       <c r="CR68" t="n" s="10">
-        <v>103.5</v>
+        <v>103.4</v>
       </c>
       <c r="CS68" t="n" s="10">
         <v>102.9</v>
@@ -26722,7 +26722,7 @@
         <v>97.9</v>
       </c>
       <c r="DJ68" t="n" s="10">
-        <v>100.3</v>
+        <v>100.4</v>
       </c>
       <c r="DK68" t="n" s="10">
         <v>101.4</v>
@@ -26829,7 +26829,7 @@
         <v>105.3</v>
       </c>
       <c r="P69" t="n" s="10">
-        <v>105.1</v>
+        <v>105.2</v>
       </c>
       <c r="Q69" t="n" s="10">
         <v>105.0</v>
@@ -26934,7 +26934,7 @@
         <v>104.5</v>
       </c>
       <c r="AY69" t="n" s="10">
-        <v>104.7</v>
+        <v>104.6</v>
       </c>
       <c r="AZ69" t="n" s="10">
         <v>104.7</v>
@@ -26973,7 +26973,7 @@
         <v>100.3</v>
       </c>
       <c r="BL69" t="n" s="10">
-        <v>99.8</v>
+        <v>99.7</v>
       </c>
       <c r="BM69" t="n" s="10">
         <v>99.2</v>
@@ -27021,7 +27021,7 @@
         <v>99.4</v>
       </c>
       <c r="CB69" t="n" s="10">
-        <v>99.6</v>
+        <v>99.7</v>
       </c>
       <c r="CC69" t="n" s="10">
         <v>99.9</v>
@@ -27030,7 +27030,7 @@
         <v>100.1</v>
       </c>
       <c r="CE69" t="n" s="10">
-        <v>100.2</v>
+        <v>100.3</v>
       </c>
       <c r="CF69" t="n" s="10">
         <v>100.4</v>
@@ -27168,7 +27168,7 @@
         <v>98.3</v>
       </c>
       <c r="DY69" t="n" s="10">
-        <v>98.4</v>
+        <v>98.3</v>
       </c>
       <c r="DZ69" t="n" s="10">
         <v>98.5</v>
@@ -28427,7 +28427,7 @@
         <v>97.7</v>
       </c>
       <c r="M73" t="n" s="10">
-        <v>97.3</v>
+        <v>97.4</v>
       </c>
       <c r="N73" t="n" s="10">
         <v>96.3</v>
@@ -28439,7 +28439,7 @@
         <v>96.1</v>
       </c>
       <c r="Q73" t="n" s="10">
-        <v>96.3</v>
+        <v>96.2</v>
       </c>
       <c r="R73" t="n" s="10">
         <v>96.0</v>
@@ -28448,7 +28448,7 @@
         <v>96.4</v>
       </c>
       <c r="T73" t="n" s="10">
-        <v>95.9</v>
+        <v>96.0</v>
       </c>
       <c r="U73" t="n" s="10">
         <v>97.2</v>
@@ -28511,7 +28511,7 @@
         <v>96.1</v>
       </c>
       <c r="AO73" t="n" s="10">
-        <v>98.5</v>
+        <v>98.6</v>
       </c>
       <c r="AP73" t="n" s="10">
         <v>95.9</v>
@@ -28667,7 +28667,7 @@
         <v>97.6</v>
       </c>
       <c r="CO73" t="n" s="10">
-        <v>99.4</v>
+        <v>99.3</v>
       </c>
       <c r="CP73" t="n" s="10">
         <v>98.7</v>
@@ -28709,13 +28709,13 @@
         <v>101.5</v>
       </c>
       <c r="DC73" t="n" s="10">
-        <v>101.3</v>
+        <v>101.2</v>
       </c>
       <c r="DD73" t="n" s="10">
         <v>100.3</v>
       </c>
       <c r="DE73" t="n" s="10">
-        <v>99.6</v>
+        <v>99.7</v>
       </c>
       <c r="DF73" t="n" s="10">
         <v>101.1</v>
@@ -28733,7 +28733,7 @@
         <v>99.0</v>
       </c>
       <c r="DK73" t="n" s="10">
-        <v>100.2</v>
+        <v>100.1</v>
       </c>
       <c r="DL73" t="n" s="10">
         <v>99.0</v>
@@ -30416,7 +30416,7 @@
         <v>78.7</v>
       </c>
       <c r="E79" t="n" s="10">
-        <v>81.4</v>
+        <v>81.3</v>
       </c>
       <c r="F79" t="n" s="10">
         <v>76.9</v>
@@ -30425,7 +30425,7 @@
         <v>74.7</v>
       </c>
       <c r="H79" t="n" s="10">
-        <v>78.8</v>
+        <v>78.7</v>
       </c>
       <c r="I79" t="n" s="10">
         <v>77.4</v>
@@ -30443,7 +30443,7 @@
         <v>75.9</v>
       </c>
       <c r="N79" t="n" s="10">
-        <v>74.7</v>
+        <v>74.6</v>
       </c>
       <c r="O79" t="n" s="10">
         <v>80.0</v>
@@ -30452,25 +30452,25 @@
         <v>77.9</v>
       </c>
       <c r="Q79" t="n" s="10">
-        <v>76.4</v>
+        <v>76.5</v>
       </c>
       <c r="R79" t="n" s="10">
-        <v>77.2</v>
+        <v>77.1</v>
       </c>
       <c r="S79" t="n" s="10">
         <v>79.3</v>
       </c>
       <c r="T79" t="n" s="10">
-        <v>75.2</v>
+        <v>75.1</v>
       </c>
       <c r="U79" t="n" s="10">
         <v>77.3</v>
       </c>
       <c r="V79" t="n" s="10">
-        <v>80.4</v>
+        <v>80.3</v>
       </c>
       <c r="W79" t="n" s="10">
-        <v>78.0</v>
+        <v>77.9</v>
       </c>
       <c r="X79" t="n" s="10">
         <v>79.5</v>
@@ -30479,7 +30479,7 @@
         <v>79.0</v>
       </c>
       <c r="Z79" t="n" s="10">
-        <v>77.8</v>
+        <v>77.7</v>
       </c>
       <c r="AA79" t="n" s="10">
         <v>77.0</v>
@@ -30488,13 +30488,13 @@
         <v>77.6</v>
       </c>
       <c r="AC79" t="n" s="10">
-        <v>78.3</v>
+        <v>78.2</v>
       </c>
       <c r="AD79" t="n" s="10">
         <v>77.6</v>
       </c>
       <c r="AE79" t="n" s="10">
-        <v>77.4</v>
+        <v>77.3</v>
       </c>
       <c r="AF79" t="n" s="10">
         <v>78.7</v>
@@ -30515,7 +30515,7 @@
         <v>76.3</v>
       </c>
       <c r="AL79" t="n" s="10">
-        <v>76.5</v>
+        <v>76.6</v>
       </c>
       <c r="AM79" t="n" s="10">
         <v>70.8</v>
@@ -30542,7 +30542,7 @@
         <v>69.5</v>
       </c>
       <c r="AU79" t="n" s="10">
-        <v>69.3</v>
+        <v>69.4</v>
       </c>
       <c r="AV79" t="n" s="10">
         <v>70.0</v>
@@ -30560,10 +30560,10 @@
         <v>73.1</v>
       </c>
       <c r="BA79" t="n" s="10">
-        <v>72.1</v>
+        <v>72.2</v>
       </c>
       <c r="BB79" t="n" s="10">
-        <v>73.1</v>
+        <v>73.0</v>
       </c>
       <c r="BC79" t="n" s="10">
         <v>72.3</v>
@@ -30575,16 +30575,16 @@
         <v>74.6</v>
       </c>
       <c r="BF79" t="n" s="10">
-        <v>76.7</v>
+        <v>76.8</v>
       </c>
       <c r="BG79" t="n" s="10">
-        <v>76.2</v>
+        <v>76.1</v>
       </c>
       <c r="BH79" t="n" s="10">
         <v>75.3</v>
       </c>
       <c r="BI79" t="n" s="10">
-        <v>76.7</v>
+        <v>76.8</v>
       </c>
       <c r="BJ79" t="n" s="10">
         <v>76.8</v>
@@ -30638,7 +30638,7 @@
         <v>64.7</v>
       </c>
       <c r="CA79" t="n" s="10">
-        <v>67.0</v>
+        <v>67.1</v>
       </c>
       <c r="CB79" t="n" s="10">
         <v>66.6</v>
@@ -30650,16 +30650,16 @@
         <v>67.3</v>
       </c>
       <c r="CE79" t="n" s="10">
-        <v>66.7</v>
+        <v>66.6</v>
       </c>
       <c r="CF79" t="n" s="10">
-        <v>66.2</v>
+        <v>66.1</v>
       </c>
       <c r="CG79" t="n" s="10">
         <v>67.8</v>
       </c>
       <c r="CH79" t="n" s="10">
-        <v>66.6</v>
+        <v>66.5</v>
       </c>
       <c r="CI79" t="n" s="10">
         <v>66.9</v>
@@ -30674,19 +30674,19 @@
         <v>67.3</v>
       </c>
       <c r="CM79" t="n" s="10">
-        <v>66.0</v>
+        <v>65.8</v>
       </c>
       <c r="CN79" t="n" s="10">
         <v>66.9</v>
       </c>
       <c r="CO79" t="n" s="10">
-        <v>68.6</v>
+        <v>68.7</v>
       </c>
       <c r="CP79" t="n" s="10">
         <v>71.4</v>
       </c>
       <c r="CQ79" t="n" s="10">
-        <v>68.8</v>
+        <v>68.7</v>
       </c>
       <c r="CR79" t="n" s="10">
         <v>70.7</v>
@@ -30707,7 +30707,7 @@
         <v>70.1</v>
       </c>
       <c r="CX79" t="n" s="10">
-        <v>69.9</v>
+        <v>70.0</v>
       </c>
       <c r="CY79" t="n" s="10">
         <v>71.8</v>
@@ -30722,7 +30722,7 @@
         <v>70.0</v>
       </c>
       <c r="DC79" t="n" s="10">
-        <v>74.1</v>
+        <v>74.2</v>
       </c>
       <c r="DD79" t="n" s="10">
         <v>74.3</v>
@@ -30731,7 +30731,7 @@
         <v>74.3</v>
       </c>
       <c r="DF79" t="n" s="10">
-        <v>77.2</v>
+        <v>77.3</v>
       </c>
       <c r="DG79" t="n" s="10">
         <v>76.5</v>
@@ -30740,13 +30740,13 @@
         <v>74.8</v>
       </c>
       <c r="DI79" t="n" s="10">
-        <v>77.4</v>
+        <v>77.5</v>
       </c>
       <c r="DJ79" t="n" s="10">
-        <v>78.6</v>
+        <v>78.5</v>
       </c>
       <c r="DK79" t="n" s="10">
-        <v>78.7</v>
+        <v>78.8</v>
       </c>
       <c r="DL79" t="n" s="10">
         <v>76.3</v>
@@ -30761,7 +30761,7 @@
         <v>78.4</v>
       </c>
       <c r="DP79" t="n" s="10">
-        <v>77.9</v>
+        <v>78.0</v>
       </c>
       <c r="DQ79" t="n" s="10">
         <v>79.9</v>
@@ -30779,31 +30779,31 @@
         <v>80.5</v>
       </c>
       <c r="DV79" t="n" s="10">
-        <v>79.9</v>
+        <v>79.8</v>
       </c>
       <c r="DW79" t="n" s="10">
-        <v>77.6</v>
+        <v>77.5</v>
       </c>
       <c r="DX79" t="n" s="10">
         <v>80.0</v>
       </c>
       <c r="DY79" t="n" s="10">
-        <v>79.4</v>
+        <v>79.3</v>
       </c>
       <c r="DZ79" t="n" s="10">
-        <v>81.8</v>
+        <v>81.7</v>
       </c>
       <c r="EA79" t="n" s="10">
-        <v>81.1</v>
+        <v>81.0</v>
       </c>
       <c r="EB79" t="n" s="10">
-        <v>83.0</v>
+        <v>82.8</v>
       </c>
       <c r="EC79" t="n" s="10">
-        <v>82.5</v>
+        <v>82.4</v>
       </c>
       <c r="ED79" t="n" s="10">
-        <v>81.1</v>
+        <v>82.6</v>
       </c>
     </row>
     <row r="80">
@@ -30829,7 +30829,7 @@
         <v>76.8</v>
       </c>
       <c r="I80" t="n" s="10">
-        <v>76.6</v>
+        <v>76.5</v>
       </c>
       <c r="J80" t="n" s="10">
         <v>76.3</v>
@@ -30841,10 +30841,10 @@
         <v>76.0</v>
       </c>
       <c r="M80" t="n" s="10">
-        <v>76.1</v>
+        <v>76.0</v>
       </c>
       <c r="N80" t="n" s="10">
-        <v>76.3</v>
+        <v>76.2</v>
       </c>
       <c r="O80" t="n" s="10">
         <v>76.5</v>
@@ -30862,7 +30862,7 @@
         <v>77.7</v>
       </c>
       <c r="T80" t="n" s="10">
-        <v>78.0</v>
+        <v>77.9</v>
       </c>
       <c r="U80" t="n" s="10">
         <v>78.1</v>
@@ -30892,7 +30892,7 @@
         <v>78.1</v>
       </c>
       <c r="AD80" t="n" s="10">
-        <v>78.1</v>
+        <v>78.0</v>
       </c>
       <c r="AE80" t="n" s="10">
         <v>77.9</v>
@@ -30916,7 +30916,7 @@
         <v>75.2</v>
       </c>
       <c r="AL80" t="n" s="10">
-        <v>74.4</v>
+        <v>74.5</v>
       </c>
       <c r="AM80" t="n" s="10">
         <v>73.6</v>
@@ -31042,7 +31042,7 @@
         <v>65.8</v>
       </c>
       <c r="CB80" t="n" s="10">
-        <v>66.2</v>
+        <v>66.1</v>
       </c>
       <c r="CC80" t="n" s="10">
         <v>66.4</v>
@@ -31072,7 +31072,7 @@
         <v>67.2</v>
       </c>
       <c r="CL80" t="n" s="10">
-        <v>67.4</v>
+        <v>67.3</v>
       </c>
       <c r="CM80" t="n" s="10">
         <v>67.6</v>
@@ -31081,7 +31081,7 @@
         <v>67.8</v>
       </c>
       <c r="CO80" t="n" s="10">
-        <v>68.3</v>
+        <v>68.2</v>
       </c>
       <c r="CP80" t="n" s="10">
         <v>68.6</v>
@@ -31105,7 +31105,7 @@
         <v>70.6</v>
       </c>
       <c r="CW80" t="n" s="10">
-        <v>70.9</v>
+        <v>70.8</v>
       </c>
       <c r="CX80" t="n" s="10">
         <v>71.1</v>
@@ -31153,13 +31153,13 @@
         <v>77.7</v>
       </c>
       <c r="DM80" t="n" s="10">
-        <v>77.9</v>
+        <v>78.0</v>
       </c>
       <c r="DN80" t="n" s="10">
         <v>78.2</v>
       </c>
       <c r="DO80" t="n" s="10">
-        <v>78.4</v>
+        <v>78.5</v>
       </c>
       <c r="DP80" t="n" s="10">
         <v>78.6</v>
@@ -31195,16 +31195,16 @@
         <v>80.8</v>
       </c>
       <c r="EA80" t="n" s="10">
-        <v>81.6</v>
+        <v>81.7</v>
       </c>
       <c r="EB80" t="n" s="10">
-        <v>82.7</v>
+        <v>82.8</v>
       </c>
       <c r="EC80" t="n" s="10">
-        <v>84.0</v>
+        <v>84.1</v>
       </c>
       <c r="ED80" t="n" s="10">
-        <v>85.5</v>
+        <v>85.7</v>
       </c>
     </row>
     <row r="81">
@@ -32496,7 +32496,7 @@
         <v>75.3</v>
       </c>
       <c r="AC84" t="n" s="10">
-        <v>75.9</v>
+        <v>75.8</v>
       </c>
       <c r="AD84" t="n" s="10">
         <v>75.0</v>
@@ -32559,7 +32559,7 @@
         <v>66.7</v>
       </c>
       <c r="AX84" t="n" s="10">
-        <v>68.1</v>
+        <v>68.2</v>
       </c>
       <c r="AY84" t="n" s="10">
         <v>74.2</v>
@@ -32577,7 +32577,7 @@
         <v>73.7</v>
       </c>
       <c r="BD84" t="n" s="10">
-        <v>72.6</v>
+        <v>72.5</v>
       </c>
       <c r="BE84" t="n" s="10">
         <v>77.6</v>
@@ -32682,7 +32682,7 @@
         <v>69.3</v>
       </c>
       <c r="CM84" t="n" s="10">
-        <v>68.4</v>
+        <v>68.3</v>
       </c>
       <c r="CN84" t="n" s="10">
         <v>69.0</v>
@@ -32733,7 +32733,7 @@
         <v>78.9</v>
       </c>
       <c r="DD84" t="n" s="10">
-        <v>80.2</v>
+        <v>80.1</v>
       </c>
       <c r="DE84" t="n" s="10">
         <v>79.8</v>
@@ -32745,13 +32745,13 @@
         <v>81.3</v>
       </c>
       <c r="DH84" t="n" s="10">
-        <v>79.2</v>
+        <v>79.3</v>
       </c>
       <c r="DI84" t="n" s="10">
-        <v>82.1</v>
+        <v>82.2</v>
       </c>
       <c r="DJ84" t="n" s="10">
-        <v>83.8</v>
+        <v>83.7</v>
       </c>
       <c r="DK84" t="n" s="10">
         <v>83.3</v>
@@ -32766,7 +32766,7 @@
         <v>82.3</v>
       </c>
       <c r="DO84" t="n" s="10">
-        <v>82.3</v>
+        <v>82.4</v>
       </c>
       <c r="DP84" t="n" s="10">
         <v>81.6</v>
@@ -32775,19 +32775,19 @@
         <v>83.5</v>
       </c>
       <c r="DR84" t="n" s="10">
-        <v>83.3</v>
+        <v>83.4</v>
       </c>
       <c r="DS84" t="n" s="10">
         <v>83.5</v>
       </c>
       <c r="DT84" t="n" s="10">
-        <v>83.0</v>
+        <v>83.1</v>
       </c>
       <c r="DU84" t="n" s="10">
         <v>84.2</v>
       </c>
       <c r="DV84" t="n" s="10">
-        <v>83.1</v>
+        <v>83.0</v>
       </c>
       <c r="DW84" t="n" s="10">
         <v>80.8</v>
@@ -32796,22 +32796,22 @@
         <v>82.8</v>
       </c>
       <c r="DY84" t="n" s="10">
-        <v>82.4</v>
+        <v>82.3</v>
       </c>
       <c r="DZ84" t="n" s="10">
-        <v>84.6</v>
+        <v>84.5</v>
       </c>
       <c r="EA84" t="n" s="10">
+        <v>83.8</v>
+      </c>
+      <c r="EB84" t="n" s="10">
+        <v>84.8</v>
+      </c>
+      <c r="EC84" t="n" s="10">
         <v>84.0</v>
       </c>
-      <c r="EB84" t="n" s="10">
-        <v>85.0</v>
-      </c>
-      <c r="EC84" t="n" s="10">
-        <v>84.1</v>
-      </c>
       <c r="ED84" t="n" s="10">
-        <v>82.5</v>
+        <v>84.0</v>
       </c>
     </row>
     <row r="85">
@@ -32846,7 +32846,7 @@
         <v>69.8</v>
       </c>
       <c r="L85" t="n" s="10">
-        <v>70.0</v>
+        <v>69.9</v>
       </c>
       <c r="M85" t="n" s="10">
         <v>70.2</v>
@@ -32873,7 +32873,7 @@
         <v>73.7</v>
       </c>
       <c r="U85" t="n" s="10">
-        <v>74.2</v>
+        <v>74.1</v>
       </c>
       <c r="V85" t="n" s="10">
         <v>74.6</v>
@@ -32897,7 +32897,7 @@
         <v>75.6</v>
       </c>
       <c r="AC85" t="n" s="10">
-        <v>75.7</v>
+        <v>75.6</v>
       </c>
       <c r="AD85" t="n" s="10">
         <v>75.6</v>
@@ -33098,7 +33098,7 @@
         <v>72.3</v>
       </c>
       <c r="CR85" t="n" s="10">
-        <v>72.9</v>
+        <v>72.8</v>
       </c>
       <c r="CS85" t="n" s="10">
         <v>73.3</v>
@@ -33152,7 +33152,7 @@
         <v>81.6</v>
       </c>
       <c r="DJ85" t="n" s="10">
-        <v>81.9</v>
+        <v>82.0</v>
       </c>
       <c r="DK85" t="n" s="10">
         <v>82.1</v>
@@ -33182,7 +33182,7 @@
         <v>82.7</v>
       </c>
       <c r="DT85" t="n" s="10">
-        <v>82.7</v>
+        <v>82.8</v>
       </c>
       <c r="DU85" t="n" s="10">
         <v>82.8</v>
@@ -33200,7 +33200,7 @@
         <v>83.0</v>
       </c>
       <c r="DZ85" t="n" s="10">
-        <v>83.3</v>
+        <v>83.4</v>
       </c>
       <c r="EA85" t="n" s="10">
         <v>84.0</v>
@@ -33209,10 +33209,10 @@
         <v>84.8</v>
       </c>
       <c r="EC85" t="n" s="10">
-        <v>85.7</v>
+        <v>85.8</v>
       </c>
       <c r="ED85" t="n" s="10">
-        <v>87.0</v>
+        <v>87.2</v>
       </c>
     </row>
     <row r="86" ht="33.75" customHeight="true">
@@ -33923,7 +33923,7 @@
         <v>81.6</v>
       </c>
       <c r="CW88" t="n" s="10">
-        <v>97.7</v>
+        <v>97.8</v>
       </c>
       <c r="CX88" t="n" s="10">
         <v>94.1</v>
@@ -33935,7 +33935,7 @@
         <v>92.4</v>
       </c>
       <c r="DA88" t="n" s="10">
-        <v>92.5</v>
+        <v>92.4</v>
       </c>
       <c r="DB88" t="n" s="10">
         <v>87.5</v>
@@ -33965,7 +33965,7 @@
         <v>93.3</v>
       </c>
       <c r="DK88" t="n" s="10">
-        <v>92.8</v>
+        <v>92.9</v>
       </c>
       <c r="DL88" t="n" s="10">
         <v>91.6</v>
@@ -33974,7 +33974,7 @@
         <v>92.5</v>
       </c>
       <c r="DN88" t="n" s="10">
-        <v>88.0</v>
+        <v>88.1</v>
       </c>
       <c r="DO88" t="n" s="10">
         <v>90.5</v>
@@ -34249,7 +34249,7 @@
         <v>86.4</v>
       </c>
       <c r="BX89" t="n" s="10">
-        <v>85.8</v>
+        <v>85.7</v>
       </c>
       <c r="BY89" t="n" s="10">
         <v>87.4</v>
@@ -34264,16 +34264,16 @@
         <v>90.2</v>
       </c>
       <c r="CC89" t="n" s="10">
-        <v>90.5</v>
+        <v>90.7</v>
       </c>
       <c r="CD89" t="n" s="10">
         <v>90.3</v>
       </c>
       <c r="CE89" t="n" s="10">
-        <v>90.3</v>
+        <v>90.4</v>
       </c>
       <c r="CF89" t="n" s="10">
-        <v>90.7</v>
+        <v>90.9</v>
       </c>
       <c r="CG89" t="n" s="10">
         <v>90.7</v>
@@ -34285,7 +34285,7 @@
         <v>91.2</v>
       </c>
       <c r="CJ89" t="n" s="10">
-        <v>92.3</v>
+        <v>92.1</v>
       </c>
       <c r="CK89" t="n" s="10">
         <v>90.5</v>
@@ -34309,7 +34309,7 @@
         <v>91.7</v>
       </c>
       <c r="CR89" t="n" s="10">
-        <v>92.7</v>
+        <v>92.9</v>
       </c>
       <c r="CS89" t="n" s="10">
         <v>92.2</v>
@@ -34321,7 +34321,7 @@
         <v>91.7</v>
       </c>
       <c r="CV89" t="n" s="10">
-        <v>91.8</v>
+        <v>91.6</v>
       </c>
       <c r="CW89" t="n" s="10">
         <v>93.3</v>
@@ -34345,7 +34345,7 @@
         <v>92.7</v>
       </c>
       <c r="DD89" t="n" s="10">
-        <v>91.2</v>
+        <v>91.5</v>
       </c>
       <c r="DE89" t="n" s="10">
         <v>90.9</v>
@@ -34357,7 +34357,7 @@
         <v>90.9</v>
       </c>
       <c r="DH89" t="n" s="10">
-        <v>90.3</v>
+        <v>90.1</v>
       </c>
       <c r="DI89" t="n" s="10">
         <v>90.9</v>
@@ -34381,19 +34381,19 @@
         <v>92.4</v>
       </c>
       <c r="DP89" t="n" s="10">
-        <v>92.3</v>
+        <v>92.4</v>
       </c>
       <c r="DQ89" t="n" s="10">
         <v>93.1</v>
       </c>
       <c r="DR89" t="n" s="10">
-        <v>91.9</v>
+        <v>92.0</v>
       </c>
       <c r="DS89" t="n" s="10">
         <v>93.1</v>
       </c>
       <c r="DT89" t="n" s="10">
-        <v>93.0</v>
+        <v>92.9</v>
       </c>
       <c r="DU89" t="n" s="10">
         <v>93.9</v>
@@ -34417,7 +34417,7 @@
         <v>93.2</v>
       </c>
       <c r="EB89" t="n" s="10">
-        <v>94.0</v>
+        <v>94.1</v>
       </c>
       <c r="EC89" t="n" s="10">
         <v>93.6</v>
@@ -34518,7 +34518,7 @@
         <v>95.6</v>
       </c>
       <c r="AF90" t="n" s="10">
-        <v>95.3</v>
+        <v>95.2</v>
       </c>
       <c r="AG90" t="n" s="10">
         <v>95.2</v>
@@ -34536,7 +34536,7 @@
         <v>96.7</v>
       </c>
       <c r="AL90" t="n" s="10">
-        <v>103.6</v>
+        <v>103.5</v>
       </c>
       <c r="AM90" t="n" s="10">
         <v>92.3</v>
@@ -34695,7 +34695,7 @@
         <v>92.8</v>
       </c>
       <c r="CM90" t="n" s="10">
-        <v>90.9</v>
+        <v>91.0</v>
       </c>
       <c r="CN90" t="n" s="10">
         <v>90.4</v>
@@ -35126,7 +35126,7 @@
         <v>92.2</v>
       </c>
       <c r="CW91" t="n" s="10">
-        <v>92.2</v>
+        <v>92.3</v>
       </c>
       <c r="CX91" t="n" s="10">
         <v>92.2</v>
@@ -35931,7 +35931,7 @@
         <v>80.1</v>
       </c>
       <c r="CW93" t="n" s="10">
-        <v>96.3</v>
+        <v>96.4</v>
       </c>
       <c r="CX93" t="n" s="10">
         <v>93.0</v>
@@ -35943,7 +35943,7 @@
         <v>90.9</v>
       </c>
       <c r="DA93" t="n" s="10">
-        <v>90.8</v>
+        <v>90.7</v>
       </c>
       <c r="DB93" t="n" s="10">
         <v>86.1</v>
@@ -35973,7 +35973,7 @@
         <v>93.1</v>
       </c>
       <c r="DK93" t="n" s="10">
-        <v>92.7</v>
+        <v>92.8</v>
       </c>
       <c r="DL93" t="n" s="10">
         <v>91.3</v>
@@ -35982,7 +35982,7 @@
         <v>91.8</v>
       </c>
       <c r="DN93" t="n" s="10">
-        <v>87.4</v>
+        <v>87.5</v>
       </c>
       <c r="DO93" t="n" s="10">
         <v>90.1</v>
@@ -36257,7 +36257,7 @@
         <v>82.3</v>
       </c>
       <c r="BX94" t="n" s="10">
-        <v>81.6</v>
+        <v>81.5</v>
       </c>
       <c r="BY94" t="n" s="10">
         <v>83.4</v>
@@ -36272,16 +36272,16 @@
         <v>86.0</v>
       </c>
       <c r="CC94" t="n" s="10">
-        <v>86.4</v>
+        <v>86.5</v>
       </c>
       <c r="CD94" t="n" s="10">
         <v>86.2</v>
       </c>
       <c r="CE94" t="n" s="10">
-        <v>86.3</v>
+        <v>86.4</v>
       </c>
       <c r="CF94" t="n" s="10">
-        <v>86.8</v>
+        <v>87.0</v>
       </c>
       <c r="CG94" t="n" s="10">
         <v>87.2</v>
@@ -36293,7 +36293,7 @@
         <v>87.8</v>
       </c>
       <c r="CJ94" t="n" s="10">
-        <v>89.0</v>
+        <v>88.8</v>
       </c>
       <c r="CK94" t="n" s="10">
         <v>87.5</v>
@@ -36317,7 +36317,7 @@
         <v>89.4</v>
       </c>
       <c r="CR94" t="n" s="10">
-        <v>90.5</v>
+        <v>90.7</v>
       </c>
       <c r="CS94" t="n" s="10">
         <v>90.1</v>
@@ -36329,7 +36329,7 @@
         <v>89.8</v>
       </c>
       <c r="CV94" t="n" s="10">
-        <v>90.2</v>
+        <v>90.0</v>
       </c>
       <c r="CW94" t="n" s="10">
         <v>91.7</v>
@@ -36353,7 +36353,7 @@
         <v>91.6</v>
       </c>
       <c r="DD94" t="n" s="10">
-        <v>90.4</v>
+        <v>90.6</v>
       </c>
       <c r="DE94" t="n" s="10">
         <v>90.1</v>
@@ -36365,7 +36365,7 @@
         <v>90.0</v>
       </c>
       <c r="DH94" t="n" s="10">
-        <v>89.5</v>
+        <v>89.3</v>
       </c>
       <c r="DI94" t="n" s="10">
         <v>90.2</v>
@@ -36389,19 +36389,19 @@
         <v>91.9</v>
       </c>
       <c r="DP94" t="n" s="10">
-        <v>91.9</v>
+        <v>92.0</v>
       </c>
       <c r="DQ94" t="n" s="10">
         <v>92.7</v>
       </c>
       <c r="DR94" t="n" s="10">
-        <v>91.6</v>
+        <v>91.7</v>
       </c>
       <c r="DS94" t="n" s="10">
         <v>92.9</v>
       </c>
       <c r="DT94" t="n" s="10">
-        <v>92.8</v>
+        <v>92.7</v>
       </c>
       <c r="DU94" t="n" s="10">
         <v>93.6</v>
@@ -36425,7 +36425,7 @@
         <v>93.2</v>
       </c>
       <c r="EB94" t="n" s="10">
-        <v>93.6</v>
+        <v>93.7</v>
       </c>
       <c r="EC94" t="n" s="10">
         <v>93.1</v>
@@ -36454,7 +36454,7 @@
         <v>84.6</v>
       </c>
       <c r="H95" t="n" s="10">
-        <v>85.8</v>
+        <v>85.7</v>
       </c>
       <c r="I95" t="n" s="10">
         <v>86.1</v>
@@ -36469,7 +36469,7 @@
         <v>85.8</v>
       </c>
       <c r="M95" t="n" s="10">
-        <v>86.2</v>
+        <v>86.1</v>
       </c>
       <c r="N95" t="n" s="10">
         <v>85.8</v>
@@ -36487,10 +36487,10 @@
         <v>86.3</v>
       </c>
       <c r="S95" t="n" s="10">
-        <v>87.3</v>
+        <v>87.4</v>
       </c>
       <c r="T95" t="n" s="10">
-        <v>87.2</v>
+        <v>87.1</v>
       </c>
       <c r="U95" t="n" s="10">
         <v>87.2</v>
@@ -36526,7 +36526,7 @@
         <v>89.7</v>
       </c>
       <c r="AF95" t="n" s="10">
-        <v>89.3</v>
+        <v>89.4</v>
       </c>
       <c r="AG95" t="n" s="10">
         <v>89.3</v>
@@ -36562,7 +36562,7 @@
         <v>86.7</v>
       </c>
       <c r="AR95" t="n" s="10">
-        <v>88.6</v>
+        <v>88.7</v>
       </c>
       <c r="AS95" t="n" s="10">
         <v>87.6</v>
@@ -36571,7 +36571,7 @@
         <v>87.8</v>
       </c>
       <c r="AU95" t="n" s="10">
-        <v>87.4</v>
+        <v>87.5</v>
       </c>
       <c r="AV95" t="n" s="10">
         <v>88.1</v>
@@ -36592,7 +36592,7 @@
         <v>87.7</v>
       </c>
       <c r="BB95" t="n" s="10">
-        <v>86.4</v>
+        <v>86.3</v>
       </c>
       <c r="BC95" t="n" s="10">
         <v>88.4</v>
@@ -36613,7 +36613,7 @@
         <v>86.2</v>
       </c>
       <c r="BI95" t="n" s="10">
-        <v>86.3</v>
+        <v>86.4</v>
       </c>
       <c r="BJ95" t="n" s="10">
         <v>85.8</v>
@@ -36625,7 +36625,7 @@
         <v>86.4</v>
       </c>
       <c r="BM95" t="n" s="10">
-        <v>85.7</v>
+        <v>85.6</v>
       </c>
       <c r="BN95" t="n" s="10">
         <v>87.6</v>
@@ -36658,7 +36658,7 @@
         <v>83.6</v>
       </c>
       <c r="BX95" t="n" s="10">
-        <v>82.4</v>
+        <v>82.3</v>
       </c>
       <c r="BY95" t="n" s="10">
         <v>84.7</v>
@@ -36667,7 +36667,7 @@
         <v>82.6</v>
       </c>
       <c r="CA95" t="n" s="10">
-        <v>84.1</v>
+        <v>84.2</v>
       </c>
       <c r="CB95" t="n" s="10">
         <v>85.6</v>
@@ -36703,7 +36703,7 @@
         <v>89.6</v>
       </c>
       <c r="CM95" t="n" s="10">
-        <v>88.2</v>
+        <v>88.1</v>
       </c>
       <c r="CN95" t="n" s="10">
         <v>87.6</v>
@@ -36760,7 +36760,7 @@
         <v>90.3</v>
       </c>
       <c r="DF95" t="n" s="10">
-        <v>91.2</v>
+        <v>91.3</v>
       </c>
       <c r="DG95" t="n" s="10">
         <v>90.5</v>
@@ -36790,7 +36790,7 @@
         <v>91.4</v>
       </c>
       <c r="DP95" t="n" s="10">
-        <v>92.0</v>
+        <v>92.1</v>
       </c>
       <c r="DQ95" t="n" s="10">
         <v>93.1</v>
@@ -36805,7 +36805,7 @@
         <v>92.9</v>
       </c>
       <c r="DU95" t="n" s="10">
-        <v>91.4</v>
+        <v>91.5</v>
       </c>
       <c r="DV95" t="n" s="10">
         <v>93.2</v>
@@ -36829,7 +36829,7 @@
         <v>93.9</v>
       </c>
       <c r="EC95" t="n" s="10">
-        <v>93.8</v>
+        <v>93.9</v>
       </c>
       <c r="ED95" t="n" s="10">
         <v>95.1</v>
@@ -36891,10 +36891,10 @@
         <v>87.0</v>
       </c>
       <c r="T96" t="n" s="10">
+        <v>87.1</v>
+      </c>
+      <c r="U96" t="n" s="10">
         <v>87.2</v>
-      </c>
-      <c r="U96" t="n" s="10">
-        <v>87.3</v>
       </c>
       <c r="V96" t="n" s="10">
         <v>87.4</v>
@@ -38488,7 +38488,7 @@
         <v>105.1</v>
       </c>
       <c r="O101" t="n" s="10">
-        <v>104.7</v>
+        <v>104.6</v>
       </c>
       <c r="P101" t="n" s="10">
         <v>105.9</v>
@@ -38509,7 +38509,7 @@
         <v>104.8</v>
       </c>
       <c r="V101" t="n" s="10">
-        <v>106.6</v>
+        <v>106.7</v>
       </c>
       <c r="W101" t="n" s="10">
         <v>107.0</v>
@@ -38524,7 +38524,7 @@
         <v>106.3</v>
       </c>
       <c r="AA101" t="n" s="10">
-        <v>105.4</v>
+        <v>105.5</v>
       </c>
       <c r="AB101" t="n" s="10">
         <v>105.5</v>
@@ -38557,13 +38557,13 @@
         <v>102.5</v>
       </c>
       <c r="AL101" t="n" s="10">
-        <v>104.5</v>
+        <v>104.4</v>
       </c>
       <c r="AM101" t="n" s="10">
         <v>103.5</v>
       </c>
       <c r="AN101" t="n" s="10">
-        <v>102.3</v>
+        <v>102.2</v>
       </c>
       <c r="AO101" t="n" s="10">
         <v>104.7</v>
@@ -38584,10 +38584,10 @@
         <v>101.6</v>
       </c>
       <c r="AU101" t="n" s="10">
-        <v>99.4</v>
+        <v>99.3</v>
       </c>
       <c r="AV101" t="n" s="10">
-        <v>101.0</v>
+        <v>101.1</v>
       </c>
       <c r="AW101" t="n" s="10">
         <v>100.6</v>
@@ -38605,7 +38605,7 @@
         <v>98.5</v>
       </c>
       <c r="BB101" t="n" s="10">
-        <v>96.6</v>
+        <v>96.7</v>
       </c>
       <c r="BC101" t="n" s="10">
         <v>99.1</v>
@@ -38638,7 +38638,7 @@
         <v>94.9</v>
       </c>
       <c r="BM101" t="n" s="10">
-        <v>93.6</v>
+        <v>93.7</v>
       </c>
       <c r="BN101" t="n" s="10">
         <v>98.9</v>
@@ -38668,7 +38668,7 @@
         <v>96.4</v>
       </c>
       <c r="BW101" t="n" s="10">
-        <v>95.7</v>
+        <v>95.6</v>
       </c>
       <c r="BX101" t="n" s="10">
         <v>95.8</v>
@@ -38701,7 +38701,7 @@
         <v>96.0</v>
       </c>
       <c r="CH101" t="n" s="10">
-        <v>95.4</v>
+        <v>95.5</v>
       </c>
       <c r="CI101" t="n" s="10">
         <v>95.3</v>
@@ -38728,7 +38728,7 @@
         <v>95.8</v>
       </c>
       <c r="CQ101" t="n" s="10">
-        <v>96.9</v>
+        <v>97.0</v>
       </c>
       <c r="CR101" t="n" s="10">
         <v>95.4</v>
@@ -38740,7 +38740,7 @@
         <v>96.2</v>
       </c>
       <c r="CU101" t="n" s="10">
-        <v>95.4</v>
+        <v>95.5</v>
       </c>
       <c r="CV101" t="n" s="10">
         <v>97.0</v>
@@ -38761,7 +38761,7 @@
         <v>94.3</v>
       </c>
       <c r="DB101" t="n" s="10">
-        <v>96.7</v>
+        <v>96.8</v>
       </c>
       <c r="DC101" t="n" s="10">
         <v>96.4</v>
@@ -38773,7 +38773,7 @@
         <v>96.5</v>
       </c>
       <c r="DF101" t="n" s="10">
-        <v>96.7</v>
+        <v>96.6</v>
       </c>
       <c r="DG101" t="n" s="10">
         <v>97.1</v>
@@ -38821,10 +38821,10 @@
         <v>95.8</v>
       </c>
       <c r="DV101" t="n" s="10">
-        <v>100.2</v>
+        <v>100.1</v>
       </c>
       <c r="DW101" t="n" s="10">
-        <v>97.9</v>
+        <v>98.0</v>
       </c>
       <c r="DX101" t="n" s="10">
         <v>98.0</v>
@@ -38842,7 +38842,7 @@
         <v>98.6</v>
       </c>
       <c r="EC101" t="n" s="10">
-        <v>97.5</v>
+        <v>97.4</v>
       </c>
       <c r="ED101" t="n" s="10">
         <v>99.0</v>
@@ -38877,7 +38877,7 @@
         <v>104.0</v>
       </c>
       <c r="K102" t="n" s="10">
-        <v>104.2</v>
+        <v>104.3</v>
       </c>
       <c r="L102" t="n" s="10">
         <v>104.5</v>
@@ -38895,7 +38895,7 @@
         <v>105.7</v>
       </c>
       <c r="Q102" t="n" s="10">
-        <v>105.9</v>
+        <v>106.0</v>
       </c>
       <c r="R102" t="n" s="10">
         <v>106.1</v>
@@ -38976,7 +38976,7 @@
         <v>101.9</v>
       </c>
       <c r="AR102" t="n" s="10">
-        <v>101.7</v>
+        <v>101.6</v>
       </c>
       <c r="AS102" t="n" s="10">
         <v>101.3</v>
@@ -39102,7 +39102,7 @@
         <v>95.5</v>
       </c>
       <c r="CH102" t="n" s="10">
-        <v>95.5</v>
+        <v>95.6</v>
       </c>
       <c r="CI102" t="n" s="10">
         <v>95.6</v>
@@ -40466,13 +40466,13 @@
         <v>84.5</v>
       </c>
       <c r="E106" t="n" s="10">
-        <v>84.4</v>
+        <v>84.5</v>
       </c>
       <c r="F106" t="n" s="10">
-        <v>86.3</v>
+        <v>86.2</v>
       </c>
       <c r="G106" t="n" s="10">
-        <v>82.9</v>
+        <v>82.8</v>
       </c>
       <c r="H106" t="n" s="10">
         <v>85.1</v>
@@ -40493,7 +40493,7 @@
         <v>86.7</v>
       </c>
       <c r="N106" t="n" s="10">
-        <v>86.9</v>
+        <v>87.0</v>
       </c>
       <c r="O106" t="n" s="10">
         <v>86.4</v>
@@ -40502,16 +40502,16 @@
         <v>87.6</v>
       </c>
       <c r="Q106" t="n" s="10">
-        <v>89.1</v>
+        <v>89.0</v>
       </c>
       <c r="R106" t="n" s="10">
-        <v>86.8</v>
+        <v>86.9</v>
       </c>
       <c r="S106" t="n" s="10">
-        <v>88.5</v>
+        <v>88.4</v>
       </c>
       <c r="T106" t="n" s="10">
-        <v>88.1</v>
+        <v>88.2</v>
       </c>
       <c r="U106" t="n" s="10">
         <v>86.5</v>
@@ -40520,7 +40520,7 @@
         <v>88.0</v>
       </c>
       <c r="W106" t="n" s="10">
-        <v>88.4</v>
+        <v>88.5</v>
       </c>
       <c r="X106" t="n" s="10">
         <v>88.3</v>
@@ -40532,19 +40532,19 @@
         <v>88.1</v>
       </c>
       <c r="AA106" t="n" s="10">
-        <v>87.7</v>
+        <v>87.8</v>
       </c>
       <c r="AB106" t="n" s="10">
         <v>88.0</v>
       </c>
       <c r="AC106" t="n" s="10">
-        <v>86.5</v>
+        <v>86.6</v>
       </c>
       <c r="AD106" t="n" s="10">
-        <v>88.3</v>
+        <v>88.2</v>
       </c>
       <c r="AE106" t="n" s="10">
-        <v>88.3</v>
+        <v>88.4</v>
       </c>
       <c r="AF106" t="n" s="10">
         <v>89.0</v>
@@ -40565,7 +40565,7 @@
         <v>87.2</v>
       </c>
       <c r="AL106" t="n" s="10">
-        <v>89.0</v>
+        <v>88.9</v>
       </c>
       <c r="AM106" t="n" s="10">
         <v>88.1</v>
@@ -40574,7 +40574,7 @@
         <v>87.1</v>
       </c>
       <c r="AO106" t="n" s="10">
-        <v>89.3</v>
+        <v>89.4</v>
       </c>
       <c r="AP106" t="n" s="10">
         <v>87.8</v>
@@ -40586,40 +40586,40 @@
         <v>88.1</v>
       </c>
       <c r="AS106" t="n" s="10">
-        <v>86.4</v>
+        <v>86.3</v>
       </c>
       <c r="AT106" t="n" s="10">
         <v>88.0</v>
       </c>
       <c r="AU106" t="n" s="10">
-        <v>86.4</v>
+        <v>86.3</v>
       </c>
       <c r="AV106" t="n" s="10">
         <v>88.5</v>
       </c>
       <c r="AW106" t="n" s="10">
-        <v>88.8</v>
+        <v>88.9</v>
       </c>
       <c r="AX106" t="n" s="10">
-        <v>86.2</v>
+        <v>86.1</v>
       </c>
       <c r="AY106" t="n" s="10">
         <v>88.1</v>
       </c>
       <c r="AZ106" t="n" s="10">
-        <v>90.1</v>
+        <v>90.2</v>
       </c>
       <c r="BA106" t="n" s="10">
-        <v>88.5</v>
+        <v>88.3</v>
       </c>
       <c r="BB106" t="n" s="10">
-        <v>86.9</v>
+        <v>87.0</v>
       </c>
       <c r="BC106" t="n" s="10">
         <v>89.6</v>
       </c>
       <c r="BD106" t="n" s="10">
-        <v>87.3</v>
+        <v>87.4</v>
       </c>
       <c r="BE106" t="n" s="10">
         <v>88.5</v>
@@ -40634,7 +40634,7 @@
         <v>88.8</v>
       </c>
       <c r="BI106" t="n" s="10">
-        <v>88.1</v>
+        <v>88.0</v>
       </c>
       <c r="BJ106" t="n" s="10">
         <v>88.3</v>
@@ -40655,7 +40655,7 @@
         <v>86.9</v>
       </c>
       <c r="BP106" t="n" s="10">
-        <v>86.3</v>
+        <v>86.2</v>
       </c>
       <c r="BQ106" t="n" s="10">
         <v>86.0</v>
@@ -40667,7 +40667,7 @@
         <v>86.0</v>
       </c>
       <c r="BT106" t="n" s="10">
-        <v>86.4</v>
+        <v>86.5</v>
       </c>
       <c r="BU106" t="n" s="10">
         <v>85.2</v>
@@ -40682,16 +40682,16 @@
         <v>86.8</v>
       </c>
       <c r="BY106" t="n" s="10">
-        <v>89.2</v>
+        <v>89.3</v>
       </c>
       <c r="BZ106" t="n" s="10">
         <v>84.5</v>
       </c>
       <c r="CA106" t="n" s="10">
-        <v>86.2</v>
+        <v>86.1</v>
       </c>
       <c r="CB106" t="n" s="10">
-        <v>87.4</v>
+        <v>87.5</v>
       </c>
       <c r="CC106" t="n" s="10">
         <v>89.0</v>
@@ -40706,10 +40706,10 @@
         <v>87.6</v>
       </c>
       <c r="CG106" t="n" s="10">
-        <v>88.3</v>
+        <v>88.4</v>
       </c>
       <c r="CH106" t="n" s="10">
-        <v>88.1</v>
+        <v>88.2</v>
       </c>
       <c r="CI106" t="n" s="10">
         <v>87.7</v>
@@ -40724,22 +40724,22 @@
         <v>91.9</v>
       </c>
       <c r="CM106" t="n" s="10">
-        <v>88.9</v>
+        <v>89.0</v>
       </c>
       <c r="CN106" t="n" s="10">
         <v>88.8</v>
       </c>
       <c r="CO106" t="n" s="10">
-        <v>89.5</v>
+        <v>89.4</v>
       </c>
       <c r="CP106" t="n" s="10">
         <v>89.8</v>
       </c>
       <c r="CQ106" t="n" s="10">
-        <v>91.1</v>
+        <v>91.2</v>
       </c>
       <c r="CR106" t="n" s="10">
-        <v>89.9</v>
+        <v>89.8</v>
       </c>
       <c r="CS106" t="n" s="10">
         <v>90.0</v>
@@ -40751,7 +40751,7 @@
         <v>90.5</v>
       </c>
       <c r="CV106" t="n" s="10">
-        <v>92.2</v>
+        <v>92.3</v>
       </c>
       <c r="CW106" t="n" s="10">
         <v>92.0</v>
@@ -40772,7 +40772,7 @@
         <v>92.9</v>
       </c>
       <c r="DC106" t="n" s="10">
-        <v>92.8</v>
+        <v>92.7</v>
       </c>
       <c r="DD106" t="n" s="10">
         <v>93.2</v>
@@ -40781,25 +40781,25 @@
         <v>93.5</v>
       </c>
       <c r="DF106" t="n" s="10">
-        <v>93.8</v>
+        <v>93.7</v>
       </c>
       <c r="DG106" t="n" s="10">
         <v>94.3</v>
       </c>
       <c r="DH106" t="n" s="10">
-        <v>93.7</v>
+        <v>93.6</v>
       </c>
       <c r="DI106" t="n" s="10">
         <v>96.3</v>
       </c>
       <c r="DJ106" t="n" s="10">
-        <v>92.3</v>
+        <v>92.4</v>
       </c>
       <c r="DK106" t="n" s="10">
-        <v>95.5</v>
+        <v>95.4</v>
       </c>
       <c r="DL106" t="n" s="10">
-        <v>94.6</v>
+        <v>94.7</v>
       </c>
       <c r="DM106" t="n" s="10">
         <v>96.9</v>
@@ -40814,7 +40814,7 @@
         <v>95.9</v>
       </c>
       <c r="DQ106" t="n" s="10">
-        <v>97.9</v>
+        <v>97.8</v>
       </c>
       <c r="DR106" t="n" s="10">
         <v>95.6</v>
@@ -40829,16 +40829,16 @@
         <v>95.3</v>
       </c>
       <c r="DV106" t="n" s="10">
-        <v>99.4</v>
+        <v>99.3</v>
       </c>
       <c r="DW106" t="n" s="10">
-        <v>97.3</v>
+        <v>97.4</v>
       </c>
       <c r="DX106" t="n" s="10">
-        <v>97.2</v>
+        <v>97.1</v>
       </c>
       <c r="DY106" t="n" s="10">
-        <v>96.7</v>
+        <v>96.6</v>
       </c>
       <c r="DZ106" t="n" s="10">
         <v>96.2</v>
@@ -40861,7 +40861,7 @@
         <v>36</v>
       </c>
       <c r="C107" t="n" s="10">
-        <v>84.5</v>
+        <v>84.4</v>
       </c>
       <c r="D107" t="n" s="10">
         <v>84.6</v>
@@ -40903,7 +40903,7 @@
         <v>87.3</v>
       </c>
       <c r="Q107" t="n" s="10">
-        <v>87.5</v>
+        <v>87.6</v>
       </c>
       <c r="R107" t="n" s="10">
         <v>87.7</v>
@@ -40930,7 +40930,7 @@
         <v>88.0</v>
       </c>
       <c r="Z107" t="n" s="10">
-        <v>88.0</v>
+        <v>88.1</v>
       </c>
       <c r="AA107" t="n" s="10">
         <v>88.1</v>
@@ -40987,7 +40987,7 @@
         <v>87.6</v>
       </c>
       <c r="AS107" t="n" s="10">
-        <v>87.7</v>
+        <v>87.6</v>
       </c>
       <c r="AT107" t="n" s="10">
         <v>87.7</v>
@@ -41035,10 +41035,10 @@
         <v>88.2</v>
       </c>
       <c r="BI107" t="n" s="10">
-        <v>88.0</v>
+        <v>87.9</v>
       </c>
       <c r="BJ107" t="n" s="10">
-        <v>87.8</v>
+        <v>87.7</v>
       </c>
       <c r="BK107" t="n" s="10">
         <v>87.5</v>
@@ -41047,13 +41047,13 @@
         <v>87.2</v>
       </c>
       <c r="BM107" t="n" s="10">
-        <v>87.1</v>
+        <v>87.0</v>
       </c>
       <c r="BN107" t="n" s="10">
         <v>86.9</v>
       </c>
       <c r="BO107" t="n" s="10">
-        <v>86.8</v>
+        <v>86.7</v>
       </c>
       <c r="BP107" t="n" s="10">
         <v>86.5</v>
@@ -41095,10 +41095,10 @@
         <v>87.0</v>
       </c>
       <c r="CC107" t="n" s="10">
-        <v>87.1</v>
+        <v>87.2</v>
       </c>
       <c r="CD107" t="n" s="10">
-        <v>87.2</v>
+        <v>87.3</v>
       </c>
       <c r="CE107" t="n" s="10">
         <v>87.4</v>
@@ -41125,7 +41125,7 @@
         <v>88.9</v>
       </c>
       <c r="CM107" t="n" s="10">
-        <v>89.1</v>
+        <v>89.2</v>
       </c>
       <c r="CN107" t="n" s="10">
         <v>89.4</v>
@@ -41143,10 +41143,10 @@
         <v>90.3</v>
       </c>
       <c r="CS107" t="n" s="10">
-        <v>90.5</v>
+        <v>90.6</v>
       </c>
       <c r="CT107" t="n" s="10">
-        <v>90.7</v>
+        <v>90.8</v>
       </c>
       <c r="CU107" t="n" s="10">
         <v>91.0</v>
@@ -41170,7 +41170,7 @@
         <v>92.3</v>
       </c>
       <c r="DB107" t="n" s="10">
-        <v>92.6</v>
+        <v>92.5</v>
       </c>
       <c r="DC107" t="n" s="10">
         <v>92.8</v>
@@ -41182,7 +41182,7 @@
         <v>93.4</v>
       </c>
       <c r="DF107" t="n" s="10">
-        <v>93.7</v>
+        <v>93.6</v>
       </c>
       <c r="DG107" t="n" s="10">
         <v>93.9</v>
@@ -41191,7 +41191,7 @@
         <v>94.3</v>
       </c>
       <c r="DI107" t="n" s="10">
-        <v>94.6</v>
+        <v>94.5</v>
       </c>
       <c r="DJ107" t="n" s="10">
         <v>94.8</v>
@@ -41209,7 +41209,7 @@
         <v>95.8</v>
       </c>
       <c r="DO107" t="n" s="10">
-        <v>96.0</v>
+        <v>95.9</v>
       </c>
       <c r="DP107" t="n" s="10">
         <v>96.2</v>
@@ -41227,7 +41227,7 @@
         <v>96.7</v>
       </c>
       <c r="DU107" t="n" s="10">
-        <v>96.9</v>
+        <v>96.8</v>
       </c>
       <c r="DV107" t="n" s="10">
         <v>97.0</v>
@@ -41236,7 +41236,7 @@
         <v>97.1</v>
       </c>
       <c r="DX107" t="n" s="10">
-        <v>97.2</v>
+        <v>97.1</v>
       </c>
       <c r="DY107" t="n" s="10">
         <v>97.3</v>
@@ -41899,7 +41899,7 @@
         <v>101.9</v>
       </c>
       <c r="CA110" t="n" s="10">
-        <v>94.9</v>
+        <v>95.0</v>
       </c>
       <c r="CB110" t="n" s="10">
         <v>96.7</v>
@@ -41914,7 +41914,7 @@
         <v>110.8</v>
       </c>
       <c r="CF110" t="n" s="10">
-        <v>116.8</v>
+        <v>117.5</v>
       </c>
       <c r="CG110" t="n" s="10">
         <v>104.7</v>
@@ -41935,10 +41935,10 @@
         <v>110.3</v>
       </c>
       <c r="CM110" t="n" s="10">
-        <v>96.4</v>
+        <v>96.3</v>
       </c>
       <c r="CN110" t="n" s="10">
-        <v>96.8</v>
+        <v>96.9</v>
       </c>
       <c r="CO110" t="n" s="10">
         <v>107.2</v>
@@ -41950,7 +41950,7 @@
         <v>101.1</v>
       </c>
       <c r="CR110" t="n" s="10">
-        <v>118.6</v>
+        <v>118.5</v>
       </c>
       <c r="CS110" t="n" s="10">
         <v>102.7</v>
@@ -41986,7 +41986,7 @@
         <v>108.0</v>
       </c>
       <c r="DD110" t="n" s="10">
-        <v>112.3</v>
+        <v>112.2</v>
       </c>
       <c r="DE110" t="n" s="10">
         <v>98.8</v>
@@ -42007,10 +42007,10 @@
         <v>102.9</v>
       </c>
       <c r="DK110" t="n" s="10">
-        <v>98.9</v>
+        <v>99.0</v>
       </c>
       <c r="DL110" t="n" s="10">
-        <v>97.4</v>
+        <v>97.3</v>
       </c>
       <c r="DM110" t="n" s="10">
         <v>104.4</v>
@@ -42022,7 +42022,7 @@
         <v>108.3</v>
       </c>
       <c r="DP110" t="n" s="10">
-        <v>109.7</v>
+        <v>109.6</v>
       </c>
       <c r="DQ110" t="n" s="10">
         <v>104.3</v>
@@ -42040,13 +42040,13 @@
         <v>102.1</v>
       </c>
       <c r="DV110" t="n" s="10">
-        <v>98.5</v>
+        <v>98.6</v>
       </c>
       <c r="DW110" t="n" s="10">
         <v>101.4</v>
       </c>
       <c r="DX110" t="n" s="10">
-        <v>98.7</v>
+        <v>98.8</v>
       </c>
       <c r="DY110" t="n" s="10">
         <v>104.1</v>
@@ -42058,7 +42058,7 @@
         <v>100.4</v>
       </c>
       <c r="EB110" t="n" s="10">
-        <v>106.7</v>
+        <v>106.6</v>
       </c>
       <c r="EC110" t="n" s="10">
         <v>100.6</v>
@@ -42288,13 +42288,13 @@
         <v>98.8</v>
       </c>
       <c r="BW111" t="n" s="10">
-        <v>97.3</v>
+        <v>97.4</v>
       </c>
       <c r="BX111" t="n" s="10">
         <v>100.2</v>
       </c>
       <c r="BY111" t="n" s="10">
-        <v>103.2</v>
+        <v>103.1</v>
       </c>
       <c r="BZ111" t="n" s="10">
         <v>96.7</v>
@@ -42315,13 +42315,13 @@
         <v>103.2</v>
       </c>
       <c r="CF111" t="n" s="10">
-        <v>102.7</v>
+        <v>103.3</v>
       </c>
       <c r="CG111" t="n" s="10">
         <v>104.0</v>
       </c>
       <c r="CH111" t="n" s="10">
-        <v>101.5</v>
+        <v>101.6</v>
       </c>
       <c r="CI111" t="n" s="10">
         <v>101.8</v>
@@ -42336,10 +42336,10 @@
         <v>106.2</v>
       </c>
       <c r="CM111" t="n" s="10">
-        <v>99.4</v>
+        <v>99.3</v>
       </c>
       <c r="CN111" t="n" s="10">
-        <v>101.5</v>
+        <v>101.7</v>
       </c>
       <c r="CO111" t="n" s="10">
         <v>102.9</v>
@@ -42351,16 +42351,16 @@
         <v>94.5</v>
       </c>
       <c r="CR111" t="n" s="10">
-        <v>105.0</v>
+        <v>104.7</v>
       </c>
       <c r="CS111" t="n" s="10">
-        <v>102.0</v>
+        <v>101.9</v>
       </c>
       <c r="CT111" t="n" s="10">
         <v>102.3</v>
       </c>
       <c r="CU111" t="n" s="10">
-        <v>102.4</v>
+        <v>102.5</v>
       </c>
       <c r="CV111" t="n" s="10">
         <v>99.2</v>
@@ -42372,22 +42372,22 @@
         <v>98.1</v>
       </c>
       <c r="CY111" t="n" s="10">
-        <v>100.8</v>
+        <v>100.9</v>
       </c>
       <c r="CZ111" t="n" s="10">
-        <v>97.7</v>
+        <v>97.6</v>
       </c>
       <c r="DA111" t="n" s="10">
-        <v>100.1</v>
+        <v>100.0</v>
       </c>
       <c r="DB111" t="n" s="10">
         <v>99.5</v>
       </c>
       <c r="DC111" t="n" s="10">
-        <v>101.8</v>
+        <v>101.7</v>
       </c>
       <c r="DD111" t="n" s="10">
-        <v>100.1</v>
+        <v>100.0</v>
       </c>
       <c r="DE111" t="n" s="10">
         <v>98.2</v>
@@ -42396,43 +42396,43 @@
         <v>98.4</v>
       </c>
       <c r="DG111" t="n" s="10">
-        <v>100.8</v>
+        <v>100.9</v>
       </c>
       <c r="DH111" t="n" s="10">
         <v>98.5</v>
       </c>
       <c r="DI111" t="n" s="10">
-        <v>96.0</v>
+        <v>96.1</v>
       </c>
       <c r="DJ111" t="n" s="10">
         <v>101.0</v>
       </c>
       <c r="DK111" t="n" s="10">
-        <v>100.1</v>
+        <v>100.2</v>
       </c>
       <c r="DL111" t="n" s="10">
-        <v>99.8</v>
+        <v>99.7</v>
       </c>
       <c r="DM111" t="n" s="10">
         <v>99.2</v>
       </c>
       <c r="DN111" t="n" s="10">
-        <v>102.3</v>
+        <v>102.2</v>
       </c>
       <c r="DO111" t="n" s="10">
-        <v>102.6</v>
+        <v>102.5</v>
       </c>
       <c r="DP111" t="n" s="10">
         <v>98.8</v>
       </c>
       <c r="DQ111" t="n" s="10">
-        <v>104.0</v>
+        <v>103.9</v>
       </c>
       <c r="DR111" t="n" s="10">
         <v>96.9</v>
       </c>
       <c r="DS111" t="n" s="10">
-        <v>103.8</v>
+        <v>103.9</v>
       </c>
       <c r="DT111" t="n" s="10">
         <v>103.5</v>
@@ -42444,7 +42444,7 @@
         <v>97.2</v>
       </c>
       <c r="DW111" t="n" s="10">
-        <v>101.6</v>
+        <v>101.5</v>
       </c>
       <c r="DX111" t="n" s="10">
         <v>100.0</v>
@@ -42459,13 +42459,13 @@
         <v>95.5</v>
       </c>
       <c r="EB111" t="n" s="10">
-        <v>97.1</v>
+        <v>97.2</v>
       </c>
       <c r="EC111" t="n" s="10">
         <v>100.5</v>
       </c>
       <c r="ED111" t="n" s="10">
-        <v>98.7</v>
+        <v>98.6</v>
       </c>
     </row>
     <row r="112">
@@ -42479,7 +42479,7 @@
         <v>93.5</v>
       </c>
       <c r="E112" t="n" s="10">
-        <v>91.2</v>
+        <v>91.1</v>
       </c>
       <c r="F112" t="n" s="10">
         <v>93.3</v>
@@ -42500,7 +42500,7 @@
         <v>94.1</v>
       </c>
       <c r="L112" t="n" s="10">
-        <v>93.4</v>
+        <v>93.3</v>
       </c>
       <c r="M112" t="n" s="10">
         <v>95.7</v>
@@ -42524,7 +42524,7 @@
         <v>95.5</v>
       </c>
       <c r="T112" t="n" s="10">
-        <v>96.9</v>
+        <v>96.8</v>
       </c>
       <c r="U112" t="n" s="10">
         <v>96.9</v>
@@ -42596,7 +42596,7 @@
         <v>96.2</v>
       </c>
       <c r="AR112" t="n" s="10">
-        <v>103.2</v>
+        <v>103.3</v>
       </c>
       <c r="AS112" t="n" s="10">
         <v>101.3</v>
@@ -42641,7 +42641,7 @@
         <v>102.8</v>
       </c>
       <c r="BG112" t="n" s="10">
-        <v>103.8</v>
+        <v>103.7</v>
       </c>
       <c r="BH112" t="n" s="10">
         <v>99.7</v>
@@ -42692,7 +42692,7 @@
         <v>98.6</v>
       </c>
       <c r="BX112" t="n" s="10">
-        <v>99.7</v>
+        <v>99.6</v>
       </c>
       <c r="BY112" t="n" s="10">
         <v>104.2</v>
@@ -42704,7 +42704,7 @@
         <v>97.9</v>
       </c>
       <c r="CB112" t="n" s="10">
-        <v>103.4</v>
+        <v>103.3</v>
       </c>
       <c r="CC112" t="n" s="10">
         <v>101.2</v>
@@ -42737,10 +42737,10 @@
         <v>108.1</v>
       </c>
       <c r="CM112" t="n" s="10">
-        <v>103.5</v>
+        <v>103.4</v>
       </c>
       <c r="CN112" t="n" s="10">
-        <v>99.9</v>
+        <v>100.0</v>
       </c>
       <c r="CO112" t="n" s="10">
         <v>102.2</v>
@@ -42749,7 +42749,7 @@
         <v>100.8</v>
       </c>
       <c r="CQ112" t="n" s="10">
-        <v>97.2</v>
+        <v>97.1</v>
       </c>
       <c r="CR112" t="n" s="10">
         <v>101.9</v>
@@ -42764,10 +42764,10 @@
         <v>101.8</v>
       </c>
       <c r="CV112" t="n" s="10">
-        <v>101.5</v>
+        <v>101.4</v>
       </c>
       <c r="CW112" t="n" s="10">
-        <v>106.4</v>
+        <v>106.3</v>
       </c>
       <c r="CX112" t="n" s="10">
         <v>96.9</v>
@@ -42904,10 +42904,10 @@
         <v>94.0</v>
       </c>
       <c r="M113" t="n" s="10">
-        <v>94.4</v>
+        <v>94.3</v>
       </c>
       <c r="N113" t="n" s="10">
-        <v>94.7</v>
+        <v>94.6</v>
       </c>
       <c r="O113" t="n" s="10">
         <v>94.9</v>
@@ -42937,7 +42937,7 @@
         <v>97.5</v>
       </c>
       <c r="X113" t="n" s="10">
-        <v>97.8</v>
+        <v>97.7</v>
       </c>
       <c r="Y113" t="n" s="10">
         <v>98.1</v>
@@ -42976,7 +42976,7 @@
         <v>100.2</v>
       </c>
       <c r="AK113" t="n" s="10">
-        <v>100.5</v>
+        <v>100.6</v>
       </c>
       <c r="AL113" t="n" s="10">
         <v>100.9</v>
@@ -43123,7 +43123,7 @@
         <v>102.8</v>
       </c>
       <c r="CH113" t="n" s="10">
-        <v>102.9</v>
+        <v>102.8</v>
       </c>
       <c r="CI113" t="n" s="10">
         <v>102.8</v>
@@ -43907,7 +43907,7 @@
         <v>97.6</v>
       </c>
       <c r="CA115" t="n" s="10">
-        <v>90.4</v>
+        <v>90.5</v>
       </c>
       <c r="CB115" t="n" s="10">
         <v>90.8</v>
@@ -43922,7 +43922,7 @@
         <v>105.4</v>
       </c>
       <c r="CF115" t="n" s="10">
-        <v>111.7</v>
+        <v>112.4</v>
       </c>
       <c r="CG115" t="n" s="10">
         <v>100.2</v>
@@ -43943,10 +43943,10 @@
         <v>106.5</v>
       </c>
       <c r="CM115" t="n" s="10">
-        <v>92.9</v>
+        <v>92.8</v>
       </c>
       <c r="CN115" t="n" s="10">
-        <v>91.2</v>
+        <v>91.3</v>
       </c>
       <c r="CO115" t="n" s="10">
         <v>97.7</v>
@@ -43958,7 +43958,7 @@
         <v>98.9</v>
       </c>
       <c r="CR115" t="n" s="10">
-        <v>117.1</v>
+        <v>117.0</v>
       </c>
       <c r="CS115" t="n" s="10">
         <v>100.9</v>
@@ -43994,7 +43994,7 @@
         <v>107.1</v>
       </c>
       <c r="DD115" t="n" s="10">
-        <v>113.0</v>
+        <v>112.9</v>
       </c>
       <c r="DE115" t="n" s="10">
         <v>99.0</v>
@@ -44015,10 +44015,10 @@
         <v>103.2</v>
       </c>
       <c r="DK115" t="n" s="10">
-        <v>98.6</v>
+        <v>98.7</v>
       </c>
       <c r="DL115" t="n" s="10">
-        <v>95.8</v>
+        <v>95.7</v>
       </c>
       <c r="DM115" t="n" s="10">
         <v>98.0</v>
@@ -44030,7 +44030,7 @@
         <v>108.6</v>
       </c>
       <c r="DP115" t="n" s="10">
-        <v>112.0</v>
+        <v>111.9</v>
       </c>
       <c r="DQ115" t="n" s="10">
         <v>105.2</v>
@@ -44048,13 +44048,13 @@
         <v>103.5</v>
       </c>
       <c r="DV115" t="n" s="10">
-        <v>100.1</v>
+        <v>100.2</v>
       </c>
       <c r="DW115" t="n" s="10">
         <v>101.8</v>
       </c>
       <c r="DX115" t="n" s="10">
-        <v>96.9</v>
+        <v>97.0</v>
       </c>
       <c r="DY115" t="n" s="10">
         <v>98.7</v>
@@ -44066,7 +44066,7 @@
         <v>102.5</v>
       </c>
       <c r="EB115" t="n" s="10">
-        <v>108.5</v>
+        <v>108.4</v>
       </c>
       <c r="EC115" t="n" s="10">
         <v>102.0</v>
@@ -44296,7 +44296,7 @@
         <v>93.4</v>
       </c>
       <c r="BW116" t="n" s="10">
-        <v>91.5</v>
+        <v>91.6</v>
       </c>
       <c r="BX116" t="n" s="10">
         <v>94.6</v>
@@ -44311,7 +44311,7 @@
         <v>92.4</v>
       </c>
       <c r="CB116" t="n" s="10">
-        <v>96.9</v>
+        <v>96.8</v>
       </c>
       <c r="CC116" t="n" s="10">
         <v>94.9</v>
@@ -44323,13 +44323,13 @@
         <v>96.7</v>
       </c>
       <c r="CF116" t="n" s="10">
-        <v>95.9</v>
+        <v>96.4</v>
       </c>
       <c r="CG116" t="n" s="10">
         <v>97.4</v>
       </c>
       <c r="CH116" t="n" s="10">
-        <v>95.3</v>
+        <v>95.4</v>
       </c>
       <c r="CI116" t="n" s="10">
         <v>95.4</v>
@@ -44344,10 +44344,10 @@
         <v>100.5</v>
       </c>
       <c r="CM116" t="n" s="10">
-        <v>94.5</v>
+        <v>94.4</v>
       </c>
       <c r="CN116" t="n" s="10">
-        <v>96.3</v>
+        <v>96.4</v>
       </c>
       <c r="CO116" t="n" s="10">
         <v>98.0</v>
@@ -44359,7 +44359,7 @@
         <v>90.9</v>
       </c>
       <c r="CR116" t="n" s="10">
-        <v>100.9</v>
+        <v>100.7</v>
       </c>
       <c r="CS116" t="n" s="10">
         <v>97.9</v>
@@ -44368,7 +44368,7 @@
         <v>97.9</v>
       </c>
       <c r="CU116" t="n" s="10">
-        <v>98.2</v>
+        <v>98.3</v>
       </c>
       <c r="CV116" t="n" s="10">
         <v>95.6</v>
@@ -44380,10 +44380,10 @@
         <v>95.1</v>
       </c>
       <c r="CY116" t="n" s="10">
-        <v>97.9</v>
+        <v>98.0</v>
       </c>
       <c r="CZ116" t="n" s="10">
-        <v>95.2</v>
+        <v>95.1</v>
       </c>
       <c r="DA116" t="n" s="10">
         <v>97.2</v>
@@ -44395,7 +44395,7 @@
         <v>99.0</v>
       </c>
       <c r="DD116" t="n" s="10">
-        <v>97.9</v>
+        <v>97.8</v>
       </c>
       <c r="DE116" t="n" s="10">
         <v>96.1</v>
@@ -44410,7 +44410,7 @@
         <v>95.9</v>
       </c>
       <c r="DI116" t="n" s="10">
-        <v>94.9</v>
+        <v>95.0</v>
       </c>
       <c r="DJ116" t="n" s="10">
         <v>99.0</v>
@@ -44419,13 +44419,13 @@
         <v>98.4</v>
       </c>
       <c r="DL116" t="n" s="10">
-        <v>98.9</v>
+        <v>98.8</v>
       </c>
       <c r="DM116" t="n" s="10">
         <v>97.5</v>
       </c>
       <c r="DN116" t="n" s="10">
-        <v>100.2</v>
+        <v>100.1</v>
       </c>
       <c r="DO116" t="n" s="10">
         <v>100.8</v>
@@ -44452,7 +44452,7 @@
         <v>96.4</v>
       </c>
       <c r="DW116" t="n" s="10">
-        <v>100.5</v>
+        <v>100.4</v>
       </c>
       <c r="DX116" t="n" s="10">
         <v>98.9</v>
@@ -44467,13 +44467,13 @@
         <v>95.5</v>
       </c>
       <c r="EB116" t="n" s="10">
-        <v>95.7</v>
+        <v>95.8</v>
       </c>
       <c r="EC116" t="n" s="10">
         <v>99.4</v>
       </c>
       <c r="ED116" t="n" s="10">
-        <v>98.6</v>
+        <v>98.5</v>
       </c>
     </row>
     <row r="117">
@@ -44856,7 +44856,7 @@
         <v>101.9</v>
       </c>
       <c r="DX117" t="n" s="10">
-        <v>97.4</v>
+        <v>97.3</v>
       </c>
       <c r="DY117" t="n" s="10">
         <v>98.5</v>
@@ -45113,7 +45113,7 @@
         <v>94.5</v>
       </c>
       <c r="CB118" t="n" s="10">
-        <v>95.0</v>
+        <v>95.1</v>
       </c>
       <c r="CC118" t="n" s="10">
         <v>95.5</v>
@@ -45191,7 +45191,7 @@
         <v>97.5</v>
       </c>
       <c r="DB118" t="n" s="10">
-        <v>97.3</v>
+        <v>97.2</v>
       </c>
       <c r="DC118" t="n" s="10">
         <v>97.1</v>
@@ -46539,7 +46539,7 @@
         <v>104.1</v>
       </c>
       <c r="R123" t="n" s="10">
-        <v>103.9</v>
+        <v>104.0</v>
       </c>
       <c r="S123" t="n" s="10">
         <v>104.3</v>
@@ -46572,10 +46572,10 @@
         <v>104.9</v>
       </c>
       <c r="AC123" t="n" s="10">
-        <v>103.2</v>
+        <v>103.3</v>
       </c>
       <c r="AD123" t="n" s="10">
-        <v>106.6</v>
+        <v>106.5</v>
       </c>
       <c r="AE123" t="n" s="10">
         <v>107.7</v>
@@ -46611,7 +46611,7 @@
         <v>108.1</v>
       </c>
       <c r="AP123" t="n" s="10">
-        <v>105.1</v>
+        <v>105.0</v>
       </c>
       <c r="AQ123" t="n" s="10">
         <v>102.0</v>
@@ -46620,7 +46620,7 @@
         <v>106.7</v>
       </c>
       <c r="AS123" t="n" s="10">
-        <v>104.2</v>
+        <v>104.1</v>
       </c>
       <c r="AT123" t="n" s="10">
         <v>103.7</v>
@@ -46689,7 +46689,7 @@
         <v>96.9</v>
       </c>
       <c r="BP123" t="n" s="10">
-        <v>97.4</v>
+        <v>97.3</v>
       </c>
       <c r="BQ123" t="n" s="10">
         <v>96.9</v>
@@ -46743,7 +46743,7 @@
         <v>99.9</v>
       </c>
       <c r="CH123" t="n" s="10">
-        <v>97.1</v>
+        <v>97.2</v>
       </c>
       <c r="CI123" t="n" s="10">
         <v>101.6</v>
@@ -46758,7 +46758,7 @@
         <v>104.3</v>
       </c>
       <c r="CM123" t="n" s="10">
-        <v>100.8</v>
+        <v>100.9</v>
       </c>
       <c r="CN123" t="n" s="10">
         <v>100.5</v>
@@ -46785,7 +46785,7 @@
         <v>102.3</v>
       </c>
       <c r="CV123" t="n" s="10">
-        <v>101.9</v>
+        <v>102.0</v>
       </c>
       <c r="CW123" t="n" s="10">
         <v>106.1</v>
@@ -46815,7 +46815,7 @@
         <v>101.2</v>
       </c>
       <c r="DF123" t="n" s="10">
-        <v>102.7</v>
+        <v>102.6</v>
       </c>
       <c r="DG123" t="n" s="10">
         <v>101.0</v>
@@ -46827,7 +46827,7 @@
         <v>97.8</v>
       </c>
       <c r="DJ123" t="n" s="10">
-        <v>100.1</v>
+        <v>100.2</v>
       </c>
       <c r="DK123" t="n" s="10">
         <v>101.3</v>
@@ -46836,7 +46836,7 @@
         <v>99.9</v>
       </c>
       <c r="DM123" t="n" s="10">
-        <v>100.5</v>
+        <v>100.6</v>
       </c>
       <c r="DN123" t="n" s="10">
         <v>98.9</v>
@@ -46845,7 +46845,7 @@
         <v>99.2</v>
       </c>
       <c r="DP123" t="n" s="10">
-        <v>98.9</v>
+        <v>98.8</v>
       </c>
       <c r="DQ123" t="n" s="10">
         <v>100.0</v>
@@ -46884,7 +46884,7 @@
         <v>99.1</v>
       </c>
       <c r="EC123" t="n" s="10">
-        <v>99.1</v>
+        <v>99.0</v>
       </c>
       <c r="ED123" t="n" s="10">
         <v>99.3</v>
@@ -47177,7 +47177,7 @@
         <v>102.8</v>
       </c>
       <c r="CS124" t="n" s="10">
-        <v>102.8</v>
+        <v>102.9</v>
       </c>
       <c r="CT124" t="n" s="10">
         <v>102.9</v>
@@ -48532,7 +48532,7 @@
         <v>97.5</v>
       </c>
       <c r="M128" t="n" s="10">
-        <v>97.2</v>
+        <v>97.3</v>
       </c>
       <c r="N128" t="n" s="10">
         <v>96.1</v>
@@ -48547,7 +48547,7 @@
         <v>95.9</v>
       </c>
       <c r="R128" t="n" s="10">
-        <v>95.6</v>
+        <v>95.7</v>
       </c>
       <c r="S128" t="n" s="10">
         <v>96.1</v>
@@ -48709,7 +48709,7 @@
         <v>93.7</v>
       </c>
       <c r="BT128" t="n" s="10">
-        <v>92.5</v>
+        <v>92.6</v>
       </c>
       <c r="BU128" t="n" s="10">
         <v>92.6</v>
@@ -48736,7 +48736,7 @@
         <v>97.1</v>
       </c>
       <c r="CC128" t="n" s="10">
-        <v>96.6</v>
+        <v>96.7</v>
       </c>
       <c r="CD128" t="n" s="10">
         <v>96.3</v>
@@ -48760,7 +48760,7 @@
         <v>99.0</v>
       </c>
       <c r="CK128" t="n" s="10">
-        <v>95.9</v>
+        <v>96.0</v>
       </c>
       <c r="CL128" t="n" s="10">
         <v>100.9</v>
@@ -48793,7 +48793,7 @@
         <v>99.9</v>
       </c>
       <c r="CV128" t="n" s="10">
-        <v>99.5</v>
+        <v>99.6</v>
       </c>
       <c r="CW128" t="n" s="10">
         <v>103.8</v>
@@ -48936,7 +48936,7 @@
         <v>96.8</v>
       </c>
       <c r="N129" t="n" s="10">
-        <v>96.5</v>
+        <v>96.6</v>
       </c>
       <c r="O129" t="n" s="10">
         <v>96.4</v>
@@ -49149,7 +49149,7 @@
         <v>96.6</v>
       </c>
       <c r="CG129" t="n" s="10">
-        <v>96.7</v>
+        <v>96.8</v>
       </c>
       <c r="CH129" t="n" s="10">
         <v>96.9</v>
@@ -49167,7 +49167,7 @@
         <v>98.1</v>
       </c>
       <c r="CM129" t="n" s="10">
-        <v>98.3</v>
+        <v>98.4</v>
       </c>
       <c r="CN129" t="n" s="10">
         <v>98.7</v>
@@ -50515,67 +50515,67 @@
         <v>35</v>
       </c>
       <c r="C134" t="n" s="10">
-        <v>73.2</v>
+        <v>73.4</v>
       </c>
       <c r="D134" t="n" s="10">
-        <v>75.8</v>
+        <v>76.0</v>
       </c>
       <c r="E134" t="n" s="10">
-        <v>77.4</v>
+        <v>77.5</v>
       </c>
       <c r="F134" t="n" s="10">
-        <v>77.8</v>
+        <v>77.9</v>
       </c>
       <c r="G134" t="n" s="10">
-        <v>76.8</v>
+        <v>76.9</v>
       </c>
       <c r="H134" t="n" s="10">
+        <v>79.2</v>
+      </c>
+      <c r="I134" t="n" s="10">
         <v>79.0</v>
       </c>
-      <c r="I134" t="n" s="10">
-        <v>78.9</v>
-      </c>
       <c r="J134" t="n" s="10">
-        <v>78.6</v>
+        <v>78.8</v>
       </c>
       <c r="K134" t="n" s="10">
-        <v>78.7</v>
+        <v>78.8</v>
       </c>
       <c r="L134" t="n" s="10">
-        <v>79.2</v>
+        <v>79.3</v>
       </c>
       <c r="M134" t="n" s="10">
-        <v>79.4</v>
+        <v>79.6</v>
       </c>
       <c r="N134" t="n" s="10">
-        <v>82.3</v>
+        <v>81.0</v>
       </c>
       <c r="O134" t="n" s="10">
-        <v>80.2</v>
+        <v>80.4</v>
       </c>
       <c r="P134" t="n" s="10">
+        <v>82.2</v>
+      </c>
+      <c r="Q134" t="n" s="10">
         <v>82.0</v>
       </c>
-      <c r="Q134" t="n" s="10">
-        <v>81.8</v>
-      </c>
       <c r="R134" t="n" s="10">
-        <v>80.6</v>
+        <v>80.8</v>
       </c>
       <c r="S134" t="n" s="10">
+        <v>82.6</v>
+      </c>
+      <c r="T134" t="n" s="10">
+        <v>81.2</v>
+      </c>
+      <c r="U134" t="n" s="10">
         <v>82.5</v>
       </c>
-      <c r="T134" t="n" s="10">
-        <v>81.0</v>
-      </c>
-      <c r="U134" t="n" s="10">
+      <c r="V134" t="n" s="10">
         <v>82.4</v>
       </c>
-      <c r="V134" t="n" s="10">
-        <v>82.3</v>
-      </c>
       <c r="W134" t="n" s="10">
-        <v>83.4</v>
+        <v>83.5</v>
       </c>
       <c r="X134" t="n" s="10">
         <v>83.4</v>
@@ -50584,10 +50584,10 @@
         <v>83.1</v>
       </c>
       <c r="Z134" t="n" s="10">
-        <v>83.0</v>
+        <v>82.5</v>
       </c>
       <c r="AA134" t="n" s="10">
-        <v>83.7</v>
+        <v>83.8</v>
       </c>
       <c r="AB134" t="n" s="10">
         <v>83.3</v>
@@ -50599,7 +50599,7 @@
         <v>84.6</v>
       </c>
       <c r="AE134" t="n" s="10">
-        <v>83.8</v>
+        <v>83.9</v>
       </c>
       <c r="AF134" t="n" s="10">
         <v>84.6</v>
@@ -50620,7 +50620,7 @@
         <v>85.6</v>
       </c>
       <c r="AL134" t="n" s="10">
-        <v>86.8</v>
+        <v>86.7</v>
       </c>
       <c r="AM134" t="n" s="10">
         <v>85.1</v>
@@ -50665,7 +50665,7 @@
         <v>89.8</v>
       </c>
       <c r="BA134" t="n" s="10">
-        <v>88.3</v>
+        <v>88.2</v>
       </c>
       <c r="BB134" t="n" s="10">
         <v>88.6</v>
@@ -50680,7 +50680,7 @@
         <v>88.9</v>
       </c>
       <c r="BF134" t="n" s="10">
-        <v>88.9</v>
+        <v>88.8</v>
       </c>
       <c r="BG134" t="n" s="10">
         <v>89.6</v>
@@ -50689,7 +50689,7 @@
         <v>89.2</v>
       </c>
       <c r="BI134" t="n" s="10">
-        <v>89.1</v>
+        <v>89.0</v>
       </c>
       <c r="BJ134" t="n" s="10">
         <v>90.2</v>
@@ -50722,7 +50722,7 @@
         <v>89.9</v>
       </c>
       <c r="BT134" t="n" s="10">
-        <v>90.7</v>
+        <v>90.8</v>
       </c>
       <c r="BU134" t="n" s="10">
         <v>91.8</v>
@@ -50746,7 +50746,7 @@
         <v>92.7</v>
       </c>
       <c r="CB134" t="n" s="10">
-        <v>93.5</v>
+        <v>93.6</v>
       </c>
       <c r="CC134" t="n" s="10">
         <v>94.2</v>
@@ -50782,7 +50782,7 @@
         <v>92.7</v>
       </c>
       <c r="CN134" t="n" s="10">
-        <v>92.1</v>
+        <v>92.0</v>
       </c>
       <c r="CO134" t="n" s="10">
         <v>92.9</v>
@@ -50794,7 +50794,7 @@
         <v>94.1</v>
       </c>
       <c r="CR134" t="n" s="10">
-        <v>93.5</v>
+        <v>93.4</v>
       </c>
       <c r="CS134" t="n" s="10">
         <v>93.4</v>
@@ -50857,7 +50857,7 @@
         <v>90.8</v>
       </c>
       <c r="DM134" t="n" s="10">
-        <v>93.4</v>
+        <v>93.5</v>
       </c>
       <c r="DN134" t="n" s="10">
         <v>94.1</v>
@@ -50890,7 +50890,7 @@
         <v>97.3</v>
       </c>
       <c r="DX134" t="n" s="10">
-        <v>97.8</v>
+        <v>97.7</v>
       </c>
       <c r="DY134" t="n" s="10">
         <v>97.2</v>
@@ -50905,7 +50905,7 @@
         <v>98.4</v>
       </c>
       <c r="EC134" t="n" s="10">
-        <v>98.4</v>
+        <v>98.3</v>
       </c>
       <c r="ED134" t="n" s="10">
         <v>99.5</v>
@@ -50916,64 +50916,64 @@
         <v>36</v>
       </c>
       <c r="C135" t="n" s="10">
-        <v>77.3</v>
+        <v>77.5</v>
       </c>
       <c r="D135" t="n" s="10">
-        <v>77.4</v>
+        <v>77.5</v>
       </c>
       <c r="E135" t="n" s="10">
-        <v>77.5</v>
+        <v>77.6</v>
       </c>
       <c r="F135" t="n" s="10">
-        <v>77.6</v>
+        <v>77.8</v>
       </c>
       <c r="G135" t="n" s="10">
-        <v>77.8</v>
+        <v>78.0</v>
       </c>
       <c r="H135" t="n" s="10">
-        <v>78.1</v>
+        <v>78.2</v>
       </c>
       <c r="I135" t="n" s="10">
-        <v>78.4</v>
+        <v>78.6</v>
       </c>
       <c r="J135" t="n" s="10">
-        <v>78.7</v>
+        <v>78.9</v>
       </c>
       <c r="K135" t="n" s="10">
-        <v>79.0</v>
+        <v>79.2</v>
       </c>
       <c r="L135" t="n" s="10">
-        <v>79.4</v>
+        <v>79.6</v>
       </c>
       <c r="M135" t="n" s="10">
-        <v>79.8</v>
+        <v>80.0</v>
       </c>
       <c r="N135" t="n" s="10">
-        <v>80.1</v>
+        <v>80.4</v>
       </c>
       <c r="O135" t="n" s="10">
-        <v>80.5</v>
+        <v>80.8</v>
       </c>
       <c r="P135" t="n" s="10">
-        <v>80.9</v>
+        <v>81.1</v>
       </c>
       <c r="Q135" t="n" s="10">
-        <v>81.2</v>
+        <v>81.4</v>
       </c>
       <c r="R135" t="n" s="10">
-        <v>81.4</v>
+        <v>81.6</v>
       </c>
       <c r="S135" t="n" s="10">
-        <v>81.7</v>
+        <v>81.8</v>
       </c>
       <c r="T135" t="n" s="10">
-        <v>82.0</v>
+        <v>82.1</v>
       </c>
       <c r="U135" t="n" s="10">
         <v>82.3</v>
       </c>
       <c r="V135" t="n" s="10">
-        <v>82.5</v>
+        <v>82.6</v>
       </c>
       <c r="W135" t="n" s="10">
         <v>82.8</v>
@@ -50982,7 +50982,7 @@
         <v>83.0</v>
       </c>
       <c r="Y135" t="n" s="10">
-        <v>83.2</v>
+        <v>83.1</v>
       </c>
       <c r="Z135" t="n" s="10">
         <v>83.3</v>
@@ -51033,7 +51033,7 @@
         <v>86.4</v>
       </c>
       <c r="AP135" t="n" s="10">
-        <v>86.7</v>
+        <v>86.6</v>
       </c>
       <c r="AQ135" t="n" s="10">
         <v>86.9</v>
@@ -51162,10 +51162,10 @@
         <v>92.7</v>
       </c>
       <c r="CG135" t="n" s="10">
+        <v>92.6</v>
+      </c>
+      <c r="CH135" t="n" s="10">
         <v>92.5</v>
-      </c>
-      <c r="CH135" t="n" s="10">
-        <v>92.4</v>
       </c>
       <c r="CI135" t="n" s="10">
         <v>92.4</v>
@@ -51210,7 +51210,7 @@
         <v>93.1</v>
       </c>
       <c r="CW135" t="n" s="10">
-        <v>92.8</v>
+        <v>92.9</v>
       </c>
       <c r="CX135" t="n" s="10">
         <v>92.6</v>
@@ -52529,7 +52529,7 @@
         <v>69.9</v>
       </c>
       <c r="E139" t="n" s="10">
-        <v>71.1</v>
+        <v>71.2</v>
       </c>
       <c r="F139" t="n" s="10">
         <v>71.4</v>
@@ -52556,7 +52556,7 @@
         <v>72.6</v>
       </c>
       <c r="N139" t="n" s="10">
-        <v>73.8</v>
+        <v>73.9</v>
       </c>
       <c r="O139" t="n" s="10">
         <v>73.4</v>
@@ -52574,7 +52574,7 @@
         <v>75.6</v>
       </c>
       <c r="T139" t="n" s="10">
-        <v>74.1</v>
+        <v>74.2</v>
       </c>
       <c r="U139" t="n" s="10">
         <v>75.5</v>
@@ -52583,7 +52583,7 @@
         <v>75.3</v>
       </c>
       <c r="W139" t="n" s="10">
-        <v>76.2</v>
+        <v>76.3</v>
       </c>
       <c r="X139" t="n" s="10">
         <v>76.3</v>
@@ -52595,7 +52595,7 @@
         <v>75.4</v>
       </c>
       <c r="AA139" t="n" s="10">
-        <v>76.7</v>
+        <v>76.8</v>
       </c>
       <c r="AB139" t="n" s="10">
         <v>76.3</v>
@@ -52607,7 +52607,7 @@
         <v>77.4</v>
       </c>
       <c r="AE139" t="n" s="10">
-        <v>76.4</v>
+        <v>76.5</v>
       </c>
       <c r="AF139" t="n" s="10">
         <v>77.2</v>
@@ -52637,7 +52637,7 @@
         <v>77.2</v>
       </c>
       <c r="AO139" t="n" s="10">
-        <v>78.7</v>
+        <v>78.8</v>
       </c>
       <c r="AP139" t="n" s="10">
         <v>78.0</v>
@@ -52652,7 +52652,7 @@
         <v>79.0</v>
       </c>
       <c r="AT139" t="n" s="10">
-        <v>79.4</v>
+        <v>79.5</v>
       </c>
       <c r="AU139" t="n" s="10">
         <v>79.4</v>
@@ -52661,10 +52661,10 @@
         <v>80.1</v>
       </c>
       <c r="AW139" t="n" s="10">
-        <v>79.6</v>
+        <v>79.7</v>
       </c>
       <c r="AX139" t="n" s="10">
-        <v>79.0</v>
+        <v>78.9</v>
       </c>
       <c r="AY139" t="n" s="10">
         <v>80.8</v>
@@ -52673,10 +52673,10 @@
         <v>81.3</v>
       </c>
       <c r="BA139" t="n" s="10">
+        <v>80.1</v>
+      </c>
+      <c r="BB139" t="n" s="10">
         <v>80.2</v>
-      </c>
-      <c r="BB139" t="n" s="10">
-        <v>80.1</v>
       </c>
       <c r="BC139" t="n" s="10">
         <v>80.8</v>
@@ -52691,13 +52691,13 @@
         <v>80.6</v>
       </c>
       <c r="BG139" t="n" s="10">
-        <v>81.1</v>
+        <v>81.2</v>
       </c>
       <c r="BH139" t="n" s="10">
         <v>80.8</v>
       </c>
       <c r="BI139" t="n" s="10">
-        <v>80.9</v>
+        <v>80.8</v>
       </c>
       <c r="BJ139" t="n" s="10">
         <v>81.9</v>
@@ -52709,16 +52709,16 @@
         <v>80.8</v>
       </c>
       <c r="BM139" t="n" s="10">
-        <v>80.5</v>
+        <v>80.6</v>
       </c>
       <c r="BN139" t="n" s="10">
-        <v>82.4</v>
+        <v>82.3</v>
       </c>
       <c r="BO139" t="n" s="10">
         <v>81.8</v>
       </c>
       <c r="BP139" t="n" s="10">
-        <v>82.5</v>
+        <v>82.4</v>
       </c>
       <c r="BQ139" t="n" s="10">
         <v>82.0</v>
@@ -52745,13 +52745,13 @@
         <v>85.0</v>
       </c>
       <c r="BY139" t="n" s="10">
-        <v>86.6</v>
+        <v>86.7</v>
       </c>
       <c r="BZ139" t="n" s="10">
         <v>84.8</v>
       </c>
       <c r="CA139" t="n" s="10">
-        <v>85.3</v>
+        <v>85.2</v>
       </c>
       <c r="CB139" t="n" s="10">
         <v>86.0</v>
@@ -52769,13 +52769,13 @@
         <v>85.7</v>
       </c>
       <c r="CG139" t="n" s="10">
-        <v>85.3</v>
+        <v>85.4</v>
       </c>
       <c r="CH139" t="n" s="10">
-        <v>84.9</v>
+        <v>85.0</v>
       </c>
       <c r="CI139" t="n" s="10">
-        <v>85.4</v>
+        <v>85.5</v>
       </c>
       <c r="CJ139" t="n" s="10">
         <v>85.4</v>
@@ -52787,13 +52787,13 @@
         <v>86.3</v>
       </c>
       <c r="CM139" t="n" s="10">
-        <v>85.8</v>
+        <v>85.9</v>
       </c>
       <c r="CN139" t="n" s="10">
         <v>85.5</v>
       </c>
       <c r="CO139" t="n" s="10">
-        <v>86.3</v>
+        <v>86.2</v>
       </c>
       <c r="CP139" t="n" s="10">
         <v>86.8</v>
@@ -52823,7 +52823,7 @@
         <v>86.3</v>
       </c>
       <c r="CY139" t="n" s="10">
-        <v>87.0</v>
+        <v>86.9</v>
       </c>
       <c r="CZ139" t="n" s="10">
         <v>88.0</v>
@@ -52835,7 +52835,7 @@
         <v>85.7</v>
       </c>
       <c r="DC139" t="n" s="10">
-        <v>85.8</v>
+        <v>85.7</v>
       </c>
       <c r="DD139" t="n" s="10">
         <v>86.4</v>
@@ -52844,7 +52844,7 @@
         <v>86.6</v>
       </c>
       <c r="DF139" t="n" s="10">
-        <v>86.4</v>
+        <v>86.3</v>
       </c>
       <c r="DG139" t="n" s="10">
         <v>87.4</v>
@@ -52853,13 +52853,13 @@
         <v>87.1</v>
       </c>
       <c r="DI139" t="n" s="10">
-        <v>87.6</v>
+        <v>87.5</v>
       </c>
       <c r="DJ139" t="n" s="10">
-        <v>87.3</v>
+        <v>87.4</v>
       </c>
       <c r="DK139" t="n" s="10">
-        <v>88.0</v>
+        <v>87.9</v>
       </c>
       <c r="DL139" t="n" s="10">
         <v>87.0</v>
@@ -52904,10 +52904,10 @@
         <v>95.7</v>
       </c>
       <c r="DZ139" t="n" s="10">
-        <v>95.7</v>
+        <v>95.6</v>
       </c>
       <c r="EA139" t="n" s="10">
-        <v>96.5</v>
+        <v>96.6</v>
       </c>
       <c r="EB139" t="n" s="10">
         <v>97.3</v>
@@ -53074,7 +53074,7 @@
         <v>80.2</v>
       </c>
       <c r="BA140" t="n" s="10">
-        <v>80.3</v>
+        <v>80.2</v>
       </c>
       <c r="BB140" t="n" s="10">
         <v>80.3</v>
@@ -53164,13 +53164,13 @@
         <v>85.7</v>
       </c>
       <c r="CE140" t="n" s="10">
-        <v>85.6</v>
+        <v>85.7</v>
       </c>
       <c r="CF140" t="n" s="10">
         <v>85.6</v>
       </c>
       <c r="CG140" t="n" s="10">
-        <v>85.5</v>
+        <v>85.6</v>
       </c>
       <c r="CH140" t="n" s="10">
         <v>85.5</v>
@@ -53182,16 +53182,16 @@
         <v>85.5</v>
       </c>
       <c r="CK140" t="n" s="10">
-        <v>85.5</v>
+        <v>85.6</v>
       </c>
       <c r="CL140" t="n" s="10">
-        <v>85.6</v>
+        <v>85.7</v>
       </c>
       <c r="CM140" t="n" s="10">
         <v>85.8</v>
       </c>
       <c r="CN140" t="n" s="10">
-        <v>85.9</v>
+        <v>86.0</v>
       </c>
       <c r="CO140" t="n" s="10">
         <v>86.2</v>
@@ -53215,10 +53215,10 @@
         <v>87.1</v>
       </c>
       <c r="CV140" t="n" s="10">
+        <v>87.1</v>
+      </c>
+      <c r="CW140" t="n" s="10">
         <v>87.0</v>
-      </c>
-      <c r="CW140" t="n" s="10">
-        <v>86.9</v>
       </c>
       <c r="CX140" t="n" s="10">
         <v>86.8</v>
@@ -53254,7 +53254,7 @@
         <v>87.0</v>
       </c>
       <c r="DI140" t="n" s="10">
-        <v>87.3</v>
+        <v>87.2</v>
       </c>
       <c r="DJ140" t="n" s="10">
         <v>87.6</v>
@@ -53302,7 +53302,7 @@
         <v>95.0</v>
       </c>
       <c r="DY140" t="n" s="10">
-        <v>95.6</v>
+        <v>95.5</v>
       </c>
       <c r="DZ140" t="n" s="10">
         <v>96.1</v>
@@ -53410,7 +53410,7 @@
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
-    <oddFooter>&amp;CAbgerufen am 01.04.22 / 03:41:39&amp;RSeite &amp;P von &amp;N</oddFooter>
+    <oddFooter>&amp;CAbgerufen am 17.06.22 / 09:20:17&amp;RSeite &amp;P von &amp;N</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/INTLINE/data/134/DEUSTATIS/Turnover in retail trade - 2004.xlsx
+++ b/INTLINE/data/134/DEUSTATIS/Turnover in retail trade - 2004.xlsx
@@ -190,7 +190,7 @@
     <t>a break in the time series.</t>
   </si>
   <si>
-    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-06-17 / 09:19:50</t>
+    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-06-28 / 06:32:19</t>
   </si>
 </sst>
 </file>
@@ -53410,7 +53410,7 @@
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
-    <oddFooter>&amp;CAbgerufen am 17.06.22 / 09:20:17&amp;RSeite &amp;P von &amp;N</oddFooter>
+    <oddFooter>&amp;CAbgerufen am 28.06.22 / 06:32:27&amp;RSeite &amp;P von &amp;N</oddFooter>
   </headerFooter>
 </worksheet>
 </file>